--- a/analysis/Random Sobol.xlsx
+++ b/analysis/Random Sobol.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12915"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12915" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="sin.1" sheetId="4" r:id="rId1"/>
@@ -565,67 +565,67 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="rom.optimized.S1" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ard.S1" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="rom.optimized.S" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ard.S" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="rom.optimized.S1" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ard.S" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="rom.optimized.S" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ard.S1" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ard.S" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="rom.optimized.S" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ard.S1" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ard.S" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ard.S1" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="rom.optimized.S1" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ard.S1" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ard.S1" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="rom.optimized.S1" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ard.S" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="rom.optimized.S" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="rom.optimized.S1" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ard.S" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="rom.optimized.S" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="rom.optimized.S" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ard.S" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="rom.optimized.S1" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ard.S1" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="rom.optimized.S" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="rom.optimized.S1" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -893,8 +893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="Y42" sqref="Y42:AC42"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="Z49" sqref="Z49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3803,17 +3803,17 @@
         <v>0</v>
       </c>
       <c r="AA50" s="14">
-        <v>9.9920072216264089E-16</v>
+        <v>0</v>
       </c>
       <c r="AB50" s="14">
-        <v>9.9920072216264089E-16</v>
+        <v>0</v>
       </c>
       <c r="AC50" s="15">
         <v>0</v>
       </c>
       <c r="AD50" s="19">
         <f t="array" ref="AD50">MAX(ABS(Y50:AC50))</f>
-        <v>9.9920072216264089E-16</v>
+        <v>0</v>
       </c>
       <c r="AE50" s="19">
         <f t="array" ref="AE50">MAX(IF($Y$42:$AC$42&gt;1-$AE$42,ABS($Y50:$AC50),0))</f>
@@ -3852,7 +3852,7 @@
         <v>0</v>
       </c>
       <c r="Z51" s="14">
-        <v>9.9920072216264089E-16</v>
+        <v>0</v>
       </c>
       <c r="AA51" s="14">
         <v>0</v>
@@ -3865,7 +3865,7 @@
       </c>
       <c r="AD51" s="19">
         <f t="array" ref="AD51">MAX(ABS(Y51:AC51))</f>
-        <v>9.9920072216264089E-16</v>
+        <v>0</v>
       </c>
       <c r="AE51" s="19">
         <f t="array" ref="AE51">MAX(IF($Y$42:$AC$42&gt;1-$AE$42,ABS($Y51:$AC51),0))</f>
@@ -3986,8 +3986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN53"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="Y42" sqref="Y42:AC42"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4133,19 +4133,19 @@
         <v>100</v>
       </c>
       <c r="D4" s="32">
-        <v>0.87326170129010205</v>
+        <v>0.38334043264522</v>
       </c>
       <c r="E4" s="32">
-        <v>2.5520491921606901E-2</v>
+        <v>8.5522325617153505E-2</v>
       </c>
       <c r="F4" s="32">
-        <v>2.2625038480298301E-2</v>
+        <v>4.2553603148030097E-3</v>
       </c>
       <c r="G4" s="32">
-        <v>1.05205860596048E-2</v>
+        <v>1.7420294267505101E-2</v>
       </c>
       <c r="H4" s="33">
-        <v>1.3098858316443699E-3</v>
+        <v>-5.9150269514365799E-18</v>
       </c>
       <c r="I4" s="39"/>
       <c r="J4" s="39"/>
@@ -4170,27 +4170,27 @@
       </c>
       <c r="Y4" s="32">
         <f t="array" ref="Y4:AC13">D4:H13-Y2:AC2</f>
-        <v>0.79779000129010202</v>
+        <v>0.30786873264521997</v>
       </c>
       <c r="Z4" s="32">
-        <v>-0.89900750807839314</v>
+        <v>-0.83900567438284646</v>
       </c>
       <c r="AA4" s="32">
-        <v>2.2625038480298301E-2</v>
+        <v>4.2553603148030097E-3</v>
       </c>
       <c r="AB4" s="32">
-        <v>1.05205860596048E-2</v>
+        <v>1.7420294267505101E-2</v>
       </c>
       <c r="AC4" s="33">
-        <v>1.3098858316443699E-3</v>
+        <v>-5.9150269514365799E-18</v>
       </c>
       <c r="AD4" s="34">
         <f t="array" ref="AD4">MAX(ABS(Y4:AC4))</f>
-        <v>0.89900750807839314</v>
+        <v>0.83900567438284646</v>
       </c>
       <c r="AE4" s="34">
         <f t="array" ref="AE4">MAX(IF($Y$2:$AC$2&lt;$AE$2,ABS($Y4:$AC4),0))</f>
-        <v>2.2625038480298301E-2</v>
+        <v>1.7420294267505101E-2</v>
       </c>
       <c r="AF4" s="4"/>
       <c r="AM4" s="4"/>
@@ -4204,19 +4204,19 @@
         <v>100</v>
       </c>
       <c r="D5" s="32">
-        <v>0.92839364960431703</v>
+        <v>0.94892466248200902</v>
       </c>
       <c r="E5" s="32">
-        <v>1.28852806257806E-2</v>
+        <v>2.1574962351245602E-2</v>
       </c>
       <c r="F5" s="32">
-        <v>7.34075268844144E-3</v>
+        <v>1.0361908552405701E-4</v>
       </c>
       <c r="G5" s="32">
-        <v>9.4000191261495395E-3</v>
+        <v>6.0443929887067199E-6</v>
       </c>
       <c r="H5" s="33">
-        <v>9.4580412679557205E-4</v>
+        <v>9.5290307283835996E-14</v>
       </c>
       <c r="I5" s="39"/>
       <c r="J5" s="39"/>
@@ -4239,27 +4239,27 @@
         <v>100</v>
       </c>
       <c r="Y5" s="32">
-        <v>0.852921949604317</v>
+        <v>0.87345296248200899</v>
       </c>
       <c r="Z5" s="32">
-        <v>-0.91164271937421937</v>
+        <v>-0.90295303764875445</v>
       </c>
       <c r="AA5" s="32">
-        <v>7.34075268844144E-3</v>
+        <v>1.0361908552405701E-4</v>
       </c>
       <c r="AB5" s="32">
-        <v>9.4000191261495395E-3</v>
+        <v>6.0443929887067199E-6</v>
       </c>
       <c r="AC5" s="33">
-        <v>9.4580412679557205E-4</v>
+        <v>9.5290307283835996E-14</v>
       </c>
       <c r="AD5" s="34">
         <f t="array" ref="AD5">MAX(ABS(Y5:AC5))</f>
-        <v>0.91164271937421937</v>
+        <v>0.90295303764875445</v>
       </c>
       <c r="AE5" s="34">
         <f t="array" ref="AE5">MAX(IF($Y$2:$AC$2&lt;$AE$2,ABS($Y5:$AC5),0))</f>
-        <v>9.4000191261495395E-3</v>
+        <v>1.0361908552405701E-4</v>
       </c>
       <c r="AF5" s="4"/>
       <c r="AM5" s="4"/>
@@ -4273,19 +4273,19 @@
         <v>200</v>
       </c>
       <c r="D6" s="32">
-        <v>0.91171843871648195</v>
+        <v>0.71860754480288702</v>
       </c>
       <c r="E6" s="32">
-        <v>3.4423163051970698E-2</v>
+        <v>1.5223286318479501E-2</v>
       </c>
       <c r="F6" s="32">
-        <v>9.1287300224198592E-3</v>
+        <v>6.4561946511439202E-3</v>
       </c>
       <c r="G6" s="32">
-        <v>5.6334363333152499E-3</v>
+        <v>6.34525865714763E-3</v>
       </c>
       <c r="H6" s="33">
-        <v>1.8376116238092001E-3</v>
+        <v>1.4260682790889301E-3</v>
       </c>
       <c r="I6" s="39"/>
       <c r="J6" s="39"/>
@@ -4308,27 +4308,27 @@
         <v>200</v>
       </c>
       <c r="Y6" s="32">
-        <v>0.83624673871648192</v>
+        <v>0.64313584480288699</v>
       </c>
       <c r="Z6" s="32">
-        <v>-0.89010483694802933</v>
+        <v>-0.90930471368152055</v>
       </c>
       <c r="AA6" s="32">
-        <v>9.1287300224198592E-3</v>
+        <v>6.4561946511439202E-3</v>
       </c>
       <c r="AB6" s="32">
-        <v>5.6334363333152499E-3</v>
+        <v>6.34525865714763E-3</v>
       </c>
       <c r="AC6" s="33">
-        <v>1.8376116238092001E-3</v>
+        <v>1.4260682790889301E-3</v>
       </c>
       <c r="AD6" s="34">
         <f t="array" ref="AD6">MAX(ABS(Y6:AC6))</f>
-        <v>0.89010483694802933</v>
+        <v>0.90930471368152055</v>
       </c>
       <c r="AE6" s="34">
         <f t="array" ref="AE6">MAX(IF($Y$2:$AC$2&lt;$AE$2,ABS($Y6:$AC6),0))</f>
-        <v>9.1287300224198592E-3</v>
+        <v>6.4561946511439202E-3</v>
       </c>
       <c r="AF6" s="4"/>
       <c r="AM6" s="4"/>
@@ -4342,19 +4342,19 @@
         <v>200</v>
       </c>
       <c r="D7" s="32">
-        <v>0.91593758906381495</v>
+        <v>0.52624649599929796</v>
       </c>
       <c r="E7" s="32">
-        <v>6.7427063165164905E-2</v>
+        <v>1.20196558196857E-2</v>
       </c>
       <c r="F7" s="32">
-        <v>1.0455190982871199E-3</v>
+        <v>2.0729077896498201E-2</v>
       </c>
       <c r="G7" s="32">
-        <v>3.2951890025844998E-4</v>
+        <v>5.3449439935146902E-3</v>
       </c>
       <c r="H7" s="33">
-        <v>8.1007722195033301E-5</v>
+        <v>2.0316775161416099E-4</v>
       </c>
       <c r="I7" s="39"/>
       <c r="J7" s="39"/>
@@ -4377,27 +4377,27 @@
         <v>200</v>
       </c>
       <c r="Y7" s="32">
-        <v>0.84046588906381492</v>
+        <v>0.45077479599929793</v>
       </c>
       <c r="Z7" s="32">
-        <v>-0.85710093683483513</v>
+        <v>-0.91250834418031435</v>
       </c>
       <c r="AA7" s="32">
-        <v>1.0455190982871199E-3</v>
+        <v>2.0729077896498201E-2</v>
       </c>
       <c r="AB7" s="32">
-        <v>3.2951890025844998E-4</v>
+        <v>5.3449439935146902E-3</v>
       </c>
       <c r="AC7" s="33">
-        <v>8.1007722195033301E-5</v>
+        <v>2.0316775161416099E-4</v>
       </c>
       <c r="AD7" s="34">
         <f t="array" ref="AD7">MAX(ABS(Y7:AC7))</f>
-        <v>0.85710093683483513</v>
+        <v>0.91250834418031435</v>
       </c>
       <c r="AE7" s="34">
         <f t="array" ref="AE7">MAX(IF($Y$2:$AC$2&lt;$AE$2,ABS($Y7:$AC7),0))</f>
-        <v>1.0455190982871199E-3</v>
+        <v>2.0729077896498201E-2</v>
       </c>
       <c r="AF7" s="4"/>
       <c r="AM7" s="4"/>
@@ -4411,19 +4411,19 @@
         <v>400</v>
       </c>
       <c r="D8" s="32">
-        <v>0.91421932332643396</v>
+        <v>0.48833777026818198</v>
       </c>
       <c r="E8" s="32">
-        <v>3.4990461644505602E-2</v>
+        <v>6.2609349398677294E-2</v>
       </c>
       <c r="F8" s="32">
-        <v>8.3532845149545502E-3</v>
+        <v>1.3885662193740299E-3</v>
       </c>
       <c r="G8" s="32">
-        <v>7.1070175714399095E-4</v>
+        <v>6.7370696898504004E-4</v>
       </c>
       <c r="H8" s="33">
-        <v>1.41081951880086E-4</v>
+        <v>5.5399055166425798E-4</v>
       </c>
       <c r="I8" s="39"/>
       <c r="J8" s="39"/>
@@ -4446,27 +4446,27 @@
         <v>400</v>
       </c>
       <c r="Y8" s="32">
-        <v>0.83874762332643393</v>
+        <v>0.41286607026818201</v>
       </c>
       <c r="Z8" s="32">
-        <v>-0.88953753835549443</v>
+        <v>-0.86191865060132278</v>
       </c>
       <c r="AA8" s="32">
-        <v>8.3532845149545502E-3</v>
+        <v>1.3885662193740299E-3</v>
       </c>
       <c r="AB8" s="32">
-        <v>7.1070175714399095E-4</v>
+        <v>6.7370696898504004E-4</v>
       </c>
       <c r="AC8" s="33">
-        <v>1.41081951880086E-4</v>
+        <v>5.5399055166425798E-4</v>
       </c>
       <c r="AD8" s="34">
         <f t="array" ref="AD8">MAX(ABS(Y8:AC8))</f>
-        <v>0.88953753835549443</v>
+        <v>0.86191865060132278</v>
       </c>
       <c r="AE8" s="34">
         <f t="array" ref="AE8">MAX(IF($Y$2:$AC$2&lt;$AE$2,ABS($Y8:$AC8),0))</f>
-        <v>8.3532845149545502E-3</v>
+        <v>1.3885662193740299E-3</v>
       </c>
       <c r="AF8" s="4"/>
       <c r="AM8" s="4"/>
@@ -4480,19 +4480,19 @@
         <v>400</v>
       </c>
       <c r="D9" s="32">
-        <v>0.90608760732170002</v>
+        <v>0.54843741311435401</v>
       </c>
       <c r="E9" s="32">
-        <v>3.4287062899216597E-2</v>
+        <v>1.5421153133272599E-2</v>
       </c>
       <c r="F9" s="32">
-        <v>9.9148206369769603E-3</v>
+        <v>2.4353185905272002E-3</v>
       </c>
       <c r="G9" s="32">
-        <v>1.5760078584211999E-3</v>
+        <v>2.99252611794252E-3</v>
       </c>
       <c r="H9" s="33">
-        <v>3.3650886462250999E-4</v>
+        <v>3.7943300607235601E-3</v>
       </c>
       <c r="I9" s="39"/>
       <c r="J9" s="39"/>
@@ -4515,27 +4515,27 @@
         <v>400</v>
       </c>
       <c r="Y9" s="32">
-        <v>0.83061590732169999</v>
+        <v>0.47296571311435398</v>
       </c>
       <c r="Z9" s="32">
-        <v>-0.89024093710078345</v>
+        <v>-0.90910684686672738</v>
       </c>
       <c r="AA9" s="32">
-        <v>9.9148206369769603E-3</v>
+        <v>2.4353185905272002E-3</v>
       </c>
       <c r="AB9" s="32">
-        <v>1.5760078584211999E-3</v>
+        <v>2.99252611794252E-3</v>
       </c>
       <c r="AC9" s="33">
-        <v>3.3650886462250999E-4</v>
+        <v>3.7943300607235601E-3</v>
       </c>
       <c r="AD9" s="34">
         <f t="array" ref="AD9">MAX(ABS(Y9:AC9))</f>
-        <v>0.89024093710078345</v>
+        <v>0.90910684686672738</v>
       </c>
       <c r="AE9" s="34">
         <f t="array" ref="AE9">MAX(IF($Y$2:$AC$2&lt;$AE$2,ABS($Y9:$AC9),0))</f>
-        <v>9.9148206369769603E-3</v>
+        <v>3.7943300607235601E-3</v>
       </c>
       <c r="AF9" s="4"/>
       <c r="AM9" s="4"/>
@@ -4549,19 +4549,19 @@
         <v>800</v>
       </c>
       <c r="D10" s="32">
-        <v>0.91541034965565304</v>
+        <v>0.49019789193498398</v>
       </c>
       <c r="E10" s="32">
-        <v>2.44207919313928E-2</v>
+        <v>3.2607461651311002E-2</v>
       </c>
       <c r="F10" s="32">
-        <v>9.4437375394292797E-3</v>
+        <v>5.3685752338661101E-3</v>
       </c>
       <c r="G10" s="32">
-        <v>5.5317085905223599E-3</v>
+        <v>2.08101469035612E-4</v>
       </c>
       <c r="H10" s="33">
-        <v>3.1242426017358302E-5</v>
+        <v>1.6122967762125502E-5</v>
       </c>
       <c r="I10" s="39"/>
       <c r="J10" s="39"/>
@@ -4584,27 +4584,27 @@
         <v>800</v>
       </c>
       <c r="Y10" s="32">
-        <v>0.83993864965565301</v>
+        <v>0.41472619193498395</v>
       </c>
       <c r="Z10" s="32">
-        <v>-0.90010720806860722</v>
+        <v>-0.89192053834868901</v>
       </c>
       <c r="AA10" s="32">
-        <v>9.4437375394292797E-3</v>
+        <v>5.3685752338661101E-3</v>
       </c>
       <c r="AB10" s="32">
-        <v>5.5317085905223599E-3</v>
+        <v>2.08101469035612E-4</v>
       </c>
       <c r="AC10" s="33">
-        <v>3.1242426017358302E-5</v>
+        <v>1.6122967762125502E-5</v>
       </c>
       <c r="AD10" s="34">
         <f t="array" ref="AD10">MAX(ABS(Y10:AC10))</f>
-        <v>0.90010720806860722</v>
+        <v>0.89192053834868901</v>
       </c>
       <c r="AE10" s="34">
         <f t="array" ref="AE10">MAX(IF($Y$2:$AC$2&lt;$AE$2,ABS($Y10:$AC10),0))</f>
-        <v>9.4437375394292797E-3</v>
+        <v>5.3685752338661101E-3</v>
       </c>
       <c r="AF10" s="4"/>
       <c r="AM10" s="4"/>
@@ -4618,19 +4618,19 @@
         <v>800</v>
       </c>
       <c r="D11" s="32">
-        <v>0.91158382435206997</v>
+        <v>0.474604219050691</v>
       </c>
       <c r="E11" s="32">
-        <v>1.49350405699604E-2</v>
+        <v>1.4527798482424701E-2</v>
       </c>
       <c r="F11" s="32">
-        <v>9.6750987247592006E-3</v>
+        <v>6.8721840659365999E-3</v>
       </c>
       <c r="G11" s="32">
-        <v>5.3794930932124004E-3</v>
+        <v>2.1383200146366898E-3</v>
       </c>
       <c r="H11" s="33">
-        <v>5.2706160498937902E-3</v>
+        <v>1.60728670192919E-3</v>
       </c>
       <c r="I11" s="39"/>
       <c r="J11" s="39"/>
@@ -4653,27 +4653,27 @@
         <v>800</v>
       </c>
       <c r="Y11" s="32">
-        <v>0.83611212435206994</v>
+        <v>0.39913251905069103</v>
       </c>
       <c r="Z11" s="32">
-        <v>-0.90959295943003959</v>
+        <v>-0.91000020151757532</v>
       </c>
       <c r="AA11" s="32">
-        <v>9.6750987247592006E-3</v>
+        <v>6.8721840659365999E-3</v>
       </c>
       <c r="AB11" s="32">
-        <v>5.3794930932124004E-3</v>
+        <v>2.1383200146366898E-3</v>
       </c>
       <c r="AC11" s="33">
-        <v>5.2706160498937902E-3</v>
+        <v>1.60728670192919E-3</v>
       </c>
       <c r="AD11" s="34">
         <f t="array" ref="AD11">MAX(ABS(Y11:AC11))</f>
-        <v>0.90959295943003959</v>
+        <v>0.91000020151757532</v>
       </c>
       <c r="AE11" s="34">
         <f t="array" ref="AE11">MAX(IF($Y$2:$AC$2&lt;$AE$2,ABS($Y11:$AC11),0))</f>
-        <v>9.6750987247592006E-3</v>
+        <v>6.8721840659365999E-3</v>
       </c>
       <c r="AF11" s="4"/>
       <c r="AM11" s="4"/>
@@ -4687,19 +4687,19 @@
         <v>1600</v>
       </c>
       <c r="D12" s="32">
-        <v>0.91844367123134596</v>
+        <v>0.49236443793470702</v>
       </c>
       <c r="E12" s="32">
-        <v>1.93149503205357E-2</v>
+        <v>1.9086762590788901E-2</v>
       </c>
       <c r="F12" s="32">
-        <v>1.64551828728772E-2</v>
+        <v>3.0363958651429498E-3</v>
       </c>
       <c r="G12" s="32">
-        <v>2.00828903224653E-3</v>
+        <v>4.30299026238109E-4</v>
       </c>
       <c r="H12" s="33">
-        <v>5.1068455785107704E-4</v>
+        <v>1.7756293673924699E-4</v>
       </c>
       <c r="I12" s="39"/>
       <c r="J12" s="39"/>
@@ -4722,27 +4722,27 @@
         <v>1600</v>
       </c>
       <c r="Y12" s="32">
-        <v>0.84297197123134593</v>
+        <v>0.41689273793470705</v>
       </c>
       <c r="Z12" s="32">
-        <v>-0.90521304967946437</v>
+        <v>-0.90544123740921112</v>
       </c>
       <c r="AA12" s="32">
-        <v>1.64551828728772E-2</v>
+        <v>3.0363958651429498E-3</v>
       </c>
       <c r="AB12" s="32">
-        <v>2.00828903224653E-3</v>
+        <v>4.30299026238109E-4</v>
       </c>
       <c r="AC12" s="33">
-        <v>5.1068455785107704E-4</v>
+        <v>1.7756293673924699E-4</v>
       </c>
       <c r="AD12" s="34">
         <f t="array" ref="AD12">MAX(ABS(Y12:AC12))</f>
-        <v>0.90521304967946437</v>
+        <v>0.90544123740921112</v>
       </c>
       <c r="AE12" s="34">
         <f t="array" ref="AE12">MAX(IF($Y$2:$AC$2&lt;$AE$2,ABS($Y12:$AC12),0))</f>
-        <v>1.64551828728772E-2</v>
+        <v>3.0363958651429498E-3</v>
       </c>
       <c r="AF12" s="4"/>
       <c r="AM12" s="4"/>
@@ -4756,19 +4756,19 @@
         <v>1600</v>
       </c>
       <c r="D13" s="37">
-        <v>0.91687996791649495</v>
+        <v>0.49991984929620598</v>
       </c>
       <c r="E13" s="37">
-        <v>2.72244944604998E-2</v>
+        <v>7.9409198538469894E-2</v>
       </c>
       <c r="F13" s="37">
-        <v>8.1181873246345196E-3</v>
+        <v>9.0648467412978795E-4</v>
       </c>
       <c r="G13" s="37">
-        <v>2.4213082889466102E-3</v>
+        <v>7.7374707748464295E-5</v>
       </c>
       <c r="H13" s="38">
-        <v>2.09584847982691E-3</v>
+        <v>2.5293714498713E-6</v>
       </c>
       <c r="I13" s="39"/>
       <c r="J13" s="39"/>
@@ -4791,27 +4791,27 @@
         <v>1600</v>
       </c>
       <c r="Y13" s="37">
-        <v>0.84140826791649492</v>
+        <v>0.424448149296206</v>
       </c>
       <c r="Z13" s="37">
-        <v>-0.89730350553950022</v>
+        <v>-0.84511880146153007</v>
       </c>
       <c r="AA13" s="37">
-        <v>8.1181873246345196E-3</v>
+        <v>9.0648467412978795E-4</v>
       </c>
       <c r="AB13" s="37">
-        <v>2.4213082889466102E-3</v>
+        <v>7.7374707748464295E-5</v>
       </c>
       <c r="AC13" s="38">
-        <v>2.09584847982691E-3</v>
+        <v>2.5293714498713E-6</v>
       </c>
       <c r="AD13" s="40">
         <f t="array" ref="AD13">MAX(ABS(Y13:AC13))</f>
-        <v>0.89730350553950022</v>
+        <v>0.84511880146153007</v>
       </c>
       <c r="AE13" s="40">
         <f t="array" ref="AE13">MAX(IF($Y$2:$AC$2&lt;$AE$2,ABS($Y13:$AC13),0))</f>
-        <v>8.1181873246345196E-3</v>
+        <v>9.0648467412978795E-4</v>
       </c>
       <c r="AF13" s="4"/>
       <c r="AM13" s="4"/>
@@ -4973,19 +4973,19 @@
         <v>100</v>
       </c>
       <c r="D17" s="32">
-        <v>1</v>
+        <v>0.56470158890280797</v>
       </c>
       <c r="E17" s="32">
-        <v>0.49999738393896398</v>
+        <v>0.27499870162785001</v>
       </c>
       <c r="F17" s="32">
-        <v>0.49999738393896398</v>
+        <v>5.01995211680206E-4</v>
       </c>
       <c r="G17" s="32">
-        <v>0.49999738393896398</v>
+        <v>2.70461658556971E-4</v>
       </c>
       <c r="H17" s="33">
-        <v>0.49999738393896398</v>
+        <v>2.4924612005329099E-4</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
@@ -5010,27 +5010,27 @@
       </c>
       <c r="Y17" s="32">
         <f t="array" ref="Y17:AC26">D17:H26-Y15:AC15</f>
-        <v>0.92452829999999997</v>
+        <v>0.48922988890280794</v>
       </c>
       <c r="Z17" s="32">
-        <v>-0.42453061606103604</v>
+        <v>-0.64952929837215001</v>
       </c>
       <c r="AA17" s="32">
-        <v>0.49999738393896398</v>
+        <v>5.01995211680206E-4</v>
       </c>
       <c r="AB17" s="32">
-        <v>0.49999738393896398</v>
+        <v>2.70461658556971E-4</v>
       </c>
       <c r="AC17" s="33">
-        <v>0.49999738393896398</v>
+        <v>2.4924612005329099E-4</v>
       </c>
       <c r="AD17" s="34">
         <f t="array" ref="AD17">MAX(ABS(Y17:AC17))</f>
-        <v>0.92452829999999997</v>
+        <v>0.64952929837215001</v>
       </c>
       <c r="AE17" s="34">
         <f t="array" ref="AE17">MAX(IF(Y$15:AC$15&lt;$AE$15,ABS($Y17:$AC17),0))</f>
-        <v>0.49999738393896398</v>
+        <v>5.01995211680206E-4</v>
       </c>
       <c r="AG17" s="5"/>
       <c r="AH17" s="5"/>
@@ -5047,19 +5047,19 @@
         <v>100</v>
       </c>
       <c r="D18" s="32">
-        <v>0.99967082061740697</v>
+        <v>0.50427239079730202</v>
       </c>
       <c r="E18" s="32">
-        <v>3.23796200503741E-4</v>
+        <v>0.48663980807887203</v>
       </c>
       <c r="F18" s="32">
-        <v>8.2277383336696406E-8</v>
+        <v>2.5375096031797201E-8</v>
       </c>
       <c r="G18" s="32">
-        <v>1.03089121469813E-9</v>
+        <v>1.49915406686836E-9</v>
       </c>
       <c r="H18" s="33">
-        <v>2.8866653367227001E-11</v>
+        <v>6.82429853629997E-12</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
@@ -5082,27 +5082,27 @@
         <v>100</v>
       </c>
       <c r="Y18" s="32">
-        <v>0.92419912061740694</v>
+        <v>0.42880069079730199</v>
       </c>
       <c r="Z18" s="32">
-        <v>-0.9242042037994963</v>
+        <v>-0.43788819192112799</v>
       </c>
       <c r="AA18" s="32">
-        <v>8.2277383336696406E-8</v>
+        <v>2.5375096031797201E-8</v>
       </c>
       <c r="AB18" s="32">
-        <v>1.03089121469813E-9</v>
+        <v>1.49915406686836E-9</v>
       </c>
       <c r="AC18" s="33">
-        <v>2.8866653367227001E-11</v>
+        <v>6.82429853629997E-12</v>
       </c>
       <c r="AD18" s="34">
         <f t="array" ref="AD18">MAX(ABS(Y18:AC18))</f>
-        <v>0.9242042037994963</v>
+        <v>0.43788819192112799</v>
       </c>
       <c r="AE18" s="34">
         <f t="array" ref="AE18">MAX(IF(Y$15:AC$15&lt;$AE$15,ABS($Y18:$AC18),0))</f>
-        <v>8.2277383336696406E-8</v>
+        <v>2.5375096031797201E-8</v>
       </c>
       <c r="AG18" s="5"/>
       <c r="AH18" s="5"/>
@@ -5119,19 +5119,19 @@
         <v>200</v>
       </c>
       <c r="D19" s="32">
-        <v>0.999999999999999</v>
+        <v>0.50393398198211903</v>
       </c>
       <c r="E19" s="32">
-        <v>0.999999999999999</v>
+        <v>0.49315465029949501</v>
       </c>
       <c r="F19" s="32">
-        <v>0.999999999999999</v>
+        <v>1.4307375449696299E-10</v>
       </c>
       <c r="G19" s="32">
-        <v>0.999999999999999</v>
+        <v>-1.10117325995644E-11</v>
       </c>
       <c r="H19" s="33">
-        <v>0.999999999999999</v>
+        <v>-1.10117325995644E-11</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
@@ -5154,27 +5154,27 @@
         <v>200</v>
       </c>
       <c r="Y19" s="32">
-        <v>0.92452829999999897</v>
+        <v>0.428462281982119</v>
       </c>
       <c r="Z19" s="32">
-        <v>7.5471999999998984E-2</v>
+        <v>-0.431373349700505</v>
       </c>
       <c r="AA19" s="32">
-        <v>0.999999999999999</v>
+        <v>1.4307375449696299E-10</v>
       </c>
       <c r="AB19" s="32">
-        <v>0.999999999999999</v>
+        <v>-1.10117325995644E-11</v>
       </c>
       <c r="AC19" s="33">
-        <v>0.999999999999999</v>
+        <v>-1.10117325995644E-11</v>
       </c>
       <c r="AD19" s="34">
         <f t="array" ref="AD19">MAX(ABS(Y19:AC19))</f>
-        <v>0.999999999999999</v>
+        <v>0.431373349700505</v>
       </c>
       <c r="AE19" s="34">
         <f t="array" ref="AE19">MAX(IF(Y$15:AC$15&lt;$AE$15,ABS($Y19:$AC19),0))</f>
-        <v>0.999999999999999</v>
+        <v>1.4307375449696299E-10</v>
       </c>
       <c r="AG19" s="5"/>
       <c r="AH19" s="5"/>
@@ -5191,19 +5191,19 @@
         <v>200</v>
       </c>
       <c r="D20" s="32">
-        <v>0.99608042200770797</v>
+        <v>0.50291719374513</v>
       </c>
       <c r="E20" s="32">
-        <v>3.62771731291306E-3</v>
+        <v>0.49258856006273399</v>
       </c>
       <c r="F20" s="32">
-        <v>2.8855660896845501E-4</v>
+        <v>-6.4792096819447403E-11</v>
       </c>
       <c r="G20" s="32">
-        <v>4.0982333173153297E-6</v>
+        <v>-2.0445032981720601E-11</v>
       </c>
       <c r="H20" s="33">
-        <v>-4.3609625023996798E-7</v>
+        <v>-2.0445032981720601E-11</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
@@ -5226,27 +5226,27 @@
         <v>200</v>
       </c>
       <c r="Y20" s="32">
-        <v>0.92060872200770794</v>
+        <v>0.42744549374512997</v>
       </c>
       <c r="Z20" s="32">
-        <v>-0.9209002826870869</v>
+        <v>-0.43193943993726602</v>
       </c>
       <c r="AA20" s="32">
-        <v>2.8855660896845501E-4</v>
+        <v>-6.4792096819447403E-11</v>
       </c>
       <c r="AB20" s="32">
-        <v>4.0982333173153297E-6</v>
+        <v>-2.0445032981720601E-11</v>
       </c>
       <c r="AC20" s="33">
-        <v>-4.3609625023996798E-7</v>
+        <v>-2.0445032981720601E-11</v>
       </c>
       <c r="AD20" s="34">
         <f t="array" ref="AD20">MAX(ABS(Y20:AC20))</f>
-        <v>0.9209002826870869</v>
+        <v>0.43193943993726602</v>
       </c>
       <c r="AE20" s="34">
         <f t="array" ref="AE20">MAX(IF(Y$15:AC$15&lt;$AE$15,ABS($Y20:$AC20),0))</f>
-        <v>2.8855660896845501E-4</v>
+        <v>6.4792096819447403E-11</v>
       </c>
       <c r="AG20" s="5"/>
       <c r="AH20" s="5"/>
@@ -5263,19 +5263,19 @@
         <v>400</v>
       </c>
       <c r="D21" s="32">
-        <v>1</v>
+        <v>0.75256883557614795</v>
       </c>
       <c r="E21" s="32">
-        <v>1</v>
+        <v>0.24663231052186099</v>
       </c>
       <c r="F21" s="32">
-        <v>1</v>
+        <v>5.7300599960380998E-13</v>
       </c>
       <c r="G21" s="32">
-        <v>1</v>
+        <v>5.7300599960380998E-13</v>
       </c>
       <c r="H21" s="33">
-        <v>1</v>
+        <v>5.7300599960380998E-13</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
@@ -5298,27 +5298,27 @@
         <v>400</v>
       </c>
       <c r="Y21" s="32">
-        <v>0.92452829999999997</v>
+        <v>0.67709713557614792</v>
       </c>
       <c r="Z21" s="32">
-        <v>7.5471999999999984E-2</v>
+        <v>-0.67789568947813905</v>
       </c>
       <c r="AA21" s="32">
-        <v>1</v>
+        <v>5.7300599960380998E-13</v>
       </c>
       <c r="AB21" s="32">
-        <v>1</v>
+        <v>5.7300599960380998E-13</v>
       </c>
       <c r="AC21" s="33">
-        <v>1</v>
+        <v>5.7300599960380998E-13</v>
       </c>
       <c r="AD21" s="34">
         <f t="array" ref="AD21">MAX(ABS(Y21:AC21))</f>
-        <v>1</v>
+        <v>0.67789568947813905</v>
       </c>
       <c r="AE21" s="34">
         <f t="array" ref="AE21">MAX(IF(Y$15:AC$15&lt;$AE$15,ABS($Y21:$AC21),0))</f>
-        <v>1</v>
+        <v>5.7300599960380998E-13</v>
       </c>
       <c r="AG21" s="5"/>
       <c r="AH21" s="5"/>
@@ -5335,19 +5335,19 @@
         <v>400</v>
       </c>
       <c r="D22" s="32">
-        <v>0.99999957691097596</v>
+        <v>0.50168439469183601</v>
       </c>
       <c r="E22" s="32">
-        <v>0.50000041657043803</v>
+        <v>0.49637169538514098</v>
       </c>
       <c r="F22" s="32">
-        <v>0.50000000033606196</v>
+        <v>-2.3358628147654303E-10</v>
       </c>
       <c r="G22" s="32">
-        <v>0.50000000033606196</v>
+        <v>5.3468762479409501E-11</v>
       </c>
       <c r="H22" s="33">
-        <v>0.50000000033606196</v>
+        <v>5.3468762479409501E-11</v>
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
@@ -5370,27 +5370,27 @@
         <v>400</v>
       </c>
       <c r="Y22" s="32">
-        <v>0.92452787691097593</v>
+        <v>0.42621269469183598</v>
       </c>
       <c r="Z22" s="32">
-        <v>-0.42452758342956198</v>
+        <v>-0.42815630461485904</v>
       </c>
       <c r="AA22" s="32">
-        <v>0.50000000033606196</v>
+        <v>-2.3358628147654303E-10</v>
       </c>
       <c r="AB22" s="32">
-        <v>0.50000000033606196</v>
+        <v>5.3468762479409501E-11</v>
       </c>
       <c r="AC22" s="33">
-        <v>0.50000000033606196</v>
+        <v>5.3468762479409501E-11</v>
       </c>
       <c r="AD22" s="34">
         <f t="array" ref="AD22">MAX(ABS(Y22:AC22))</f>
-        <v>0.92452787691097593</v>
+        <v>0.42815630461485904</v>
       </c>
       <c r="AE22" s="34">
         <f t="array" ref="AE22">MAX(IF(Y$15:AC$15&lt;$AE$15,ABS($Y22:$AC22),0))</f>
-        <v>0.50000000033606196</v>
+        <v>2.3358628147654303E-10</v>
       </c>
       <c r="AG22" s="5"/>
       <c r="AH22" s="5"/>
@@ -5407,19 +5407,19 @@
         <v>800</v>
       </c>
       <c r="D23" s="32">
-        <v>1</v>
+        <v>0.500864498518381</v>
       </c>
       <c r="E23" s="32">
-        <v>1</v>
+        <v>0.49851680198734499</v>
       </c>
       <c r="F23" s="32">
-        <v>1</v>
+        <v>6.8565929474979504E-12</v>
       </c>
       <c r="G23" s="32">
-        <v>1</v>
+        <v>6.8565929474979504E-12</v>
       </c>
       <c r="H23" s="33">
-        <v>1</v>
+        <v>6.8565929474979504E-12</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
@@ -5442,27 +5442,27 @@
         <v>800</v>
       </c>
       <c r="Y23" s="32">
-        <v>0.92452829999999997</v>
+        <v>0.42539279851838097</v>
       </c>
       <c r="Z23" s="32">
-        <v>7.5471999999999984E-2</v>
+        <v>-0.42601119801265502</v>
       </c>
       <c r="AA23" s="32">
-        <v>1</v>
+        <v>6.8565929474979504E-12</v>
       </c>
       <c r="AB23" s="32">
-        <v>1</v>
+        <v>6.8565929474979504E-12</v>
       </c>
       <c r="AC23" s="33">
-        <v>1</v>
+        <v>6.8565929474979504E-12</v>
       </c>
       <c r="AD23" s="34">
         <f t="array" ref="AD23">MAX(ABS(Y23:AC23))</f>
-        <v>1</v>
+        <v>0.42601119801265502</v>
       </c>
       <c r="AE23" s="34">
         <f t="array" ref="AE23">MAX(IF(Y$15:AC$15&lt;$AE$15,ABS($Y23:$AC23),0))</f>
-        <v>1</v>
+        <v>6.8565929474979504E-12</v>
       </c>
       <c r="AG23" s="5"/>
       <c r="AH23" s="5"/>
@@ -5479,19 +5479,19 @@
         <v>800</v>
       </c>
       <c r="D24" s="32">
-        <v>0.999999999999999</v>
+        <v>0.75150952849997799</v>
       </c>
       <c r="E24" s="32">
-        <v>0.999999999999999</v>
+        <v>0.24811905456738201</v>
       </c>
       <c r="F24" s="32">
-        <v>0.999999999999999</v>
+        <v>1.3910966412834799E-10</v>
       </c>
       <c r="G24" s="32">
-        <v>0.999999999999999</v>
+        <v>1.3910966412834799E-10</v>
       </c>
       <c r="H24" s="33">
-        <v>0.999999999999999</v>
+        <v>1.3910966412834799E-10</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
@@ -5514,27 +5514,27 @@
         <v>800</v>
       </c>
       <c r="Y24" s="32">
-        <v>0.92452829999999897</v>
+        <v>0.67603782849997796</v>
       </c>
       <c r="Z24" s="32">
-        <v>7.5471999999998984E-2</v>
+        <v>-0.67640894543261798</v>
       </c>
       <c r="AA24" s="32">
-        <v>0.999999999999999</v>
+        <v>1.3910966412834799E-10</v>
       </c>
       <c r="AB24" s="32">
-        <v>0.999999999999999</v>
+        <v>1.3910966412834799E-10</v>
       </c>
       <c r="AC24" s="33">
-        <v>0.999999999999999</v>
+        <v>1.3910966412834799E-10</v>
       </c>
       <c r="AD24" s="34">
         <f t="array" ref="AD24">MAX(ABS(Y24:AC24))</f>
-        <v>0.999999999999999</v>
+        <v>0.67640894543261798</v>
       </c>
       <c r="AE24" s="34">
         <f t="array" ref="AE24">MAX(IF(Y$15:AC$15&lt;$AE$15,ABS($Y24:$AC24),0))</f>
-        <v>0.999999999999999</v>
+        <v>1.3910966412834799E-10</v>
       </c>
       <c r="AG24" s="5"/>
       <c r="AH24" s="5"/>
@@ -5623,19 +5623,19 @@
         <v>1600</v>
       </c>
       <c r="D26" s="37">
-        <v>0.82554123251690603</v>
+        <v>0.49761183842505502</v>
       </c>
       <c r="E26" s="37">
-        <v>0.71270246796455305</v>
+        <v>0.48943374776875997</v>
       </c>
       <c r="F26" s="37">
-        <v>0.71270246796455305</v>
+        <v>1.60379468405218E-6</v>
       </c>
       <c r="G26" s="37">
-        <v>0.71270246796455305</v>
+        <v>1.17583113995393E-6</v>
       </c>
       <c r="H26" s="38">
-        <v>0.36886711265335698</v>
+        <v>1.17583113995393E-6</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
@@ -5658,27 +5658,27 @@
         <v>1600</v>
       </c>
       <c r="Y26" s="37">
-        <v>0.750069532516906</v>
+        <v>0.42214013842505504</v>
       </c>
       <c r="Z26" s="37">
-        <v>-0.21182553203544696</v>
+        <v>-0.43509425223124004</v>
       </c>
       <c r="AA26" s="37">
-        <v>0.71270246796455305</v>
+        <v>1.60379468405218E-6</v>
       </c>
       <c r="AB26" s="37">
-        <v>0.71270246796455305</v>
+        <v>1.17583113995393E-6</v>
       </c>
       <c r="AC26" s="38">
-        <v>0.36886711265335698</v>
+        <v>1.17583113995393E-6</v>
       </c>
       <c r="AD26" s="40">
         <f t="array" ref="AD26">MAX(ABS(Y26:AC26))</f>
-        <v>0.750069532516906</v>
+        <v>0.43509425223124004</v>
       </c>
       <c r="AE26" s="40">
         <f t="array" ref="AE26">MAX(IF(Y$15:AC$15&lt;$AE$15,ABS($Y26:$AC26),0))</f>
-        <v>0.71270246796455305</v>
+        <v>1.60379468405218E-6</v>
       </c>
       <c r="AG26" s="5"/>
       <c r="AH26" s="5"/>
@@ -5837,16 +5837,16 @@
         <v>100</v>
       </c>
       <c r="D31" s="32">
-        <v>0.87326170129010205</v>
+        <v>0.38334043264522</v>
       </c>
       <c r="E31" s="32">
-        <v>0.91084588269122402</v>
+        <v>0.69296342434317504</v>
       </c>
       <c r="F31" s="32">
-        <v>0.95770145118564998</v>
+        <v>0.85498705123541596</v>
       </c>
       <c r="G31" s="32">
-        <v>0.99122992307151303</v>
+        <v>1</v>
       </c>
       <c r="H31" s="33">
         <v>1</v>
@@ -5874,27 +5874,27 @@
       </c>
       <c r="Y31" s="32">
         <f t="array" ref="Y31:AC40">D31:H40-Y29:AC29</f>
-        <v>0.79779000129010202</v>
+        <v>0.30786873264521997</v>
       </c>
       <c r="Z31" s="32">
-        <v>-8.9154117308775982E-2</v>
+        <v>-0.30703657565682496</v>
       </c>
       <c r="AA31" s="32">
-        <v>-4.2298548814350023E-2</v>
+        <v>-0.14501294876458404</v>
       </c>
       <c r="AB31" s="32">
-        <v>-8.7700769284869695E-3</v>
+        <v>0</v>
       </c>
       <c r="AC31" s="33">
         <v>0</v>
       </c>
       <c r="AD31" s="34">
         <f t="array" ref="AD31">MAX(ABS(Y31:AC31))</f>
-        <v>0.79779000129010202</v>
+        <v>0.30786873264521997</v>
       </c>
       <c r="AE31" s="34">
         <f t="array" ref="AE31">MAX(IF($Y$29:$AC$29&gt;1-$AE$29,ABS($Y31:$AC31),0))</f>
-        <v>8.9154117308775982E-2</v>
+        <v>0.30703657565682496</v>
       </c>
       <c r="AG31" s="5"/>
       <c r="AH31" s="5"/>
@@ -5911,16 +5911,16 @@
         <v>100</v>
       </c>
       <c r="D32" s="32">
-        <v>0.92839364960431703</v>
+        <v>0.94892466248200902</v>
       </c>
       <c r="E32" s="32">
-        <v>0.94939132443986995</v>
+        <v>0.99865774840841004</v>
       </c>
       <c r="F32" s="32">
-        <v>0.97845397750818697</v>
+        <v>0.999820614291968</v>
       </c>
       <c r="G32" s="32">
-        <v>0.99836529864666201</v>
+        <v>0.99999999999988598</v>
       </c>
       <c r="H32" s="33">
         <v>1</v>
@@ -5946,27 +5946,27 @@
         <v>100</v>
       </c>
       <c r="Y32" s="32">
-        <v>0.852921949604317</v>
+        <v>0.87345296248200899</v>
       </c>
       <c r="Z32" s="32">
-        <v>-5.0608675560130045E-2</v>
+        <v>-1.3422515915899602E-3</v>
       </c>
       <c r="AA32" s="32">
-        <v>-2.1546022491813033E-2</v>
+        <v>-1.7938570803199827E-4</v>
       </c>
       <c r="AB32" s="32">
-        <v>-1.6347013533379862E-3</v>
+        <v>-1.1401990462900358E-13</v>
       </c>
       <c r="AC32" s="33">
         <v>0</v>
       </c>
       <c r="AD32" s="34">
         <f t="array" ref="AD32">MAX(ABS(Y32:AC32))</f>
-        <v>0.852921949604317</v>
+        <v>0.87345296248200899</v>
       </c>
       <c r="AE32" s="34">
         <f t="array" ref="AE32">MAX(IF($Y$29:$AC$29&gt;1-$AE$29,ABS($Y32:$AC32),0))</f>
-        <v>5.0608675560130045E-2</v>
+        <v>1.3422515915899602E-3</v>
       </c>
       <c r="AG32" s="5"/>
       <c r="AH32" s="5"/>
@@ -5983,16 +5983,16 @@
         <v>200</v>
       </c>
       <c r="D33" s="32">
-        <v>0.91171843871648195</v>
+        <v>0.71860754480288702</v>
       </c>
       <c r="E33" s="32">
-        <v>0.95825696925624204</v>
+        <v>0.75410975608388797</v>
       </c>
       <c r="F33" s="32">
-        <v>0.98175169779690097</v>
+        <v>0.82575593016284998</v>
       </c>
       <c r="G33" s="32">
-        <v>0.99288390925675996</v>
+        <v>0.93173345783796901</v>
       </c>
       <c r="H33" s="33">
         <v>1</v>
@@ -6018,27 +6018,27 @@
         <v>200</v>
       </c>
       <c r="Y33" s="32">
-        <v>0.83624673871648192</v>
+        <v>0.64313584480288699</v>
       </c>
       <c r="Z33" s="32">
-        <v>-4.1743030743757958E-2</v>
+        <v>-0.24589024391611203</v>
       </c>
       <c r="AA33" s="32">
-        <v>-1.8248302203099032E-2</v>
+        <v>-0.17424406983715002</v>
       </c>
       <c r="AB33" s="32">
-        <v>-7.1160907432400444E-3</v>
+        <v>-6.8266542162030985E-2</v>
       </c>
       <c r="AC33" s="33">
         <v>0</v>
       </c>
       <c r="AD33" s="34">
         <f t="array" ref="AD33">MAX(ABS(Y33:AC33))</f>
-        <v>0.83624673871648192</v>
+        <v>0.64313584480288699</v>
       </c>
       <c r="AE33" s="34">
         <f t="array" ref="AE33">MAX(IF($Y$29:$AC$29&gt;1-$AE$29,ABS($Y33:$AC33),0))</f>
-        <v>4.1743030743757958E-2</v>
+        <v>0.24589024391611203</v>
       </c>
       <c r="AG33" s="5"/>
       <c r="AH33" s="5"/>
@@ -6055,16 +6055,16 @@
         <v>200</v>
       </c>
       <c r="D34" s="32">
-        <v>0.91593758906381495</v>
+        <v>0.52624649599929796</v>
       </c>
       <c r="E34" s="32">
-        <v>0.98981280727087495</v>
+        <v>0.58280016918604705</v>
       </c>
       <c r="F34" s="32">
-        <v>0.99719903174864799</v>
+        <v>0.75477430167626203</v>
       </c>
       <c r="G34" s="32">
-        <v>0.99924337581737499</v>
+        <v>0.99365858536038798</v>
       </c>
       <c r="H34" s="33">
         <v>1</v>
@@ -6090,27 +6090,27 @@
         <v>200</v>
       </c>
       <c r="Y34" s="32">
-        <v>0.84046588906381492</v>
+        <v>0.45077479599929793</v>
       </c>
       <c r="Z34" s="32">
-        <v>-1.018719272912505E-2</v>
+        <v>-0.41719983081395295</v>
       </c>
       <c r="AA34" s="32">
-        <v>-2.8009682513520096E-3</v>
+        <v>-0.24522569832373797</v>
       </c>
       <c r="AB34" s="32">
-        <v>-7.5662418262500974E-4</v>
+        <v>-6.3414146396120197E-3</v>
       </c>
       <c r="AC34" s="33">
         <v>0</v>
       </c>
       <c r="AD34" s="34">
         <f t="array" ref="AD34">MAX(ABS(Y34:AC34))</f>
-        <v>0.84046588906381492</v>
+        <v>0.45077479599929793</v>
       </c>
       <c r="AE34" s="34">
         <f t="array" ref="AE34">MAX(IF($Y$29:$AC$29&gt;1-$AE$29,ABS($Y34:$AC34),0))</f>
-        <v>1.018719272912505E-2</v>
+        <v>0.41719983081395295</v>
       </c>
       <c r="AG34" s="5"/>
       <c r="AH34" s="5"/>
@@ -6127,16 +6127,16 @@
         <v>400</v>
       </c>
       <c r="D35" s="32">
-        <v>0.91421932332643396</v>
+        <v>0.48833777026818198</v>
       </c>
       <c r="E35" s="32">
-        <v>0.95317413703748699</v>
+        <v>0.56737781744624205</v>
       </c>
       <c r="F35" s="32">
-        <v>0.98933477097218203</v>
+        <v>0.72883685413384902</v>
       </c>
       <c r="G35" s="32">
-        <v>0.99815032101039203</v>
+        <v>0.86852034988132099</v>
       </c>
       <c r="H35" s="33">
         <v>1</v>
@@ -6162,27 +6162,27 @@
         <v>400</v>
       </c>
       <c r="Y35" s="32">
-        <v>0.83874762332643393</v>
+        <v>0.41286607026818201</v>
       </c>
       <c r="Z35" s="32">
-        <v>-4.682586296251301E-2</v>
+        <v>-0.43262218255375795</v>
       </c>
       <c r="AA35" s="32">
-        <v>-1.0665229027817968E-2</v>
+        <v>-0.27116314586615098</v>
       </c>
       <c r="AB35" s="32">
-        <v>-1.8496789896079724E-3</v>
+        <v>-0.13147965011867901</v>
       </c>
       <c r="AC35" s="33">
         <v>0</v>
       </c>
       <c r="AD35" s="34">
         <f t="array" ref="AD35">MAX(ABS(Y35:AC35))</f>
-        <v>0.83874762332643393</v>
+        <v>0.43262218255375795</v>
       </c>
       <c r="AE35" s="34">
         <f t="array" ref="AE35">MAX(IF($Y$29:$AC$29&gt;1-$AE$29,ABS($Y35:$AC35),0))</f>
-        <v>4.682586296251301E-2</v>
+        <v>0.43262218255375795</v>
       </c>
       <c r="AG35" s="5"/>
       <c r="AH35" s="5"/>
@@ -6199,16 +6199,16 @@
         <v>400</v>
       </c>
       <c r="D36" s="32">
-        <v>0.90608760732170002</v>
+        <v>0.54843741311435401</v>
       </c>
       <c r="E36" s="32">
-        <v>0.94538036568861605</v>
+        <v>0.58899851738111397</v>
       </c>
       <c r="F36" s="32">
-        <v>0.982306977122267</v>
+        <v>0.65076070826191801</v>
       </c>
       <c r="G36" s="32">
-        <v>0.99680088819771795</v>
+        <v>0.82851185327070798</v>
       </c>
       <c r="H36" s="33">
         <v>1</v>
@@ -6234,27 +6234,27 @@
         <v>400</v>
       </c>
       <c r="Y36" s="32">
-        <v>0.83061590732169999</v>
+        <v>0.47296571311435398</v>
       </c>
       <c r="Z36" s="32">
-        <v>-5.4619634311383947E-2</v>
+        <v>-0.41100148261888603</v>
       </c>
       <c r="AA36" s="32">
-        <v>-1.7693022877733E-2</v>
+        <v>-0.34923929173808199</v>
       </c>
       <c r="AB36" s="32">
-        <v>-3.1991118022820508E-3</v>
+        <v>-0.17148814672929202</v>
       </c>
       <c r="AC36" s="33">
         <v>0</v>
       </c>
       <c r="AD36" s="34">
         <f t="array" ref="AD36">MAX(ABS(Y36:AC36))</f>
-        <v>0.83061590732169999</v>
+        <v>0.47296571311435398</v>
       </c>
       <c r="AE36" s="34">
         <f t="array" ref="AE36">MAX(IF($Y$29:$AC$29&gt;1-$AE$29,ABS($Y36:$AC36),0))</f>
-        <v>5.4619634311383947E-2</v>
+        <v>0.41100148261888603</v>
       </c>
       <c r="AG36" s="5"/>
       <c r="AH36" s="5"/>
@@ -6271,16 +6271,16 @@
         <v>800</v>
       </c>
       <c r="D37" s="32">
-        <v>0.91541034965565304</v>
+        <v>0.49019789193498398</v>
       </c>
       <c r="E37" s="32">
-        <v>0.94241665434074295</v>
+        <v>0.52894682254584202</v>
       </c>
       <c r="F37" s="32">
-        <v>0.96830708687881795</v>
+        <v>0.83319011043604996</v>
       </c>
       <c r="G37" s="32">
-        <v>0.99983981081346995</v>
+        <v>0.97409420407585701</v>
       </c>
       <c r="H37" s="33">
         <v>1</v>
@@ -6306,27 +6306,27 @@
         <v>800</v>
       </c>
       <c r="Y37" s="32">
-        <v>0.83993864965565301</v>
+        <v>0.41472619193498395</v>
       </c>
       <c r="Z37" s="32">
-        <v>-5.7583345659257046E-2</v>
+        <v>-0.47105317745415798</v>
       </c>
       <c r="AA37" s="32">
-        <v>-3.1692913121182054E-2</v>
+        <v>-0.16680988956395004</v>
       </c>
       <c r="AB37" s="32">
-        <v>-1.6018918653004643E-4</v>
+        <v>-2.5905795924142994E-2</v>
       </c>
       <c r="AC37" s="33">
         <v>0</v>
       </c>
       <c r="AD37" s="34">
         <f t="array" ref="AD37">MAX(ABS(Y37:AC37))</f>
-        <v>0.83993864965565301</v>
+        <v>0.47105317745415798</v>
       </c>
       <c r="AE37" s="34">
         <f t="array" ref="AE37">MAX(IF($Y$29:$AC$29&gt;1-$AE$29,ABS($Y37:$AC37),0))</f>
-        <v>5.7583345659257046E-2</v>
+        <v>0.47105317745415798</v>
       </c>
       <c r="AG37" s="5"/>
       <c r="AH37" s="5"/>
@@ -6343,16 +6343,16 @@
         <v>800</v>
       </c>
       <c r="D38" s="32">
-        <v>0.91158382435206997</v>
+        <v>0.474604219050691</v>
       </c>
       <c r="E38" s="32">
-        <v>0.92897339644831001</v>
+        <v>0.50218687195987699</v>
       </c>
       <c r="F38" s="32">
-        <v>0.95029329857574696</v>
+        <v>0.55248649154756002</v>
       </c>
       <c r="G38" s="32">
-        <v>0.97185911804326397</v>
+        <v>0.73837458257688104</v>
       </c>
       <c r="H38" s="33">
         <v>1</v>
@@ -6378,27 +6378,27 @@
         <v>800</v>
       </c>
       <c r="Y38" s="32">
-        <v>0.83611212435206994</v>
+        <v>0.39913251905069103</v>
       </c>
       <c r="Z38" s="32">
-        <v>-7.1026603551689993E-2</v>
+        <v>-0.49781312804012301</v>
       </c>
       <c r="AA38" s="32">
-        <v>-4.9706701424253041E-2</v>
+        <v>-0.44751350845243998</v>
       </c>
       <c r="AB38" s="32">
-        <v>-2.814088195673603E-2</v>
+        <v>-0.26162541742311896</v>
       </c>
       <c r="AC38" s="33">
         <v>0</v>
       </c>
       <c r="AD38" s="34">
         <f t="array" ref="AD38">MAX(ABS(Y38:AC38))</f>
-        <v>0.83611212435206994</v>
+        <v>0.49781312804012301</v>
       </c>
       <c r="AE38" s="34">
         <f t="array" ref="AE38">MAX(IF($Y$29:$AC$29&gt;1-$AE$29,ABS($Y38:$AC38),0))</f>
-        <v>7.1026603551689993E-2</v>
+        <v>0.49781312804012301</v>
       </c>
       <c r="AG38" s="5"/>
       <c r="AH38" s="5"/>
@@ -6415,16 +6415,16 @@
         <v>1600</v>
       </c>
       <c r="D39" s="32">
-        <v>0.91844367123134596</v>
+        <v>0.49236443793470702</v>
       </c>
       <c r="E39" s="32">
-        <v>0.93930244067456803</v>
+        <v>0.51936247947495895</v>
       </c>
       <c r="F39" s="32">
-        <v>0.98354660991271803</v>
+        <v>0.58751266473991604</v>
       </c>
       <c r="G39" s="32">
-        <v>0.99650042723340704</v>
+        <v>0.787399276646507</v>
       </c>
       <c r="H39" s="33">
         <v>1</v>
@@ -6450,27 +6450,27 @@
         <v>1600</v>
       </c>
       <c r="Y39" s="32">
-        <v>0.84297197123134593</v>
+        <v>0.41689273793470705</v>
       </c>
       <c r="Z39" s="32">
-        <v>-6.0697559325431971E-2</v>
+        <v>-0.48063752052504105</v>
       </c>
       <c r="AA39" s="32">
-        <v>-1.6453390087281972E-2</v>
+        <v>-0.41248733526008396</v>
       </c>
       <c r="AB39" s="32">
-        <v>-3.4995727665929621E-3</v>
+        <v>-0.212600723353493</v>
       </c>
       <c r="AC39" s="33">
         <v>0</v>
       </c>
       <c r="AD39" s="34">
         <f t="array" ref="AD39">MAX(ABS(Y39:AC39))</f>
-        <v>0.84297197123134593</v>
+        <v>0.48063752052504105</v>
       </c>
       <c r="AE39" s="34">
         <f t="array" ref="AE39">MAX(IF($Y$29:$AC$29&gt;1-$AE$29,ABS($Y39:$AC39),0))</f>
-        <v>6.0697559325431971E-2</v>
+        <v>0.48063752052504105</v>
       </c>
       <c r="AG39" s="5"/>
       <c r="AH39" s="5"/>
@@ -6487,16 +6487,16 @@
         <v>1600</v>
       </c>
       <c r="D40" s="37">
-        <v>0.91687996791649495</v>
+        <v>0.49991984929620598</v>
       </c>
       <c r="E40" s="37">
-        <v>0.94607048730835397</v>
+        <v>0.58183322663855996</v>
       </c>
       <c r="F40" s="37">
-        <v>0.97080365626115805</v>
+        <v>0.80914490054784705</v>
       </c>
       <c r="G40" s="37">
-        <v>0.984771318375954</v>
+        <v>0.99535844126997797</v>
       </c>
       <c r="H40" s="38">
         <v>1</v>
@@ -6522,27 +6522,27 @@
         <v>1600</v>
       </c>
       <c r="Y40" s="37">
-        <v>0.84140826791649492</v>
+        <v>0.424448149296206</v>
       </c>
       <c r="Z40" s="37">
-        <v>-5.3929512691646031E-2</v>
+        <v>-0.41816677336144004</v>
       </c>
       <c r="AA40" s="37">
-        <v>-2.9196343738841946E-2</v>
+        <v>-0.19085509945215295</v>
       </c>
       <c r="AB40" s="37">
-        <v>-1.5228681624046003E-2</v>
+        <v>-4.6415587300220329E-3</v>
       </c>
       <c r="AC40" s="38">
         <v>0</v>
       </c>
       <c r="AD40" s="40">
         <f t="array" ref="AD40">MAX(ABS(Y40:AC40))</f>
-        <v>0.84140826791649492</v>
+        <v>0.424448149296206</v>
       </c>
       <c r="AE40" s="40">
         <f t="array" ref="AE40">MAX(IF($Y$29:$AC$29&gt;1-$AE$29,ABS($Y40:$AC40),0))</f>
-        <v>5.3929512691646031E-2</v>
+        <v>0.41816677336144004</v>
       </c>
       <c r="AG40" s="5"/>
       <c r="AH40" s="5"/>
@@ -6632,19 +6632,19 @@
       <c r="X42" s="22"/>
       <c r="Y42" s="53">
         <f t="array" ref="Y42:AC42">AVERAGE(ABS(Y44:Y53))</f>
-        <v>8.9203340037375789E-2</v>
+        <v>0.19725158657168418</v>
       </c>
       <c r="Z42" s="53">
-        <v>8.9203340037375789E-2</v>
+        <v>0.19725158657168418</v>
       </c>
       <c r="AA42" s="53">
-        <v>8.9203340037375789E-2</v>
+        <v>0.19725158657168418</v>
       </c>
       <c r="AB42" s="53">
-        <v>8.9203340037375789E-2</v>
+        <v>0.19725158657168418</v>
       </c>
       <c r="AC42" s="54">
-        <v>8.9203340037375789E-2</v>
+        <v>0.19725158657168418</v>
       </c>
       <c r="AD42" s="25"/>
       <c r="AE42" s="26">
@@ -6722,16 +6722,16 @@
         <v>100</v>
       </c>
       <c r="D44" s="32">
-        <v>1</v>
+        <v>0.56470158890280797</v>
       </c>
       <c r="E44" s="32">
-        <v>1</v>
+        <v>0.96440256127507695</v>
       </c>
       <c r="F44" s="32">
-        <v>1</v>
+        <v>0.98571312024775504</v>
       </c>
       <c r="G44" s="32">
-        <v>1</v>
+        <v>0.99635236701739505</v>
       </c>
       <c r="H44" s="33">
         <v>1</v>
@@ -6759,23 +6759,23 @@
       </c>
       <c r="Y44" s="14">
         <f t="array" ref="Y44:AC53">D44:H53-D31:H40</f>
-        <v>0.12673829870989795</v>
+        <v>0.18136115625758797</v>
       </c>
       <c r="Z44" s="14">
-        <v>8.9154117308775982E-2</v>
+        <v>0.27143913693190191</v>
       </c>
       <c r="AA44" s="14">
-        <v>4.2298548814350023E-2</v>
+        <v>0.13072606901233907</v>
       </c>
       <c r="AB44" s="14">
-        <v>8.7700769284869695E-3</v>
+        <v>-3.6476329826049536E-3</v>
       </c>
       <c r="AC44" s="15">
         <v>0</v>
       </c>
       <c r="AD44" s="19">
         <f t="array" ref="AD44">MAX(ABS(Y44:AC44))</f>
-        <v>0.12673829870989795</v>
+        <v>0.27143913693190191</v>
       </c>
       <c r="AE44" s="19">
         <f t="array" ref="AE44">MAX(IF($Y$42:$AC$42&gt;1-$AE$42,ABS($Y44:$AC44),0))</f>
@@ -6796,16 +6796,16 @@
         <v>100</v>
       </c>
       <c r="D45" s="32">
-        <v>0.99967082061740697</v>
+        <v>0.50427239079730202</v>
       </c>
       <c r="E45" s="32">
-        <v>0.99999991647048303</v>
+        <v>0.99999967681915303</v>
       </c>
       <c r="F45" s="32">
-        <v>0.99999999918704596</v>
+        <v>1.00000000119101</v>
       </c>
       <c r="G45" s="32">
-        <v>0.99999999999987399</v>
+        <v>1</v>
       </c>
       <c r="H45" s="33">
         <v>1</v>
@@ -6831,23 +6831,23 @@
         <v>100</v>
       </c>
       <c r="Y45" s="14">
-        <v>7.1277171013089946E-2</v>
+        <v>-0.444652271684707</v>
       </c>
       <c r="Z45" s="14">
-        <v>5.0608592030613075E-2</v>
+        <v>1.3419284107429874E-3</v>
       </c>
       <c r="AA45" s="14">
-        <v>2.1546021678858995E-2</v>
+        <v>1.7938689904195559E-4</v>
       </c>
       <c r="AB45" s="14">
-        <v>1.6347013532119758E-3</v>
+        <v>1.1401990462900358E-13</v>
       </c>
       <c r="AC45" s="15">
         <v>0</v>
       </c>
       <c r="AD45" s="19">
         <f t="array" ref="AD45">MAX(ABS(Y45:AC45))</f>
-        <v>7.1277171013089946E-2</v>
+        <v>0.444652271684707</v>
       </c>
       <c r="AE45" s="19">
         <f t="array" ref="AE45">MAX(IF($Y$42:$AC$42&gt;1-$AE$42,ABS($Y45:$AC45),0))</f>
@@ -6868,13 +6868,13 @@
         <v>200</v>
       </c>
       <c r="D46" s="32">
-        <v>0.999999999999999</v>
+        <v>0.50393398198211903</v>
       </c>
       <c r="E46" s="32">
-        <v>0.999999999999999</v>
+        <v>0.99999999886449698</v>
       </c>
       <c r="F46" s="32">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G46" s="32">
         <v>1</v>
@@ -6903,23 +6903,23 @@
         <v>200</v>
       </c>
       <c r="Y46" s="14">
-        <v>8.8281561283517052E-2</v>
+        <v>-0.21467356282076799</v>
       </c>
       <c r="Z46" s="14">
-        <v>4.1743030743756959E-2</v>
+        <v>0.245890242780609</v>
       </c>
       <c r="AA46" s="14">
-        <v>1.8248302203098032E-2</v>
+        <v>0.17424406983715002</v>
       </c>
       <c r="AB46" s="14">
-        <v>7.1160907432400444E-3</v>
+        <v>6.8266542162030985E-2</v>
       </c>
       <c r="AC46" s="15">
         <v>0</v>
       </c>
       <c r="AD46" s="19">
         <f t="array" ref="AD46">MAX(ABS(Y46:AC46))</f>
-        <v>8.8281561283517052E-2</v>
+        <v>0.245890242780609</v>
       </c>
       <c r="AE46" s="19">
         <f t="array" ref="AE46">MAX(IF($Y$42:$AC$42&gt;1-$AE$42,ABS($Y46:$AC46),0))</f>
@@ -6940,16 +6940,16 @@
         <v>200</v>
       </c>
       <c r="D47" s="32">
-        <v>0.99608042200770797</v>
+        <v>0.50291719374513</v>
       </c>
       <c r="E47" s="32">
-        <v>0.99970611964239697</v>
+        <v>0.99999999916693705</v>
       </c>
       <c r="F47" s="32">
-        <v>0.99999677692910105</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="G47" s="32">
-        <v>0.99999999999809397</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="H47" s="33">
         <v>1</v>
@@ -6975,23 +6975,23 @@
         <v>200</v>
       </c>
       <c r="Y47" s="14">
-        <v>8.0142832943893016E-2</v>
+        <v>-2.3329302254167961E-2</v>
       </c>
       <c r="Z47" s="14">
-        <v>9.8933123715220228E-3</v>
+        <v>0.41719982998089</v>
       </c>
       <c r="AA47" s="14">
-        <v>2.7977451804530595E-3</v>
+        <v>0.24522569832373697</v>
       </c>
       <c r="AB47" s="14">
-        <v>7.5662418071897886E-4</v>
+        <v>6.3414146396110205E-3</v>
       </c>
       <c r="AC47" s="15">
         <v>0</v>
       </c>
       <c r="AD47" s="19">
         <f t="array" ref="AD47">MAX(ABS(Y47:AC47))</f>
-        <v>8.0142832943893016E-2</v>
+        <v>0.41719982998089</v>
       </c>
       <c r="AE47" s="19">
         <f t="array" ref="AE47">MAX(IF($Y$42:$AC$42&gt;1-$AE$42,ABS($Y47:$AC47),0))</f>
@@ -7012,7 +7012,7 @@
         <v>400</v>
       </c>
       <c r="D48" s="32">
-        <v>1</v>
+        <v>0.75256883557614795</v>
       </c>
       <c r="E48" s="32">
         <v>1</v>
@@ -7047,23 +7047,23 @@
         <v>400</v>
       </c>
       <c r="Y48" s="14">
-        <v>8.5780676673566036E-2</v>
+        <v>0.26423106530796597</v>
       </c>
       <c r="Z48" s="14">
-        <v>4.682586296251301E-2</v>
+        <v>0.43262218255375795</v>
       </c>
       <c r="AA48" s="14">
-        <v>1.0665229027817968E-2</v>
+        <v>0.27116314586615098</v>
       </c>
       <c r="AB48" s="14">
-        <v>1.8496789896079724E-3</v>
+        <v>0.13147965011867901</v>
       </c>
       <c r="AC48" s="15">
         <v>0</v>
       </c>
       <c r="AD48" s="19">
         <f t="array" ref="AD48">MAX(ABS(Y48:AC48))</f>
-        <v>8.5780676673566036E-2</v>
+        <v>0.43262218255375795</v>
       </c>
       <c r="AE48" s="19">
         <f t="array" ref="AE48">MAX(IF($Y$42:$AC$42&gt;1-$AE$42,ABS($Y48:$AC48),0))</f>
@@ -7084,16 +7084,16 @@
         <v>400</v>
       </c>
       <c r="D49" s="32">
-        <v>0.99999957691097596</v>
+        <v>0.50168439469183601</v>
       </c>
       <c r="E49" s="32">
-        <v>1.0000000001246501</v>
+        <v>0.99999999823044206</v>
       </c>
       <c r="F49" s="32">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G49" s="32">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="H49" s="33">
         <v>1</v>
@@ -7119,23 +7119,23 @@
         <v>400</v>
       </c>
       <c r="Y49" s="14">
-        <v>9.3911969589275945E-2</v>
+        <v>-4.6753018422518E-2</v>
       </c>
       <c r="Z49" s="14">
-        <v>5.4619634436034015E-2</v>
+        <v>0.41100148084932808</v>
       </c>
       <c r="AA49" s="14">
-        <v>1.7693022877732001E-2</v>
+        <v>0.34923929173808199</v>
       </c>
       <c r="AB49" s="14">
-        <v>3.1991118022810516E-3</v>
+        <v>0.17148814672929202</v>
       </c>
       <c r="AC49" s="15">
         <v>0</v>
       </c>
       <c r="AD49" s="19">
         <f t="array" ref="AD49">MAX(ABS(Y49:AC49))</f>
-        <v>9.3911969589275945E-2</v>
+        <v>0.41100148084932808</v>
       </c>
       <c r="AE49" s="19">
         <f t="array" ref="AE49">MAX(IF($Y$42:$AC$42&gt;1-$AE$42,ABS($Y49:$AC49),0))</f>
@@ -7156,7 +7156,7 @@
         <v>800</v>
       </c>
       <c r="D50" s="32">
-        <v>1</v>
+        <v>0.500864498518381</v>
       </c>
       <c r="E50" s="32">
         <v>1</v>
@@ -7191,23 +7191,23 @@
         <v>800</v>
       </c>
       <c r="Y50" s="14">
-        <v>8.4589650344346956E-2</v>
+        <v>1.066660658339702E-2</v>
       </c>
       <c r="Z50" s="14">
-        <v>5.7583345659257046E-2</v>
+        <v>0.47105317745415798</v>
       </c>
       <c r="AA50" s="14">
-        <v>3.1692913121182054E-2</v>
+        <v>0.16680988956395004</v>
       </c>
       <c r="AB50" s="14">
-        <v>1.6018918653004643E-4</v>
+        <v>2.5905795924142994E-2</v>
       </c>
       <c r="AC50" s="15">
         <v>0</v>
       </c>
       <c r="AD50" s="19">
         <f t="array" ref="AD50">MAX(ABS(Y50:AC50))</f>
-        <v>8.4589650344346956E-2</v>
+        <v>0.47105317745415798</v>
       </c>
       <c r="AE50" s="19">
         <f t="array" ref="AE50">MAX(IF($Y$42:$AC$42&gt;1-$AE$42,ABS($Y50:$AC50),0))</f>
@@ -7228,16 +7228,16 @@
         <v>800</v>
       </c>
       <c r="D51" s="32">
-        <v>0.999999999999999</v>
+        <v>0.75150952849997799</v>
       </c>
       <c r="E51" s="32">
         <v>0.999999999999999</v>
       </c>
       <c r="F51" s="32">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G51" s="32">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="H51" s="33">
         <v>1</v>
@@ -7263,23 +7263,23 @@
         <v>800</v>
       </c>
       <c r="Y51" s="14">
-        <v>8.841617564792903E-2</v>
+        <v>0.27690530944928698</v>
       </c>
       <c r="Z51" s="14">
-        <v>7.1026603551688994E-2</v>
+        <v>0.49781312804012201</v>
       </c>
       <c r="AA51" s="14">
-        <v>4.9706701424252042E-2</v>
+        <v>0.44751350845243998</v>
       </c>
       <c r="AB51" s="14">
-        <v>2.8140881956735031E-2</v>
+        <v>0.26162541742311896</v>
       </c>
       <c r="AC51" s="15">
         <v>0</v>
       </c>
       <c r="AD51" s="19">
         <f t="array" ref="AD51">MAX(ABS(Y51:AC51))</f>
-        <v>8.841617564792903E-2</v>
+        <v>0.49781312804012201</v>
       </c>
       <c r="AE51" s="19">
         <f t="array" ref="AE51">MAX(IF($Y$42:$AC$42&gt;1-$AE$42,ABS($Y51:$AC51),0))</f>
@@ -7303,7 +7303,7 @@
         <v>0.999999999999999</v>
       </c>
       <c r="E52" s="32">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="F52" s="32">
         <v>1</v>
@@ -7335,23 +7335,23 @@
         <v>1600</v>
       </c>
       <c r="Y52" s="14">
-        <v>8.1556328768653041E-2</v>
+        <v>0.50763556206529192</v>
       </c>
       <c r="Z52" s="14">
-        <v>6.0697559325430972E-2</v>
+        <v>0.48063752052504105</v>
       </c>
       <c r="AA52" s="14">
-        <v>1.6453390087281972E-2</v>
+        <v>0.41248733526008396</v>
       </c>
       <c r="AB52" s="14">
-        <v>3.4995727665929621E-3</v>
+        <v>0.212600723353493</v>
       </c>
       <c r="AC52" s="15">
         <v>0</v>
       </c>
       <c r="AD52" s="19">
         <f t="array" ref="AD52">MAX(ABS(Y52:AC52))</f>
-        <v>8.1556328768653041E-2</v>
+        <v>0.50763556206529192</v>
       </c>
       <c r="AE52" s="19">
         <f t="array" ref="AE52">MAX(IF($Y$42:$AC$42&gt;1-$AE$42,ABS($Y52:$AC52),0))</f>
@@ -7372,16 +7372,16 @@
         <v>1600</v>
       </c>
       <c r="D53" s="37">
-        <v>0.82554123251690603</v>
+        <v>0.49761183842505502</v>
       </c>
       <c r="E53" s="37">
-        <v>0.849628654193195</v>
+        <v>0.99996320111905701</v>
       </c>
       <c r="F53" s="37">
-        <v>0.85124741317555697</v>
+        <v>1</v>
       </c>
       <c r="G53" s="37">
-        <v>0.84263250158823499</v>
+        <v>1</v>
       </c>
       <c r="H53" s="38">
         <v>1</v>
@@ -7407,23 +7407,23 @@
         <v>1600</v>
       </c>
       <c r="Y53" s="16">
-        <v>-9.1338735399588922E-2</v>
+        <v>-2.3080108711509562E-3</v>
       </c>
       <c r="Z53" s="16">
-        <v>-9.644183311515897E-2</v>
+        <v>0.41812997448049705</v>
       </c>
       <c r="AA53" s="16">
-        <v>-0.11955624308560109</v>
+        <v>0.19085509945215295</v>
       </c>
       <c r="AB53" s="16">
-        <v>-0.142138816787719</v>
+        <v>4.6415587300220329E-3</v>
       </c>
       <c r="AC53" s="17">
         <v>0</v>
       </c>
       <c r="AD53" s="20">
         <f t="array" ref="AD53">MAX(ABS(Y53:AC53))</f>
-        <v>0.142138816787719</v>
+        <v>0.41812997448049705</v>
       </c>
       <c r="AE53" s="20">
         <f t="array" ref="AE53">MAX(IF($Y$42:$AC$42&gt;1-$AE$42,ABS($Y53:$AC53),0))</f>

--- a/analysis/Random Sobol.xlsx
+++ b/analysis/Random Sobol.xlsx
@@ -565,19 +565,19 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="rom.optimized.S1" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ard.S" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ard.S1" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ard.S" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="rom.optimized.S" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="rom.optimized.S1" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ard.S" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ard.S1" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
@@ -597,15 +597,15 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ard.S" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="rom.optimized.S" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="rom.optimized.S" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ard.S1" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ard.S1" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="rom.optimized.S1" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -625,7 +625,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="rom.optimized.S1" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="rom.optimized.S" growShrinkType="overwriteClear" adjustColumnWidth="0" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1041,19 +1041,19 @@
         <v>100</v>
       </c>
       <c r="D4" s="32">
-        <v>0.99999999971216402</v>
+        <v>0.99999999590218602</v>
       </c>
       <c r="E4" s="32">
-        <v>1.09897637365466E-10</v>
+        <v>8.8767862008618398E-10</v>
       </c>
       <c r="F4" s="32">
-        <v>5.8168137662181301E-11</v>
+        <v>6.0158018121084495E-10</v>
       </c>
       <c r="G4" s="32">
-        <v>1.8927078238785901E-12</v>
+        <v>2.7966220584091599E-10</v>
       </c>
       <c r="H4" s="33">
-        <v>-1.5020486364465001E-13</v>
+        <v>4.95506711364555E-14</v>
       </c>
       <c r="I4" s="39"/>
       <c r="J4" s="39"/>
@@ -1078,27 +1078,27 @@
       </c>
       <c r="Y4" s="32">
         <f t="array" ref="Y4:AC13">D4:H13-Y2:AC2</f>
-        <v>-2.8783597727510823E-10</v>
+        <v>-4.0978139770331268E-9</v>
       </c>
       <c r="Z4" s="32">
-        <v>1.09897637365466E-10</v>
+        <v>8.8767862008618398E-10</v>
       </c>
       <c r="AA4" s="32">
-        <v>5.8168137662181301E-11</v>
+        <v>6.0158018121084495E-10</v>
       </c>
       <c r="AB4" s="32">
-        <v>1.8927078238785901E-12</v>
+        <v>2.7966220584091599E-10</v>
       </c>
       <c r="AC4" s="33">
-        <v>-1.5020486364465001E-13</v>
+        <v>4.95506711364555E-14</v>
       </c>
       <c r="AD4" s="34">
         <f t="array" ref="AD4">MAX(ABS(Y4:AC4))</f>
-        <v>2.8783597727510823E-10</v>
+        <v>4.0978139770331268E-9</v>
       </c>
       <c r="AE4" s="34">
         <f t="array" ref="AE4">MAX(IF($Y$2:$AC$2&lt;$AE$2,ABS($Y4:$AC4),0))</f>
-        <v>1.09897637365466E-10</v>
+        <v>8.8767862008618398E-10</v>
       </c>
       <c r="AF4" s="4"/>
       <c r="AM4" s="4"/>
@@ -1106,25 +1106,25 @@
     </row>
     <row r="5" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="30">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C5" s="31">
         <v>100</v>
       </c>
       <c r="D5" s="32">
-        <v>0.99997687938827495</v>
+        <v>0.99999342149529702</v>
       </c>
       <c r="E5" s="32">
-        <v>5.9789968307001303E-7</v>
+        <v>1.9911969577634998E-6</v>
       </c>
       <c r="F5" s="32">
-        <v>3.7873832043950402E-7</v>
+        <v>5.0386371528360796E-7</v>
       </c>
       <c r="G5" s="32">
-        <v>1.90220149667407E-8</v>
+        <v>5.1837193668017598E-8</v>
       </c>
       <c r="H5" s="33">
-        <v>1.8244208610472699E-9</v>
+        <v>4.8089413764248297E-15</v>
       </c>
       <c r="I5" s="39"/>
       <c r="J5" s="39"/>
@@ -1141,33 +1141,33 @@
       <c r="U5" s="39"/>
       <c r="V5" s="39"/>
       <c r="W5" s="30">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X5" s="31">
         <v>100</v>
       </c>
       <c r="Y5" s="32">
-        <v>-2.3120611725047091E-5</v>
+        <v>-6.5785047029809363E-6</v>
       </c>
       <c r="Z5" s="32">
-        <v>5.9789968307001303E-7</v>
+        <v>1.9911969577634998E-6</v>
       </c>
       <c r="AA5" s="32">
-        <v>3.7873832043950402E-7</v>
+        <v>5.0386371528360796E-7</v>
       </c>
       <c r="AB5" s="32">
-        <v>1.90220149667407E-8</v>
+        <v>5.1837193668017598E-8</v>
       </c>
       <c r="AC5" s="33">
-        <v>1.8244208610472699E-9</v>
+        <v>4.8089413764248297E-15</v>
       </c>
       <c r="AD5" s="34">
         <f t="array" ref="AD5">MAX(ABS(Y5:AC5))</f>
-        <v>2.3120611725047091E-5</v>
+        <v>6.5785047029809363E-6</v>
       </c>
       <c r="AE5" s="34">
         <f t="array" ref="AE5">MAX(IF($Y$2:$AC$2&lt;$AE$2,ABS($Y5:$AC5),0))</f>
-        <v>5.9789968307001303E-7</v>
+        <v>1.9911969577634998E-6</v>
       </c>
       <c r="AF5" s="4"/>
       <c r="AM5" s="4"/>
@@ -1181,19 +1181,19 @@
         <v>200</v>
       </c>
       <c r="D6" s="32">
-        <v>0.99999999906264103</v>
+        <v>0.99999999949824203</v>
       </c>
       <c r="E6" s="32">
-        <v>3.6276239247680498E-10</v>
+        <v>5.2595697533799497E-11</v>
       </c>
       <c r="F6" s="32">
-        <v>1.29691990803406E-11</v>
+        <v>2.3531057712806302E-10</v>
       </c>
       <c r="G6" s="32">
-        <v>1.3174560730202401E-11</v>
+        <v>2.4445706827508699E-11</v>
       </c>
       <c r="H6" s="33">
-        <v>1.94583131462427E-12</v>
+        <v>3.52774426703177E-13</v>
       </c>
       <c r="I6" s="39"/>
       <c r="J6" s="39"/>
@@ -1216,27 +1216,27 @@
         <v>200</v>
       </c>
       <c r="Y6" s="32">
-        <v>-9.3735896822266795E-10</v>
+        <v>-5.0175796850737697E-10</v>
       </c>
       <c r="Z6" s="32">
-        <v>3.6276239247680498E-10</v>
+        <v>5.2595697533799497E-11</v>
       </c>
       <c r="AA6" s="32">
-        <v>1.29691990803406E-11</v>
+        <v>2.3531057712806302E-10</v>
       </c>
       <c r="AB6" s="32">
-        <v>1.3174560730202401E-11</v>
+        <v>2.4445706827508699E-11</v>
       </c>
       <c r="AC6" s="33">
-        <v>1.94583131462427E-12</v>
+        <v>3.52774426703177E-13</v>
       </c>
       <c r="AD6" s="34">
         <f t="array" ref="AD6">MAX(ABS(Y6:AC6))</f>
-        <v>9.3735896822266795E-10</v>
+        <v>5.0175796850737697E-10</v>
       </c>
       <c r="AE6" s="34">
         <f t="array" ref="AE6">MAX(IF($Y$2:$AC$2&lt;$AE$2,ABS($Y6:$AC6),0))</f>
-        <v>3.6276239247680498E-10</v>
+        <v>2.3531057712806302E-10</v>
       </c>
       <c r="AF6" s="4"/>
       <c r="AM6" s="4"/>
@@ -1244,25 +1244,25 @@
     </row>
     <row r="7" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="30">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C7" s="31">
         <v>200</v>
       </c>
       <c r="D7" s="32">
-        <v>0.99999999976360898</v>
+        <v>0.99999999930139805</v>
       </c>
       <c r="E7" s="32">
-        <v>-1.22100344713283E-10</v>
+        <v>1.45931915813843E-10</v>
       </c>
       <c r="F7" s="32">
-        <v>-1.22100344713283E-10</v>
+        <v>1.90337016284515E-10</v>
       </c>
       <c r="G7" s="32">
-        <v>-1.22100344713283E-10</v>
+        <v>5.3841639505225098E-14</v>
       </c>
       <c r="H7" s="33">
-        <v>-1.22100344713283E-10</v>
+        <v>5.3841639505225098E-14</v>
       </c>
       <c r="I7" s="39"/>
       <c r="J7" s="39"/>
@@ -1279,33 +1279,33 @@
       <c r="U7" s="39"/>
       <c r="V7" s="39"/>
       <c r="W7" s="30">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X7" s="31">
         <v>200</v>
       </c>
       <c r="Y7" s="32">
-        <v>-2.3639101787154004E-10</v>
+        <v>-6.9860195406334924E-10</v>
       </c>
       <c r="Z7" s="32">
-        <v>-1.22100344713283E-10</v>
+        <v>1.45931915813843E-10</v>
       </c>
       <c r="AA7" s="32">
-        <v>-1.22100344713283E-10</v>
+        <v>1.90337016284515E-10</v>
       </c>
       <c r="AB7" s="32">
-        <v>-1.22100344713283E-10</v>
+        <v>5.3841639505225098E-14</v>
       </c>
       <c r="AC7" s="33">
-        <v>-1.22100344713283E-10</v>
+        <v>5.3841639505225098E-14</v>
       </c>
       <c r="AD7" s="34">
         <f t="array" ref="AD7">MAX(ABS(Y7:AC7))</f>
-        <v>2.3639101787154004E-10</v>
+        <v>6.9860195406334924E-10</v>
       </c>
       <c r="AE7" s="34">
         <f t="array" ref="AE7">MAX(IF($Y$2:$AC$2&lt;$AE$2,ABS($Y7:$AC7),0))</f>
-        <v>1.22100344713283E-10</v>
+        <v>1.90337016284515E-10</v>
       </c>
       <c r="AF7" s="4"/>
       <c r="AM7" s="4"/>
@@ -1319,19 +1319,19 @@
         <v>400</v>
       </c>
       <c r="D8" s="32">
-        <v>0.99999999999857403</v>
+        <v>0.99999999987412802</v>
       </c>
       <c r="E8" s="32">
-        <v>-5.2523698218141301E-12</v>
+        <v>4.61965912819806E-11</v>
       </c>
       <c r="F8" s="32">
-        <v>-5.2523698218141301E-12</v>
+        <v>1.6099539793350799E-13</v>
       </c>
       <c r="G8" s="32">
-        <v>-4.7322445836331696E-12</v>
+        <v>1.6099539793350799E-13</v>
       </c>
       <c r="H8" s="33">
-        <v>-5.2523698218141301E-12</v>
+        <v>1.6099539793350799E-13</v>
       </c>
       <c r="I8" s="39"/>
       <c r="J8" s="39"/>
@@ -1354,27 +1354,27 @@
         <v>400</v>
       </c>
       <c r="Y8" s="32">
-        <v>-1.4259704528285511E-12</v>
+        <v>-1.2587197950608697E-10</v>
       </c>
       <c r="Z8" s="32">
-        <v>-5.2523698218141301E-12</v>
+        <v>4.61965912819806E-11</v>
       </c>
       <c r="AA8" s="32">
-        <v>-5.2523698218141301E-12</v>
+        <v>1.6099539793350799E-13</v>
       </c>
       <c r="AB8" s="32">
-        <v>-4.7322445836331696E-12</v>
+        <v>1.6099539793350799E-13</v>
       </c>
       <c r="AC8" s="33">
-        <v>-5.2523698218141301E-12</v>
+        <v>1.6099539793350799E-13</v>
       </c>
       <c r="AD8" s="34">
         <f t="array" ref="AD8">MAX(ABS(Y8:AC8))</f>
-        <v>5.2523698218141301E-12</v>
+        <v>1.2587197950608697E-10</v>
       </c>
       <c r="AE8" s="34">
         <f t="array" ref="AE8">MAX(IF($Y$2:$AC$2&lt;$AE$2,ABS($Y8:$AC8),0))</f>
-        <v>5.2523698218141301E-12</v>
+        <v>4.61965912819806E-11</v>
       </c>
       <c r="AF8" s="4"/>
       <c r="AM8" s="4"/>
@@ -1382,25 +1382,25 @@
     </row>
     <row r="9" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="30">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C9" s="31">
         <v>400</v>
       </c>
       <c r="D9" s="32">
-        <v>0.99999999958892205</v>
+        <v>0.99999999994251898</v>
       </c>
       <c r="E9" s="32">
-        <v>1.63328711397163E-10</v>
+        <v>4.8196109381136801E-11</v>
       </c>
       <c r="F9" s="32">
-        <v>2.1875700266334401E-11</v>
+        <v>3.27897539269256E-12</v>
       </c>
       <c r="G9" s="32">
-        <v>2.1875700266334401E-11</v>
+        <v>3.27897539269256E-12</v>
       </c>
       <c r="H9" s="33">
-        <v>2.1875700266334401E-11</v>
+        <v>3.27897539269256E-12</v>
       </c>
       <c r="I9" s="39"/>
       <c r="J9" s="39"/>
@@ -1417,33 +1417,33 @@
       <c r="U9" s="39"/>
       <c r="V9" s="39"/>
       <c r="W9" s="30">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X9" s="31">
         <v>400</v>
       </c>
       <c r="Y9" s="32">
-        <v>-4.1107794945816067E-10</v>
+        <v>-5.7481019943850242E-11</v>
       </c>
       <c r="Z9" s="32">
-        <v>1.63328711397163E-10</v>
+        <v>4.8196109381136801E-11</v>
       </c>
       <c r="AA9" s="32">
-        <v>2.1875700266334401E-11</v>
+        <v>3.27897539269256E-12</v>
       </c>
       <c r="AB9" s="32">
-        <v>2.1875700266334401E-11</v>
+        <v>3.27897539269256E-12</v>
       </c>
       <c r="AC9" s="33">
-        <v>2.1875700266334401E-11</v>
+        <v>3.27897539269256E-12</v>
       </c>
       <c r="AD9" s="34">
         <f t="array" ref="AD9">MAX(ABS(Y9:AC9))</f>
-        <v>4.1107794945816067E-10</v>
+        <v>5.7481019943850242E-11</v>
       </c>
       <c r="AE9" s="34">
         <f t="array" ref="AE9">MAX(IF($Y$2:$AC$2&lt;$AE$2,ABS($Y9:$AC9),0))</f>
-        <v>1.63328711397163E-10</v>
+        <v>4.8196109381136801E-11</v>
       </c>
       <c r="AF9" s="4"/>
       <c r="AM9" s="4"/>
@@ -1457,19 +1457,19 @@
         <v>800</v>
       </c>
       <c r="D10" s="32">
-        <v>0.999999999999999</v>
+        <v>0.99999999980191301</v>
       </c>
       <c r="E10" s="32">
-        <v>6.1061708166024399E-12</v>
+        <v>8.6578284580007495E-11</v>
       </c>
       <c r="F10" s="32">
-        <v>6.1061708166024399E-12</v>
+        <v>-1.94703907487622E-14</v>
       </c>
       <c r="G10" s="32">
-        <v>6.1061708166024399E-12</v>
+        <v>-1.94703907487622E-14</v>
       </c>
       <c r="H10" s="33">
-        <v>6.1061708166024399E-12</v>
+        <v>-1.94703907487622E-14</v>
       </c>
       <c r="I10" s="39"/>
       <c r="J10" s="39"/>
@@ -1492,27 +1492,27 @@
         <v>800</v>
       </c>
       <c r="Y10" s="32">
-        <v>-9.9920072216264089E-16</v>
+        <v>-1.9808699125434259E-10</v>
       </c>
       <c r="Z10" s="32">
-        <v>6.1061708166024399E-12</v>
+        <v>8.6578284580007495E-11</v>
       </c>
       <c r="AA10" s="32">
-        <v>6.1061708166024399E-12</v>
+        <v>-1.94703907487622E-14</v>
       </c>
       <c r="AB10" s="32">
-        <v>6.1061708166024399E-12</v>
+        <v>-1.94703907487622E-14</v>
       </c>
       <c r="AC10" s="33">
-        <v>6.1061708166024399E-12</v>
+        <v>-1.94703907487622E-14</v>
       </c>
       <c r="AD10" s="34">
         <f t="array" ref="AD10">MAX(ABS(Y10:AC10))</f>
-        <v>6.1061708166024399E-12</v>
+        <v>1.9808699125434259E-10</v>
       </c>
       <c r="AE10" s="34">
         <f t="array" ref="AE10">MAX(IF($Y$2:$AC$2&lt;$AE$2,ABS($Y10:$AC10),0))</f>
-        <v>6.1061708166024399E-12</v>
+        <v>8.6578284580007495E-11</v>
       </c>
       <c r="AF10" s="4"/>
       <c r="AM10" s="4"/>
@@ -1520,25 +1520,25 @@
     </row>
     <row r="11" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="30">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C11" s="31">
         <v>800</v>
       </c>
       <c r="D11" s="32">
-        <v>0.999999999999999</v>
+        <v>0.99999835636950196</v>
       </c>
       <c r="E11" s="32">
-        <v>-4.1833590476156698E-10</v>
+        <v>6.4786221369319695E-7</v>
       </c>
       <c r="F11" s="32">
-        <v>-4.1833590476156698E-10</v>
+        <v>8.1000941823429104E-10</v>
       </c>
       <c r="G11" s="32">
-        <v>-4.1833590476156698E-10</v>
+        <v>-1.3502976542345601E-13</v>
       </c>
       <c r="H11" s="33">
-        <v>-4.1833590476156698E-10</v>
+        <v>-1.3502976542345601E-13</v>
       </c>
       <c r="I11" s="39"/>
       <c r="J11" s="39"/>
@@ -1555,33 +1555,33 @@
       <c r="U11" s="39"/>
       <c r="V11" s="39"/>
       <c r="W11" s="30">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X11" s="31">
         <v>800</v>
       </c>
       <c r="Y11" s="32">
-        <v>-9.9920072216264089E-16</v>
+        <v>-1.6436304980382843E-6</v>
       </c>
       <c r="Z11" s="32">
-        <v>-4.1833590476156698E-10</v>
+        <v>6.4786221369319695E-7</v>
       </c>
       <c r="AA11" s="32">
-        <v>-4.1833590476156698E-10</v>
+        <v>8.1000941823429104E-10</v>
       </c>
       <c r="AB11" s="32">
-        <v>-4.1833590476156698E-10</v>
+        <v>-1.3502976542345601E-13</v>
       </c>
       <c r="AC11" s="33">
-        <v>-4.1833590476156698E-10</v>
+        <v>-1.3502976542345601E-13</v>
       </c>
       <c r="AD11" s="34">
         <f t="array" ref="AD11">MAX(ABS(Y11:AC11))</f>
-        <v>4.1833590476156698E-10</v>
+        <v>1.6436304980382843E-6</v>
       </c>
       <c r="AE11" s="34">
         <f t="array" ref="AE11">MAX(IF($Y$2:$AC$2&lt;$AE$2,ABS($Y11:$AC11),0))</f>
-        <v>4.1833590476156698E-10</v>
+        <v>6.4786221369319695E-7</v>
       </c>
       <c r="AF11" s="4"/>
       <c r="AM11" s="4"/>
@@ -1595,19 +1595,19 @@
         <v>1600</v>
       </c>
       <c r="D12" s="32">
-        <v>0.99999999997059796</v>
+        <v>0.99999999983400001</v>
       </c>
       <c r="E12" s="32">
-        <v>1.94288300661581E-11</v>
+        <v>8.5230470854107499E-11</v>
       </c>
       <c r="F12" s="32">
-        <v>-6.4676804170506499E-13</v>
+        <v>1.05890574130877E-11</v>
       </c>
       <c r="G12" s="32">
-        <v>-6.4676804170506499E-13</v>
+        <v>9.0383799908161902E-15</v>
       </c>
       <c r="H12" s="33">
-        <v>-6.4676804170506499E-13</v>
+        <v>9.0383799908161902E-15</v>
       </c>
       <c r="I12" s="39"/>
       <c r="J12" s="39"/>
@@ -1630,27 +1630,27 @@
         <v>1600</v>
       </c>
       <c r="Y12" s="32">
-        <v>-2.9402036361148021E-11</v>
+        <v>-1.6599999153044109E-10</v>
       </c>
       <c r="Z12" s="32">
-        <v>1.94288300661581E-11</v>
+        <v>8.5230470854107499E-11</v>
       </c>
       <c r="AA12" s="32">
-        <v>-6.4676804170506499E-13</v>
+        <v>1.05890574130877E-11</v>
       </c>
       <c r="AB12" s="32">
-        <v>-6.4676804170506499E-13</v>
+        <v>9.0383799908161902E-15</v>
       </c>
       <c r="AC12" s="33">
-        <v>-6.4676804170506499E-13</v>
+        <v>9.0383799908161902E-15</v>
       </c>
       <c r="AD12" s="34">
         <f t="array" ref="AD12">MAX(ABS(Y12:AC12))</f>
-        <v>2.9402036361148021E-11</v>
+        <v>1.6599999153044109E-10</v>
       </c>
       <c r="AE12" s="34">
         <f t="array" ref="AE12">MAX(IF($Y$2:$AC$2&lt;$AE$2,ABS($Y12:$AC12),0))</f>
-        <v>1.94288300661581E-11</v>
+        <v>8.5230470854107499E-11</v>
       </c>
       <c r="AF12" s="4"/>
       <c r="AM12" s="4"/>
@@ -1658,25 +1658,25 @@
     </row>
     <row r="13" spans="1:40" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="35">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C13" s="36">
         <v>1600</v>
       </c>
       <c r="D13" s="37">
-        <v>0.99999999621040503</v>
+        <v>0.99999999993734201</v>
       </c>
       <c r="E13" s="37">
-        <v>-2.1611126333640601E-10</v>
+        <v>1.9343549686367199E-11</v>
       </c>
       <c r="F13" s="37">
-        <v>-8.5387775113790797E-10</v>
+        <v>-4.8678297459106801E-12</v>
       </c>
       <c r="G13" s="37">
-        <v>4.9920616911295196E-10</v>
+        <v>9.7928344825037396E-12</v>
       </c>
       <c r="H13" s="38">
-        <v>-1.39372377500661E-9</v>
+        <v>-4.8678297459106801E-12</v>
       </c>
       <c r="I13" s="39"/>
       <c r="J13" s="39"/>
@@ -1693,33 +1693,33 @@
       <c r="U13" s="39"/>
       <c r="V13" s="39"/>
       <c r="W13" s="35">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X13" s="36">
         <v>1600</v>
       </c>
       <c r="Y13" s="37">
-        <v>-3.7895949711597154E-9</v>
+        <v>-6.2657989907677347E-11</v>
       </c>
       <c r="Z13" s="37">
-        <v>-2.1611126333640601E-10</v>
+        <v>1.9343549686367199E-11</v>
       </c>
       <c r="AA13" s="37">
-        <v>-8.5387775113790797E-10</v>
+        <v>-4.8678297459106801E-12</v>
       </c>
       <c r="AB13" s="37">
-        <v>4.9920616911295196E-10</v>
+        <v>9.7928344825037396E-12</v>
       </c>
       <c r="AC13" s="38">
-        <v>-1.39372377500661E-9</v>
+        <v>-4.8678297459106801E-12</v>
       </c>
       <c r="AD13" s="40">
         <f t="array" ref="AD13">MAX(ABS(Y13:AC13))</f>
-        <v>3.7895949711597154E-9</v>
+        <v>6.2657989907677347E-11</v>
       </c>
       <c r="AE13" s="40">
         <f t="array" ref="AE13">MAX(IF($Y$2:$AC$2&lt;$AE$2,ABS($Y13:$AC13),0))</f>
-        <v>1.39372377500661E-9</v>
+        <v>1.9343549686367199E-11</v>
       </c>
       <c r="AF13" s="4"/>
       <c r="AM13" s="4"/>
@@ -1881,19 +1881,19 @@
         <v>100</v>
       </c>
       <c r="D17" s="32">
-        <v>0.999999999999999</v>
+        <v>0.99999999999971001</v>
       </c>
       <c r="E17" s="32">
-        <v>-5.6802524460923995E-13</v>
+        <v>3.2802338941396698E-13</v>
       </c>
       <c r="F17" s="32">
-        <v>-5.6802524460923995E-13</v>
+        <v>-8.5227480408235701E-14</v>
       </c>
       <c r="G17" s="32">
-        <v>-5.6802524460923995E-13</v>
+        <v>-8.5227480408235701E-14</v>
       </c>
       <c r="H17" s="33">
-        <v>-5.6802524460923995E-13</v>
+        <v>-8.5227480408235701E-14</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
@@ -1918,27 +1918,27 @@
       </c>
       <c r="Y17" s="32">
         <f t="array" ref="Y17:AC26">D17:H26-Y15:AC15</f>
-        <v>-9.9920072216264089E-16</v>
+        <v>-2.8999025403209089E-13</v>
       </c>
       <c r="Z17" s="32">
-        <v>-5.6802524460923995E-13</v>
+        <v>3.2802338941396698E-13</v>
       </c>
       <c r="AA17" s="32">
-        <v>-5.6802524460923995E-13</v>
+        <v>-8.5227480408235701E-14</v>
       </c>
       <c r="AB17" s="32">
-        <v>-5.6802524460923995E-13</v>
+        <v>-8.5227480408235701E-14</v>
       </c>
       <c r="AC17" s="33">
-        <v>-5.6802524460923995E-13</v>
+        <v>-8.5227480408235701E-14</v>
       </c>
       <c r="AD17" s="34">
         <f t="array" ref="AD17">MAX(ABS(Y17:AC17))</f>
-        <v>5.6802524460923995E-13</v>
+        <v>3.2802338941396698E-13</v>
       </c>
       <c r="AE17" s="34">
         <f t="array" ref="AE17">MAX(IF(Y$15:AC$15&lt;$AE$15,ABS($Y17:$AC17),0))</f>
-        <v>5.6802524460923995E-13</v>
+        <v>3.2802338941396698E-13</v>
       </c>
       <c r="AG17" s="5"/>
       <c r="AH17" s="5"/>
@@ -1949,25 +1949,25 @@
     </row>
     <row r="18" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="30">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C18" s="31">
         <v>100</v>
       </c>
       <c r="D18" s="32">
-        <v>0.99999996572565497</v>
+        <v>0.99999983201712594</v>
       </c>
       <c r="E18" s="32">
-        <v>1.42978337440732E-8</v>
+        <v>1.23539314262614E-7</v>
       </c>
       <c r="F18" s="32">
-        <v>6.5361418070678198E-10</v>
+        <v>2.28992581970943E-11</v>
       </c>
       <c r="G18" s="32">
-        <v>-1.6861912400401398E-11</v>
+        <v>8.7613082633694495E-14</v>
       </c>
       <c r="H18" s="33">
-        <v>-1.6861912400401398E-11</v>
+        <v>4.0864700818057097E-14</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
@@ -1984,33 +1984,33 @@
       <c r="U18" s="5"/>
       <c r="V18" s="5"/>
       <c r="W18" s="30">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X18" s="31">
         <v>100</v>
       </c>
       <c r="Y18" s="32">
-        <v>-3.4274345028784126E-8</v>
+        <v>-1.6798287405528356E-7</v>
       </c>
       <c r="Z18" s="32">
-        <v>1.42978337440732E-8</v>
+        <v>1.23539314262614E-7</v>
       </c>
       <c r="AA18" s="32">
-        <v>6.5361418070678198E-10</v>
+        <v>2.28992581970943E-11</v>
       </c>
       <c r="AB18" s="32">
-        <v>-1.6861912400401398E-11</v>
+        <v>8.7613082633694495E-14</v>
       </c>
       <c r="AC18" s="33">
-        <v>-1.6861912400401398E-11</v>
+        <v>4.0864700818057097E-14</v>
       </c>
       <c r="AD18" s="34">
         <f t="array" ref="AD18">MAX(ABS(Y18:AC18))</f>
-        <v>3.4274345028784126E-8</v>
+        <v>1.6798287405528356E-7</v>
       </c>
       <c r="AE18" s="34">
         <f t="array" ref="AE18">MAX(IF(Y$15:AC$15&lt;$AE$15,ABS($Y18:$AC18),0))</f>
-        <v>1.42978337440732E-8</v>
+        <v>1.23539314262614E-7</v>
       </c>
       <c r="AG18" s="5"/>
       <c r="AH18" s="5"/>
@@ -2027,19 +2027,19 @@
         <v>200</v>
       </c>
       <c r="D19" s="32">
-        <v>1.0000000000011999</v>
+        <v>0.99999999999982603</v>
       </c>
       <c r="E19" s="32">
-        <v>0.50000000000004696</v>
+        <v>-5.3898921095198303E-14</v>
       </c>
       <c r="F19" s="32">
-        <v>0.50000000000004696</v>
+        <v>-5.3898921095198303E-14</v>
       </c>
       <c r="G19" s="32">
-        <v>0.50000000000004696</v>
+        <v>-5.3898921095198303E-14</v>
       </c>
       <c r="H19" s="33">
-        <v>0.50000000000004696</v>
+        <v>-5.3898921095198303E-14</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
@@ -2062,27 +2062,27 @@
         <v>200</v>
       </c>
       <c r="Y19" s="32">
-        <v>1.1999290450148692E-12</v>
+        <v>-1.7397194795876203E-13</v>
       </c>
       <c r="Z19" s="32">
-        <v>0.50000000000004696</v>
+        <v>-5.3898921095198303E-14</v>
       </c>
       <c r="AA19" s="32">
-        <v>0.50000000000004696</v>
+        <v>-5.3898921095198303E-14</v>
       </c>
       <c r="AB19" s="32">
-        <v>0.50000000000004696</v>
+        <v>-5.3898921095198303E-14</v>
       </c>
       <c r="AC19" s="33">
-        <v>0.50000000000004696</v>
+        <v>-5.3898921095198303E-14</v>
       </c>
       <c r="AD19" s="34">
         <f t="array" ref="AD19">MAX(ABS(Y19:AC19))</f>
-        <v>0.50000000000004696</v>
+        <v>1.7397194795876203E-13</v>
       </c>
       <c r="AE19" s="34">
         <f t="array" ref="AE19">MAX(IF(Y$15:AC$15&lt;$AE$15,ABS($Y19:$AC19),0))</f>
-        <v>0.50000000000004696</v>
+        <v>5.3898921095198303E-14</v>
       </c>
       <c r="AG19" s="5"/>
       <c r="AH19" s="5"/>
@@ -2093,25 +2093,25 @@
     </row>
     <row r="20" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="30">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C20" s="31">
         <v>200</v>
       </c>
       <c r="D20" s="32">
-        <v>0.99999999110760796</v>
+        <v>0.99999953248273699</v>
       </c>
       <c r="E20" s="32">
-        <v>1.49020528716696E-9</v>
+        <v>3.1023033382637501E-7</v>
       </c>
       <c r="F20" s="32">
-        <v>5.3422786818449505E-10</v>
+        <v>1.04713886853309E-9</v>
       </c>
       <c r="G20" s="32">
-        <v>2.30748440255361E-10</v>
+        <v>9.6196559587606003E-13</v>
       </c>
       <c r="H20" s="33">
-        <v>2.30748440255361E-10</v>
+        <v>1.4533365618593701E-13</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
@@ -2128,33 +2128,33 @@
       <c r="U20" s="5"/>
       <c r="V20" s="5"/>
       <c r="W20" s="30">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X20" s="31">
         <v>200</v>
       </c>
       <c r="Y20" s="32">
-        <v>-8.8923920449346383E-9</v>
+        <v>-4.6751726301419438E-7</v>
       </c>
       <c r="Z20" s="32">
-        <v>1.49020528716696E-9</v>
+        <v>3.1023033382637501E-7</v>
       </c>
       <c r="AA20" s="32">
-        <v>5.3422786818449505E-10</v>
+        <v>1.04713886853309E-9</v>
       </c>
       <c r="AB20" s="32">
-        <v>2.30748440255361E-10</v>
+        <v>9.6196559587606003E-13</v>
       </c>
       <c r="AC20" s="33">
-        <v>2.30748440255361E-10</v>
+        <v>1.4533365618593701E-13</v>
       </c>
       <c r="AD20" s="34">
         <f t="array" ref="AD20">MAX(ABS(Y20:AC20))</f>
-        <v>8.8923920449346383E-9</v>
+        <v>4.6751726301419438E-7</v>
       </c>
       <c r="AE20" s="34">
         <f t="array" ref="AE20">MAX(IF(Y$15:AC$15&lt;$AE$15,ABS($Y20:$AC20),0))</f>
-        <v>1.49020528716696E-9</v>
+        <v>3.1023033382637501E-7</v>
       </c>
       <c r="AG20" s="5"/>
       <c r="AH20" s="5"/>
@@ -2171,19 +2171,19 @@
         <v>400</v>
       </c>
       <c r="D21" s="32">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E21" s="32">
-        <v>6.8848290190326804E-13</v>
+        <v>1</v>
       </c>
       <c r="F21" s="32">
-        <v>6.8848290190326804E-13</v>
+        <v>1</v>
       </c>
       <c r="G21" s="32">
-        <v>6.8848290190326804E-13</v>
+        <v>1</v>
       </c>
       <c r="H21" s="33">
-        <v>6.8848290190326804E-13</v>
+        <v>1</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
@@ -2206,27 +2206,27 @@
         <v>400</v>
       </c>
       <c r="Y21" s="32">
-        <v>-9.9920072216264089E-16</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="32">
-        <v>6.8848290190326804E-13</v>
+        <v>1</v>
       </c>
       <c r="AA21" s="32">
-        <v>6.8848290190326804E-13</v>
+        <v>1</v>
       </c>
       <c r="AB21" s="32">
-        <v>6.8848290190326804E-13</v>
+        <v>1</v>
       </c>
       <c r="AC21" s="33">
-        <v>6.8848290190326804E-13</v>
+        <v>1</v>
       </c>
       <c r="AD21" s="34">
         <f t="array" ref="AD21">MAX(ABS(Y21:AC21))</f>
-        <v>6.8848290190326804E-13</v>
+        <v>1</v>
       </c>
       <c r="AE21" s="34">
         <f t="array" ref="AE21">MAX(IF(Y$15:AC$15&lt;$AE$15,ABS($Y21:$AC21),0))</f>
-        <v>6.8848290190326804E-13</v>
+        <v>1</v>
       </c>
       <c r="AG21" s="5"/>
       <c r="AH21" s="5"/>
@@ -2237,25 +2237,25 @@
     </row>
     <row r="22" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="30">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C22" s="31">
         <v>400</v>
       </c>
       <c r="D22" s="32">
-        <v>0.99999998995547301</v>
+        <v>0.99999999999928602</v>
       </c>
       <c r="E22" s="32">
-        <v>7.4345823174879201E-9</v>
+        <v>-1.7726425492260199E-12</v>
       </c>
       <c r="F22" s="32">
-        <v>-3.4207891637488098E-11</v>
+        <v>-1.7726425492260199E-12</v>
       </c>
       <c r="G22" s="32">
-        <v>6.5880545703177302E-11</v>
+        <v>-1.7726425492260199E-12</v>
       </c>
       <c r="H22" s="33">
-        <v>-3.4207891637488098E-11</v>
+        <v>-1.7726425492260199E-12</v>
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
@@ -2272,33 +2272,33 @@
       <c r="U22" s="5"/>
       <c r="V22" s="5"/>
       <c r="W22" s="30">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X22" s="31">
         <v>400</v>
       </c>
       <c r="Y22" s="32">
-        <v>-1.0044526987940117E-8</v>
+        <v>-7.1398442713643817E-13</v>
       </c>
       <c r="Z22" s="32">
-        <v>7.4345823174879201E-9</v>
+        <v>-1.7726425492260199E-12</v>
       </c>
       <c r="AA22" s="32">
-        <v>-3.4207891637488098E-11</v>
+        <v>-1.7726425492260199E-12</v>
       </c>
       <c r="AB22" s="32">
-        <v>6.5880545703177302E-11</v>
+        <v>-1.7726425492260199E-12</v>
       </c>
       <c r="AC22" s="33">
-        <v>-3.4207891637488098E-11</v>
+        <v>-1.7726425492260199E-12</v>
       </c>
       <c r="AD22" s="34">
         <f t="array" ref="AD22">MAX(ABS(Y22:AC22))</f>
-        <v>1.0044526987940117E-8</v>
+        <v>1.7726425492260199E-12</v>
       </c>
       <c r="AE22" s="34">
         <f t="array" ref="AE22">MAX(IF(Y$15:AC$15&lt;$AE$15,ABS($Y22:$AC22),0))</f>
-        <v>7.4345823174879201E-9</v>
+        <v>1.7726425492260199E-12</v>
       </c>
       <c r="AG22" s="5"/>
       <c r="AH22" s="5"/>
@@ -2318,16 +2318,16 @@
         <v>0.999999999999999</v>
       </c>
       <c r="E23" s="32">
-        <v>-2.5418356402437101E-2</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="F23" s="32">
-        <v>-2.5418356402437101E-2</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="G23" s="32">
-        <v>-2.5418356402437101E-2</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="H23" s="33">
-        <v>-2.5418356402437101E-2</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
@@ -2353,24 +2353,24 @@
         <v>-9.9920072216264089E-16</v>
       </c>
       <c r="Z23" s="32">
-        <v>-2.5418356402437101E-2</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="AA23" s="32">
-        <v>-2.5418356402437101E-2</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="AB23" s="32">
-        <v>-2.5418356402437101E-2</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="AC23" s="33">
-        <v>-2.5418356402437101E-2</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="AD23" s="34">
         <f t="array" ref="AD23">MAX(ABS(Y23:AC23))</f>
-        <v>2.5418356402437101E-2</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="AE23" s="34">
         <f t="array" ref="AE23">MAX(IF(Y$15:AC$15&lt;$AE$15,ABS($Y23:$AC23),0))</f>
-        <v>2.5418356402437101E-2</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="AG23" s="5"/>
       <c r="AH23" s="5"/>
@@ -2381,25 +2381,25 @@
     </row>
     <row r="24" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="30">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C24" s="31">
         <v>800</v>
       </c>
       <c r="D24" s="32">
-        <v>0.999999999999999</v>
+        <v>0.99927750164984197</v>
       </c>
       <c r="E24" s="32">
-        <v>0.999999999999999</v>
+        <v>-7.0770723654216897E-3</v>
       </c>
       <c r="F24" s="32">
-        <v>0.999999999999999</v>
+        <v>-4.2446078792102004E-3</v>
       </c>
       <c r="G24" s="32">
-        <v>0.999999999999999</v>
+        <v>-3.6807242811744399E-3</v>
       </c>
       <c r="H24" s="33">
-        <v>0.999999999999999</v>
+        <v>-4.2446078792102004E-3</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
@@ -2416,33 +2416,33 @@
       <c r="U24" s="5"/>
       <c r="V24" s="5"/>
       <c r="W24" s="30">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X24" s="31">
         <v>800</v>
       </c>
       <c r="Y24" s="32">
-        <v>-9.9920072216264089E-16</v>
+        <v>-7.2249835015802955E-4</v>
       </c>
       <c r="Z24" s="32">
-        <v>0.999999999999999</v>
+        <v>-7.0770723654216897E-3</v>
       </c>
       <c r="AA24" s="32">
-        <v>0.999999999999999</v>
+        <v>-4.2446078792102004E-3</v>
       </c>
       <c r="AB24" s="32">
-        <v>0.999999999999999</v>
+        <v>-3.6807242811744399E-3</v>
       </c>
       <c r="AC24" s="33">
-        <v>0.999999999999999</v>
+        <v>-4.2446078792102004E-3</v>
       </c>
       <c r="AD24" s="34">
         <f t="array" ref="AD24">MAX(ABS(Y24:AC24))</f>
-        <v>0.999999999999999</v>
+        <v>7.0770723654216897E-3</v>
       </c>
       <c r="AE24" s="34">
         <f t="array" ref="AE24">MAX(IF(Y$15:AC$15&lt;$AE$15,ABS($Y24:$AC24),0))</f>
-        <v>0.999999999999999</v>
+        <v>7.0770723654216897E-3</v>
       </c>
       <c r="AG24" s="5"/>
       <c r="AH24" s="5"/>
@@ -2459,19 +2459,19 @@
         <v>1600</v>
       </c>
       <c r="D25" s="14">
-        <v>0.999999999999999</v>
+        <v>1.00000000000002</v>
       </c>
       <c r="E25" s="14">
-        <v>1.1774031878387301E-12</v>
+        <v>1.5375591204778301E-13</v>
       </c>
       <c r="F25" s="14">
-        <v>1.1774031878387301E-12</v>
+        <v>1.5375591204778301E-13</v>
       </c>
       <c r="G25" s="14">
-        <v>1.1774031878387301E-12</v>
+        <v>1.5375591204778301E-13</v>
       </c>
       <c r="H25" s="15">
-        <v>1.1774031878387301E-12</v>
+        <v>1.5375591204778301E-13</v>
       </c>
       <c r="W25" s="9">
         <v>0</v>
@@ -2480,79 +2480,79 @@
         <v>1600</v>
       </c>
       <c r="Y25" s="14">
-        <v>-9.9920072216264089E-16</v>
+        <v>1.9984014443252818E-14</v>
       </c>
       <c r="Z25" s="14">
-        <v>1.1774031878387301E-12</v>
+        <v>1.5375591204778301E-13</v>
       </c>
       <c r="AA25" s="14">
-        <v>1.1774031878387301E-12</v>
+        <v>1.5375591204778301E-13</v>
       </c>
       <c r="AB25" s="14">
-        <v>1.1774031878387301E-12</v>
+        <v>1.5375591204778301E-13</v>
       </c>
       <c r="AC25" s="15">
-        <v>1.1774031878387301E-12</v>
+        <v>1.5375591204778301E-13</v>
       </c>
       <c r="AD25" s="19">
         <f t="array" ref="AD25">MAX(ABS(Y25:AC25))</f>
-        <v>1.1774031878387301E-12</v>
+        <v>1.5375591204778301E-13</v>
       </c>
       <c r="AE25" s="19">
         <f t="array" ref="AE25">MAX(IF(Y$15:AC$15&lt;$AE$15,ABS($Y25:$AC25),0))</f>
-        <v>1.1774031878387301E-12</v>
+        <v>1.5375591204778301E-13</v>
       </c>
     </row>
     <row r="26" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="11">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C26" s="13">
         <v>1600</v>
       </c>
       <c r="D26" s="16">
-        <v>0.999999999999999</v>
+        <v>0.99999782142620997</v>
       </c>
       <c r="E26" s="16">
-        <v>3.0926753863980298E-10</v>
+        <v>1.62896229848234E-7</v>
       </c>
       <c r="F26" s="16">
-        <v>3.0926753863980298E-10</v>
+        <v>8.2621054962256301E-8</v>
       </c>
       <c r="G26" s="16">
-        <v>3.0926753863980298E-10</v>
+        <v>-7.4923320636525193E-12</v>
       </c>
       <c r="H26" s="17">
-        <v>3.0926753863980298E-10</v>
+        <v>7.9022714416738302E-13</v>
       </c>
       <c r="W26" s="11">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X26" s="13">
         <v>1600</v>
       </c>
       <c r="Y26" s="16">
-        <v>-9.9920072216264089E-16</v>
+        <v>-2.1785737900348323E-6</v>
       </c>
       <c r="Z26" s="16">
-        <v>3.0926753863980298E-10</v>
+        <v>1.62896229848234E-7</v>
       </c>
       <c r="AA26" s="16">
-        <v>3.0926753863980298E-10</v>
+        <v>8.2621054962256301E-8</v>
       </c>
       <c r="AB26" s="16">
-        <v>3.0926753863980298E-10</v>
+        <v>-7.4923320636525193E-12</v>
       </c>
       <c r="AC26" s="17">
-        <v>3.0926753863980298E-10</v>
+        <v>7.9022714416738302E-13</v>
       </c>
       <c r="AD26" s="20">
         <f t="array" ref="AD26">MAX(ABS(Y26:AC26))</f>
-        <v>3.0926753863980298E-10</v>
+        <v>2.1785737900348323E-6</v>
       </c>
       <c r="AE26" s="20">
         <f t="array" ref="AE26">MAX(IF(Y$15:AC$15&lt;$AE$15,ABS($Y26:$AC26),0))</f>
-        <v>3.0926753863980298E-10</v>
+        <v>1.62896229848234E-7</v>
       </c>
     </row>
     <row r="28" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2663,16 +2663,16 @@
         <v>100</v>
       </c>
       <c r="D31" s="14">
-        <v>0.99999999971216402</v>
+        <v>0.99999999590218602</v>
       </c>
       <c r="E31" s="14">
-        <v>0.99999999987061605</v>
+        <v>0.99999999814210305</v>
       </c>
       <c r="F31" s="14">
-        <v>0.99999999997199496</v>
+        <v>0.999999999416603</v>
       </c>
       <c r="G31" s="14">
-        <v>1.0000000000003</v>
+        <v>0.99999999999918299</v>
       </c>
       <c r="H31" s="15">
         <v>1</v>
@@ -2700,47 +2700,47 @@
       </c>
       <c r="Y31" s="14">
         <f t="array" ref="Y31:AC40">D31:H40-Y29:AC29</f>
-        <v>-2.8783597727510823E-10</v>
+        <v>-4.0978139770331268E-9</v>
       </c>
       <c r="Z31" s="14">
-        <v>-1.2938394799988373E-10</v>
+        <v>-1.8578969473992402E-9</v>
       </c>
       <c r="AA31" s="14">
-        <v>-2.8005042729262186E-11</v>
+        <v>-5.8339699737786077E-10</v>
       </c>
       <c r="AB31" s="14">
-        <v>2.999822612537173E-13</v>
+        <v>-8.170131238216527E-13</v>
       </c>
       <c r="AC31" s="15">
         <v>0</v>
       </c>
       <c r="AD31" s="19">
         <f t="array" ref="AD31">MAX(ABS(Y31:AC31))</f>
-        <v>2.8783597727510823E-10</v>
+        <v>4.0978139770331268E-9</v>
       </c>
       <c r="AE31" s="19">
         <f t="array" ref="AE31">MAX(IF($Y$29:$AC$29&gt;1-$AE$29,ABS($Y31:$AC31),0))</f>
-        <v>2.8783597727510823E-10</v>
+        <v>4.0978139770331268E-9</v>
       </c>
     </row>
     <row r="32" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B32" s="9">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C32" s="10">
         <v>100</v>
       </c>
       <c r="D32" s="14">
-        <v>0.99997687938827495</v>
+        <v>0.99999342149529702</v>
       </c>
       <c r="E32" s="14">
-        <v>0.99999043752281502</v>
+        <v>0.99999926011152995</v>
       </c>
       <c r="F32" s="14">
-        <v>0.99999555451997402</v>
+        <v>0.99999993982163204</v>
       </c>
       <c r="G32" s="14">
-        <v>0.999999998568604</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="H32" s="15">
         <v>1</v>
@@ -2760,33 +2760,33 @@
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
       <c r="W32" s="9">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X32" s="10">
         <v>100</v>
       </c>
       <c r="Y32" s="14">
-        <v>-2.3120611725047091E-5</v>
+        <v>-6.5785047029809363E-6</v>
       </c>
       <c r="Z32" s="14">
-        <v>-9.5624771849767143E-6</v>
+        <v>-7.3988847004713421E-7</v>
       </c>
       <c r="AA32" s="14">
-        <v>-4.4454800259829952E-6</v>
+        <v>-6.0178367955465717E-8</v>
       </c>
       <c r="AB32" s="14">
-        <v>-1.4313960017275917E-9</v>
+        <v>-9.9920072216264089E-16</v>
       </c>
       <c r="AC32" s="15">
         <v>0</v>
       </c>
       <c r="AD32" s="19">
         <f t="array" ref="AD32">MAX(ABS(Y32:AC32))</f>
-        <v>2.3120611725047091E-5</v>
+        <v>6.5785047029809363E-6</v>
       </c>
       <c r="AE32" s="19">
         <f t="array" ref="AE32">MAX(IF($Y$29:$AC$29&gt;1-$AE$29,ABS($Y32:$AC32),0))</f>
-        <v>2.3120611725047091E-5</v>
+        <v>6.5785047029809363E-6</v>
       </c>
     </row>
     <row r="33" spans="2:31" x14ac:dyDescent="0.25">
@@ -2797,16 +2797,16 @@
         <v>200</v>
       </c>
       <c r="D33" s="14">
-        <v>0.99999999906264103</v>
+        <v>0.99999999949824203</v>
       </c>
       <c r="E33" s="14">
-        <v>0.99999999985573695</v>
+        <v>0.99999999957489205</v>
       </c>
       <c r="F33" s="14">
-        <v>0.99999999997549804</v>
+        <v>0.99999999996511102</v>
       </c>
       <c r="G33" s="14">
-        <v>0.99999999999995504</v>
+        <v>0.99999999999969602</v>
       </c>
       <c r="H33" s="15">
         <v>1</v>
@@ -2832,47 +2832,47 @@
         <v>200</v>
       </c>
       <c r="Y33" s="14">
-        <v>-9.3735896822266795E-10</v>
+        <v>-5.0175796850737697E-10</v>
       </c>
       <c r="Z33" s="14">
-        <v>-1.4426304595360762E-10</v>
+        <v>-4.2510794884265124E-10</v>
       </c>
       <c r="AA33" s="14">
-        <v>-2.450195601966243E-11</v>
+        <v>-3.4888980593450469E-11</v>
       </c>
       <c r="AB33" s="14">
-        <v>-4.496403249731884E-14</v>
+        <v>-3.0397906414236786E-13</v>
       </c>
       <c r="AC33" s="15">
         <v>0</v>
       </c>
       <c r="AD33" s="19">
         <f t="array" ref="AD33">MAX(ABS(Y33:AC33))</f>
-        <v>9.3735896822266795E-10</v>
+        <v>5.0175796850737697E-10</v>
       </c>
       <c r="AE33" s="19">
         <f t="array" ref="AE33">MAX(IF($Y$29:$AC$29&gt;1-$AE$29,ABS($Y33:$AC33),0))</f>
-        <v>9.3735896822266795E-10</v>
+        <v>5.0175796850737697E-10</v>
       </c>
     </row>
     <row r="34" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B34" s="9">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C34" s="10">
         <v>200</v>
       </c>
       <c r="D34" s="14">
-        <v>0.99999999976360898</v>
+        <v>0.99999999930139805</v>
       </c>
       <c r="E34" s="14">
-        <v>0.99999999976360898</v>
+        <v>0.999999999613846</v>
       </c>
       <c r="F34" s="14">
-        <v>0.99999999971601905</v>
+        <v>1</v>
       </c>
       <c r="G34" s="14">
-        <v>0.99999999971601905</v>
+        <v>1</v>
       </c>
       <c r="H34" s="15">
         <v>1</v>
@@ -2892,33 +2892,33 @@
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
       <c r="W34" s="9">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X34" s="10">
         <v>200</v>
       </c>
       <c r="Y34" s="14">
-        <v>-2.3639101787154004E-10</v>
+        <v>-6.9860195406334924E-10</v>
       </c>
       <c r="Z34" s="14">
-        <v>-2.3639101787154004E-10</v>
+        <v>-3.8615399766683822E-10</v>
       </c>
       <c r="AA34" s="14">
-        <v>-2.839809498667023E-10</v>
+        <v>0</v>
       </c>
       <c r="AB34" s="14">
-        <v>-2.839809498667023E-10</v>
+        <v>0</v>
       </c>
       <c r="AC34" s="15">
         <v>0</v>
       </c>
       <c r="AD34" s="19">
         <f t="array" ref="AD34">MAX(ABS(Y34:AC34))</f>
-        <v>2.839809498667023E-10</v>
+        <v>6.9860195406334924E-10</v>
       </c>
       <c r="AE34" s="19">
         <f t="array" ref="AE34">MAX(IF($Y$29:$AC$29&gt;1-$AE$29,ABS($Y34:$AC34),0))</f>
-        <v>2.839809498667023E-10</v>
+        <v>6.9860195406334924E-10</v>
       </c>
     </row>
     <row r="35" spans="2:31" x14ac:dyDescent="0.25">
@@ -2929,16 +2929,16 @@
         <v>400</v>
       </c>
       <c r="D35" s="14">
-        <v>0.99999999999857403</v>
+        <v>0.99999999987412802</v>
       </c>
       <c r="E35" s="14">
-        <v>0.99999999999857503</v>
+        <v>0.99999999999961497</v>
       </c>
       <c r="F35" s="14">
-        <v>0.99999999999857503</v>
+        <v>1</v>
       </c>
       <c r="G35" s="14">
-        <v>0.99999999999948197</v>
+        <v>1</v>
       </c>
       <c r="H35" s="15">
         <v>1</v>
@@ -2964,47 +2964,47 @@
         <v>400</v>
       </c>
       <c r="Y35" s="14">
-        <v>-1.4259704528285511E-12</v>
+        <v>-1.2587197950608697E-10</v>
       </c>
       <c r="Z35" s="14">
-        <v>-1.4249712521063884E-12</v>
+        <v>-3.8502534494000429E-13</v>
       </c>
       <c r="AA35" s="14">
-        <v>-1.4249712521063884E-12</v>
+        <v>0</v>
       </c>
       <c r="AB35" s="14">
-        <v>-5.1803006329009804E-13</v>
+        <v>0</v>
       </c>
       <c r="AC35" s="15">
         <v>0</v>
       </c>
       <c r="AD35" s="19">
         <f t="array" ref="AD35">MAX(ABS(Y35:AC35))</f>
-        <v>1.4259704528285511E-12</v>
+        <v>1.2587197950608697E-10</v>
       </c>
       <c r="AE35" s="19">
         <f t="array" ref="AE35">MAX(IF($Y$29:$AC$29&gt;1-$AE$29,ABS($Y35:$AC35),0))</f>
-        <v>1.4259704528285511E-12</v>
+        <v>1.2587197950608697E-10</v>
       </c>
     </row>
     <row r="36" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B36" s="9">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C36" s="10">
         <v>400</v>
       </c>
       <c r="D36" s="14">
-        <v>0.99999999958892205</v>
+        <v>0.99999999994251898</v>
       </c>
       <c r="E36" s="14">
         <v>0.999999999999999</v>
       </c>
       <c r="F36" s="14">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="G36" s="14">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="H36" s="15">
         <v>1</v>
@@ -3024,33 +3024,33 @@
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
       <c r="W36" s="9">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X36" s="10">
         <v>400</v>
       </c>
       <c r="Y36" s="14">
-        <v>-4.1107794945816067E-10</v>
+        <v>-5.7481019943850242E-11</v>
       </c>
       <c r="Z36" s="14">
         <v>-9.9920072216264089E-16</v>
       </c>
       <c r="AA36" s="14">
-        <v>0</v>
+        <v>-9.9920072216264089E-16</v>
       </c>
       <c r="AB36" s="14">
-        <v>0</v>
+        <v>-9.9920072216264089E-16</v>
       </c>
       <c r="AC36" s="15">
         <v>0</v>
       </c>
       <c r="AD36" s="19">
         <f t="array" ref="AD36">MAX(ABS(Y36:AC36))</f>
-        <v>4.1107794945816067E-10</v>
+        <v>5.7481019943850242E-11</v>
       </c>
       <c r="AE36" s="19">
         <f t="array" ref="AE36">MAX(IF($Y$29:$AC$29&gt;1-$AE$29,ABS($Y36:$AC36),0))</f>
-        <v>4.1107794945816067E-10</v>
+        <v>5.7481019943850242E-11</v>
       </c>
     </row>
     <row r="37" spans="2:31" x14ac:dyDescent="0.25">
@@ -3061,16 +3061,16 @@
         <v>800</v>
       </c>
       <c r="D37" s="14">
-        <v>0.999999999999999</v>
+        <v>0.99999999980191301</v>
       </c>
       <c r="E37" s="14">
-        <v>0.999999999999999</v>
+        <v>0.99999999999994205</v>
       </c>
       <c r="F37" s="14">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G37" s="14">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="H37" s="15">
         <v>1</v>
@@ -3096,41 +3096,41 @@
         <v>800</v>
       </c>
       <c r="Y37" s="14">
-        <v>-9.9920072216264089E-16</v>
+        <v>-1.9808699125434259E-10</v>
       </c>
       <c r="Z37" s="14">
-        <v>-9.9920072216264089E-16</v>
+        <v>-5.7953641885433171E-14</v>
       </c>
       <c r="AA37" s="14">
-        <v>-9.9920072216264089E-16</v>
+        <v>0</v>
       </c>
       <c r="AB37" s="14">
-        <v>-9.9920072216264089E-16</v>
+        <v>0</v>
       </c>
       <c r="AC37" s="15">
         <v>0</v>
       </c>
       <c r="AD37" s="19">
         <f t="array" ref="AD37">MAX(ABS(Y37:AC37))</f>
-        <v>9.9920072216264089E-16</v>
+        <v>1.9808699125434259E-10</v>
       </c>
       <c r="AE37" s="19">
         <f t="array" ref="AE37">MAX(IF($Y$29:$AC$29&gt;1-$AE$29,ABS($Y37:$AC37),0))</f>
-        <v>9.9920072216264089E-16</v>
+        <v>1.9808699125434259E-10</v>
       </c>
     </row>
     <row r="38" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B38" s="9">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C38" s="10">
         <v>800</v>
       </c>
       <c r="D38" s="14">
-        <v>0.999999999999999</v>
+        <v>0.99999835636950196</v>
       </c>
       <c r="E38" s="14">
-        <v>0.999999999999999</v>
+        <v>0.99999999838505804</v>
       </c>
       <c r="F38" s="14">
         <v>1</v>
@@ -3156,16 +3156,16 @@
       <c r="U38" s="1"/>
       <c r="V38" s="1"/>
       <c r="W38" s="9">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X38" s="10">
         <v>800</v>
       </c>
       <c r="Y38" s="14">
-        <v>-9.9920072216264089E-16</v>
+        <v>-1.6436304980382843E-6</v>
       </c>
       <c r="Z38" s="14">
-        <v>-9.9920072216264089E-16</v>
+        <v>-1.6149419579392088E-9</v>
       </c>
       <c r="AA38" s="14">
         <v>0</v>
@@ -3178,11 +3178,11 @@
       </c>
       <c r="AD38" s="19">
         <f t="array" ref="AD38">MAX(ABS(Y38:AC38))</f>
-        <v>9.9920072216264089E-16</v>
+        <v>1.6436304980382843E-6</v>
       </c>
       <c r="AE38" s="19">
         <f t="array" ref="AE38">MAX(IF($Y$29:$AC$29&gt;1-$AE$29,ABS($Y38:$AC38),0))</f>
-        <v>9.9920072216264089E-16</v>
+        <v>1.6436304980382843E-6</v>
       </c>
     </row>
     <row r="39" spans="2:31" x14ac:dyDescent="0.25">
@@ -3193,16 +3193,16 @@
         <v>1600</v>
       </c>
       <c r="D39" s="14">
-        <v>0.99999999997059796</v>
+        <v>0.99999999983400001</v>
       </c>
       <c r="E39" s="14">
-        <v>0.99999999999130995</v>
+        <v>0.99999999998818101</v>
       </c>
       <c r="F39" s="14">
-        <v>1.0000000000026099</v>
+        <v>1</v>
       </c>
       <c r="G39" s="14">
-        <v>1.0000000000003499</v>
+        <v>1</v>
       </c>
       <c r="H39" s="15">
         <v>1</v>
@@ -3228,47 +3228,47 @@
         <v>1600</v>
       </c>
       <c r="Y39" s="14">
-        <v>-2.9402036361148021E-11</v>
+        <v>-1.6599999153044109E-10</v>
       </c>
       <c r="Z39" s="14">
-        <v>-8.6900486806484878E-12</v>
+        <v>-1.1818990230949566E-11</v>
       </c>
       <c r="AA39" s="14">
-        <v>2.609912286288818E-12</v>
+        <v>0</v>
       </c>
       <c r="AB39" s="14">
-        <v>3.4994229736184934E-13</v>
+        <v>0</v>
       </c>
       <c r="AC39" s="15">
         <v>0</v>
       </c>
       <c r="AD39" s="19">
         <f t="array" ref="AD39">MAX(ABS(Y39:AC39))</f>
-        <v>2.9402036361148021E-11</v>
+        <v>1.6599999153044109E-10</v>
       </c>
       <c r="AE39" s="19">
         <f t="array" ref="AE39">MAX(IF($Y$29:$AC$29&gt;1-$AE$29,ABS($Y39:$AC39),0))</f>
-        <v>2.9402036361148021E-11</v>
+        <v>1.6599999153044109E-10</v>
       </c>
     </row>
     <row r="40" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="11">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C40" s="13">
         <v>1600</v>
       </c>
       <c r="D40" s="16">
-        <v>0.99999999621040503</v>
+        <v>0.99999999993734201</v>
       </c>
       <c r="E40" s="16">
-        <v>0.99999999683364205</v>
+        <v>0.99999999999973999</v>
       </c>
       <c r="F40" s="16">
-        <v>0.99999999680699403</v>
+        <v>1.0000000000000699</v>
       </c>
       <c r="G40" s="16">
-        <v>1.0000000000596001</v>
+        <v>1</v>
       </c>
       <c r="H40" s="17">
         <v>1</v>
@@ -3288,33 +3288,33 @@
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
       <c r="W40" s="11">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X40" s="13">
         <v>1600</v>
       </c>
       <c r="Y40" s="16">
-        <v>-3.7895949711597154E-9</v>
+        <v>-6.2657989907677347E-11</v>
       </c>
       <c r="Z40" s="16">
-        <v>-3.1663579536100883E-9</v>
+        <v>-2.6001423236721166E-13</v>
       </c>
       <c r="AA40" s="16">
-        <v>-3.1930059707363512E-9</v>
+        <v>6.9944050551384862E-14</v>
       </c>
       <c r="AB40" s="16">
-        <v>5.9600102630952279E-11</v>
+        <v>0</v>
       </c>
       <c r="AC40" s="17">
         <v>0</v>
       </c>
       <c r="AD40" s="20">
         <f t="array" ref="AD40">MAX(ABS(Y40:AC40))</f>
-        <v>3.7895949711597154E-9</v>
+        <v>6.2657989907677347E-11</v>
       </c>
       <c r="AE40" s="20">
         <f t="array" ref="AE40">MAX(IF($Y$29:$AC$29&gt;1-$AE$29,ABS($Y40:$AC40),0))</f>
-        <v>3.7895949711597154E-9</v>
+        <v>6.2657989907677347E-11</v>
       </c>
     </row>
     <row r="41" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3366,19 +3366,19 @@
       <c r="X42" s="22"/>
       <c r="Y42" s="53">
         <f t="array" ref="Y42">MAX(ABS(Y44:Y53))</f>
-        <v>2.3086337380018307E-5</v>
+        <v>7.2085471965999126E-4</v>
       </c>
       <c r="Z42" s="53">
         <f t="array" ref="Z42">MAX(ABS(Z44:Z53))</f>
-        <v>9.5521010889942914E-6</v>
+        <v>5.3014193331191173E-4</v>
       </c>
       <c r="AA42" s="53">
         <f t="array" ref="AA42">MAX(ABS(AA44:AA53))</f>
-        <v>4.4454800249837945E-6</v>
+        <v>3.3374761724600521E-3</v>
       </c>
       <c r="AB42" s="53">
         <f t="array" ref="AB42">MAX(ABS(AB44:AB53))</f>
-        <v>1.4313960017275917E-9</v>
+        <v>1.0410993606990715E-4</v>
       </c>
       <c r="AC42" s="54">
         <f t="array" ref="AC42">MAX(ABS(AC44:AC53))</f>
@@ -3462,13 +3462,13 @@
         <v>100</v>
       </c>
       <c r="D44" s="14">
-        <v>0.999999999999999</v>
+        <v>0.99999999999971001</v>
       </c>
       <c r="E44" s="14">
-        <v>0.999999999999999</v>
+        <v>0.99999999999998002</v>
       </c>
       <c r="F44" s="14">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G44" s="14">
         <v>1</v>
@@ -3485,23 +3485,23 @@
       </c>
       <c r="Y44" s="14">
         <f t="array" ref="Y44:AC53">D44:H53-D31:H40</f>
-        <v>2.8783497807438607E-10</v>
+        <v>4.0975239867790947E-9</v>
       </c>
       <c r="Z44" s="14">
-        <v>1.2938294879916157E-10</v>
+        <v>1.8578769633847969E-9</v>
       </c>
       <c r="AA44" s="14">
-        <v>2.8004043528540024E-11</v>
+        <v>5.8339699737786077E-10</v>
       </c>
       <c r="AB44" s="14">
-        <v>-2.999822612537173E-13</v>
+        <v>8.170131238216527E-13</v>
       </c>
       <c r="AC44" s="15">
         <v>0</v>
       </c>
       <c r="AD44" s="19">
         <f t="array" ref="AD44">MAX(ABS(Y44:AC44))</f>
-        <v>2.8783497807438607E-10</v>
+        <v>4.0975239867790947E-9</v>
       </c>
       <c r="AE44" s="19">
         <f t="array" ref="AE44">MAX(IF($Y$42:$AC$42&gt;1-$AE$42,ABS($Y44:$AC44),0))</f>
@@ -3510,19 +3510,19 @@
     </row>
     <row r="45" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B45" s="9">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C45" s="10">
         <v>100</v>
       </c>
       <c r="D45" s="14">
-        <v>0.99999996572565497</v>
+        <v>0.99999983201712594</v>
       </c>
       <c r="E45" s="14">
-        <v>0.99999998962390402</v>
+        <v>0.99999999996377498</v>
       </c>
       <c r="F45" s="14">
-        <v>0.999999999999999</v>
+        <v>0.99999999999998102</v>
       </c>
       <c r="G45" s="14">
         <v>1</v>
@@ -3531,29 +3531,29 @@
         <v>1</v>
       </c>
       <c r="W45" s="9">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X45" s="10">
         <v>100</v>
       </c>
       <c r="Y45" s="14">
-        <v>2.3086337380018307E-5</v>
+        <v>6.4105218289256527E-6</v>
       </c>
       <c r="Z45" s="14">
-        <v>9.5521010889942914E-6</v>
+        <v>7.3985224502415292E-7</v>
       </c>
       <c r="AA45" s="14">
-        <v>4.4454800249837945E-6</v>
+        <v>6.0178348970651996E-8</v>
       </c>
       <c r="AB45" s="14">
-        <v>1.4313960017275917E-9</v>
+        <v>0</v>
       </c>
       <c r="AC45" s="15">
         <v>0</v>
       </c>
       <c r="AD45" s="19">
         <f t="array" ref="AD45">MAX(ABS(Y45:AC45))</f>
-        <v>2.3086337380018307E-5</v>
+        <v>6.4105218289256527E-6</v>
       </c>
       <c r="AE45" s="19">
         <f t="array" ref="AE45">MAX(IF($Y$42:$AC$42&gt;1-$AE$42,ABS($Y45:$AC45),0))</f>
@@ -3568,16 +3568,16 @@
         <v>200</v>
       </c>
       <c r="D46" s="14">
-        <v>1.0000000000011999</v>
+        <v>0.99999999999982603</v>
       </c>
       <c r="E46" s="14">
-        <v>1.0000000000007601</v>
+        <v>0.99999999999998901</v>
       </c>
       <c r="F46" s="14">
-        <v>1.0000000000007601</v>
+        <v>0.99999999999999001</v>
       </c>
       <c r="G46" s="14">
-        <v>1.0000000000007601</v>
+        <v>0.99999999999999001</v>
       </c>
       <c r="H46" s="15">
         <v>1</v>
@@ -3589,23 +3589,23 @@
         <v>200</v>
       </c>
       <c r="Y46" s="14">
-        <v>9.3855889726768282E-10</v>
+        <v>5.0158399655941821E-10</v>
       </c>
       <c r="Z46" s="14">
-        <v>1.45023104636266E-10</v>
+        <v>4.2509695763470745E-10</v>
       </c>
       <c r="AA46" s="14">
-        <v>2.5262014702320812E-11</v>
+        <v>3.4878988586228843E-11</v>
       </c>
       <c r="AB46" s="14">
-        <v>8.0502271515570101E-13</v>
+        <v>2.9398705692074145E-13</v>
       </c>
       <c r="AC46" s="15">
         <v>0</v>
       </c>
       <c r="AD46" s="19">
         <f t="array" ref="AD46">MAX(ABS(Y46:AC46))</f>
-        <v>9.3855889726768282E-10</v>
+        <v>5.0158399655941821E-10</v>
       </c>
       <c r="AE46" s="19">
         <f t="array" ref="AE46">MAX(IF($Y$42:$AC$42&gt;1-$AE$42,ABS($Y46:$AC46),0))</f>
@@ -3614,19 +3614,19 @@
     </row>
     <row r="47" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B47" s="9">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C47" s="10">
         <v>200</v>
       </c>
       <c r="D47" s="14">
-        <v>0.99999999110760796</v>
+        <v>0.99999953248273699</v>
       </c>
       <c r="E47" s="14">
-        <v>0.99999999929795902</v>
+        <v>0.99999999807282403</v>
       </c>
       <c r="F47" s="14">
-        <v>0.999999999999999</v>
+        <v>1.0000000000017399</v>
       </c>
       <c r="G47" s="14">
         <v>1</v>
@@ -3635,29 +3635,29 @@
         <v>1</v>
       </c>
       <c r="W47" s="9">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X47" s="10">
         <v>200</v>
       </c>
       <c r="Y47" s="14">
-        <v>-8.6560010270630983E-9</v>
+        <v>-4.6681866106013103E-7</v>
       </c>
       <c r="Z47" s="14">
-        <v>-4.6564996303288808E-10</v>
+        <v>-1.5410219766920363E-9</v>
       </c>
       <c r="AA47" s="14">
-        <v>2.8397995066598014E-10</v>
+        <v>1.7399415241925453E-12</v>
       </c>
       <c r="AB47" s="14">
-        <v>2.839809498667023E-10</v>
+        <v>0</v>
       </c>
       <c r="AC47" s="15">
         <v>0</v>
       </c>
       <c r="AD47" s="19">
         <f t="array" ref="AD47">MAX(ABS(Y47:AC47))</f>
-        <v>8.6560010270630983E-9</v>
+        <v>4.6681866106013103E-7</v>
       </c>
       <c r="AE47" s="19">
         <f t="array" ref="AE47">MAX(IF($Y$42:$AC$42&gt;1-$AE$42,ABS($Y47:$AC47),0))</f>
@@ -3672,16 +3672,16 @@
         <v>400</v>
       </c>
       <c r="D48" s="14">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E48" s="14">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="F48" s="14">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G48" s="14">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="H48" s="15">
         <v>1</v>
@@ -3693,23 +3693,23 @@
         <v>400</v>
       </c>
       <c r="Y48" s="14">
-        <v>1.4249712521063884E-12</v>
+        <v>1.2587197950608697E-10</v>
       </c>
       <c r="Z48" s="14">
-        <v>1.4239720513842258E-12</v>
+        <v>3.8502534494000429E-13</v>
       </c>
       <c r="AA48" s="14">
-        <v>1.4239720513842258E-12</v>
+        <v>0</v>
       </c>
       <c r="AB48" s="14">
-        <v>5.170308625679354E-13</v>
+        <v>0</v>
       </c>
       <c r="AC48" s="15">
         <v>0</v>
       </c>
       <c r="AD48" s="19">
         <f t="array" ref="AD48">MAX(ABS(Y48:AC48))</f>
-        <v>1.4249712521063884E-12</v>
+        <v>1.2587197950608697E-10</v>
       </c>
       <c r="AE48" s="19">
         <f t="array" ref="AE48">MAX(IF($Y$42:$AC$42&gt;1-$AE$42,ABS($Y48:$AC48),0))</f>
@@ -3718,19 +3718,19 @@
     </row>
     <row r="49" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B49" s="9">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C49" s="10">
         <v>400</v>
       </c>
       <c r="D49" s="14">
-        <v>0.99999998995547301</v>
+        <v>0.99999999999928602</v>
       </c>
       <c r="E49" s="14">
-        <v>0.99999999988073396</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="F49" s="14">
-        <v>0.99999999983476495</v>
+        <v>1</v>
       </c>
       <c r="G49" s="14">
         <v>1</v>
@@ -3739,19 +3739,19 @@
         <v>1</v>
       </c>
       <c r="W49" s="9">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X49" s="10">
         <v>400</v>
       </c>
       <c r="Y49" s="14">
-        <v>-9.633449038481956E-9</v>
+        <v>5.6767035516713804E-11</v>
       </c>
       <c r="Z49" s="14">
-        <v>-1.1926504228654267E-10</v>
+        <v>0</v>
       </c>
       <c r="AA49" s="14">
-        <v>-1.6523504786647436E-10</v>
+        <v>0</v>
       </c>
       <c r="AB49" s="14">
         <v>0</v>
@@ -3761,7 +3761,7 @@
       </c>
       <c r="AD49" s="19">
         <f t="array" ref="AD49">MAX(ABS(Y49:AC49))</f>
-        <v>9.633449038481956E-9</v>
+        <v>5.6767035516713804E-11</v>
       </c>
       <c r="AE49" s="19">
         <f t="array" ref="AE49">MAX(IF($Y$42:$AC$42&gt;1-$AE$42,ABS($Y49:$AC49),0))</f>
@@ -3782,7 +3782,7 @@
         <v>0.999999999999999</v>
       </c>
       <c r="F50" s="14">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="G50" s="14">
         <v>1</v>
@@ -3797,13 +3797,13 @@
         <v>800</v>
       </c>
       <c r="Y50" s="14">
-        <v>0</v>
+        <v>1.9808599205362043E-10</v>
       </c>
       <c r="Z50" s="14">
-        <v>0</v>
+        <v>5.6954441163270531E-14</v>
       </c>
       <c r="AA50" s="14">
-        <v>0</v>
+        <v>-9.9920072216264089E-16</v>
       </c>
       <c r="AB50" s="14">
         <v>0</v>
@@ -3813,7 +3813,7 @@
       </c>
       <c r="AD50" s="19">
         <f t="array" ref="AD50">MAX(ABS(Y50:AC50))</f>
-        <v>0</v>
+        <v>1.9808599205362043E-10</v>
       </c>
       <c r="AE50" s="19">
         <f t="array" ref="AE50">MAX(IF($Y$42:$AC$42&gt;1-$AE$42,ABS($Y50:$AC50),0))</f>
@@ -3822,50 +3822,50 @@
     </row>
     <row r="51" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B51" s="9">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C51" s="10">
         <v>800</v>
       </c>
       <c r="D51" s="14">
-        <v>0.999999999999999</v>
+        <v>0.99927750164984197</v>
       </c>
       <c r="E51" s="14">
-        <v>1</v>
+        <v>1.00053014031837</v>
       </c>
       <c r="F51" s="14">
-        <v>1</v>
+        <v>1.0033374761724601</v>
       </c>
       <c r="G51" s="14">
-        <v>1</v>
+        <v>1.0001041099360699</v>
       </c>
       <c r="H51" s="15">
         <v>1</v>
       </c>
       <c r="W51" s="9">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X51" s="10">
         <v>800</v>
       </c>
       <c r="Y51" s="14">
-        <v>0</v>
+        <v>-7.2085471965999126E-4</v>
       </c>
       <c r="Z51" s="14">
-        <v>0</v>
+        <v>5.3014193331191173E-4</v>
       </c>
       <c r="AA51" s="14">
-        <v>0</v>
+        <v>3.3374761724600521E-3</v>
       </c>
       <c r="AB51" s="14">
-        <v>0</v>
+        <v>1.0410993606990715E-4</v>
       </c>
       <c r="AC51" s="15">
         <v>0</v>
       </c>
       <c r="AD51" s="19">
         <f t="array" ref="AD51">MAX(ABS(Y51:AC51))</f>
-        <v>0</v>
+        <v>3.3374761724600521E-3</v>
       </c>
       <c r="AE51" s="19">
         <f t="array" ref="AE51">MAX(IF($Y$42:$AC$42&gt;1-$AE$42,ABS($Y51:$AC51),0))</f>
@@ -3880,16 +3880,16 @@
         <v>1600</v>
       </c>
       <c r="D52" s="14">
-        <v>0.999999999999999</v>
+        <v>1.00000000000002</v>
       </c>
       <c r="E52" s="14">
-        <v>0.999999999999999</v>
+        <v>1.00000000000002</v>
       </c>
       <c r="F52" s="14">
-        <v>0.999999999999999</v>
+        <v>1.00000000000002</v>
       </c>
       <c r="G52" s="14">
-        <v>1</v>
+        <v>1.00000000000002</v>
       </c>
       <c r="H52" s="15">
         <v>1</v>
@@ -3901,23 +3901,23 @@
         <v>1600</v>
       </c>
       <c r="Y52" s="14">
-        <v>2.9401037160425858E-11</v>
+        <v>1.6601997554488435E-10</v>
       </c>
       <c r="Z52" s="14">
-        <v>8.6890494799263251E-12</v>
+        <v>1.1838974245392819E-11</v>
       </c>
       <c r="AA52" s="14">
-        <v>-2.6109114870109806E-12</v>
+        <v>1.9984014443252818E-14</v>
       </c>
       <c r="AB52" s="14">
-        <v>-3.4994229736184934E-13</v>
+        <v>1.9984014443252818E-14</v>
       </c>
       <c r="AC52" s="15">
         <v>0</v>
       </c>
       <c r="AD52" s="19">
         <f t="array" ref="AD52">MAX(ABS(Y52:AC52))</f>
-        <v>2.9401037160425858E-11</v>
+        <v>1.6601997554488435E-10</v>
       </c>
       <c r="AE52" s="19">
         <f t="array" ref="AE52">MAX(IF($Y$42:$AC$42&gt;1-$AE$42,ABS($Y52:$AC52),0))</f>
@@ -3926,50 +3926,50 @@
     </row>
     <row r="53" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="11">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C53" s="13">
         <v>1600</v>
       </c>
       <c r="D53" s="16">
-        <v>0.999999999999999</v>
+        <v>0.99999782142620997</v>
       </c>
       <c r="E53" s="16">
-        <v>0.999999999999999</v>
+        <v>0.99999979071770495</v>
       </c>
       <c r="F53" s="16">
-        <v>0.999999999999999</v>
+        <v>0.99999999943488405</v>
       </c>
       <c r="G53" s="16">
-        <v>1</v>
+        <v>1.00000000000117</v>
       </c>
       <c r="H53" s="17">
         <v>1</v>
       </c>
       <c r="W53" s="11">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X53" s="13">
         <v>1600</v>
       </c>
       <c r="Y53" s="16">
-        <v>3.7895939719589933E-9</v>
+        <v>-2.1785111320449246E-6</v>
       </c>
       <c r="Z53" s="16">
-        <v>3.1663569544093662E-9</v>
+        <v>-2.092820350352298E-7</v>
       </c>
       <c r="AA53" s="16">
-        <v>3.193004971535629E-9</v>
+        <v>-5.6518589808263187E-10</v>
       </c>
       <c r="AB53" s="16">
-        <v>-5.9600102630952279E-11</v>
+        <v>1.16995302334999E-12</v>
       </c>
       <c r="AC53" s="17">
         <v>0</v>
       </c>
       <c r="AD53" s="20">
         <f t="array" ref="AD53">MAX(ABS(Y53:AC53))</f>
-        <v>3.7895939719589933E-9</v>
+        <v>2.1785111320449246E-6</v>
       </c>
       <c r="AE53" s="20">
         <f t="array" ref="AE53">MAX(IF($Y$42:$AC$42&gt;1-$AE$42,ABS($Y53:$AC53),0))</f>
@@ -3987,7 +3987,7 @@
   <dimension ref="A1:AN53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4133,19 +4133,19 @@
         <v>100</v>
       </c>
       <c r="D4" s="32">
-        <v>0.38334043264522</v>
+        <v>0.48743061767858398</v>
       </c>
       <c r="E4" s="32">
-        <v>8.5522325617153505E-2</v>
+        <v>3.3313843970959899E-2</v>
       </c>
       <c r="F4" s="32">
-        <v>4.2553603148030097E-3</v>
+        <v>1.3501477295657699E-2</v>
       </c>
       <c r="G4" s="32">
-        <v>1.7420294267505101E-2</v>
+        <v>4.3268501515367799E-4</v>
       </c>
       <c r="H4" s="33">
-        <v>-5.9150269514365799E-18</v>
+        <v>9.9607453452568893E-5</v>
       </c>
       <c r="I4" s="39"/>
       <c r="J4" s="39"/>
@@ -4170,27 +4170,27 @@
       </c>
       <c r="Y4" s="32">
         <f t="array" ref="Y4:AC13">D4:H13-Y2:AC2</f>
-        <v>0.30786873264521997</v>
+        <v>0.41195891767858395</v>
       </c>
       <c r="Z4" s="32">
-        <v>-0.83900567438284646</v>
+        <v>-0.89121415602904008</v>
       </c>
       <c r="AA4" s="32">
-        <v>4.2553603148030097E-3</v>
+        <v>1.3501477295657699E-2</v>
       </c>
       <c r="AB4" s="32">
-        <v>1.7420294267505101E-2</v>
+        <v>4.3268501515367799E-4</v>
       </c>
       <c r="AC4" s="33">
-        <v>-5.9150269514365799E-18</v>
+        <v>9.9607453452568893E-5</v>
       </c>
       <c r="AD4" s="34">
         <f t="array" ref="AD4">MAX(ABS(Y4:AC4))</f>
-        <v>0.83900567438284646</v>
+        <v>0.89121415602904008</v>
       </c>
       <c r="AE4" s="34">
         <f t="array" ref="AE4">MAX(IF($Y$2:$AC$2&lt;$AE$2,ABS($Y4:$AC4),0))</f>
-        <v>1.7420294267505101E-2</v>
+        <v>1.3501477295657699E-2</v>
       </c>
       <c r="AF4" s="4"/>
       <c r="AM4" s="4"/>
@@ -4198,25 +4198,25 @@
     </row>
     <row r="5" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="30">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C5" s="31">
         <v>100</v>
       </c>
       <c r="D5" s="32">
-        <v>0.94892466248200902</v>
+        <v>0.98126518429355802</v>
       </c>
       <c r="E5" s="32">
-        <v>2.1574962351245602E-2</v>
+        <v>2.3404088200073602E-3</v>
       </c>
       <c r="F5" s="32">
-        <v>1.0361908552405701E-4</v>
+        <v>1.45778516195381E-3</v>
       </c>
       <c r="G5" s="32">
-        <v>6.0443929887067199E-6</v>
+        <v>-9.9737162970292102E-12</v>
       </c>
       <c r="H5" s="33">
-        <v>9.5290307283835996E-14</v>
+        <v>-9.9370858157888104E-13</v>
       </c>
       <c r="I5" s="39"/>
       <c r="J5" s="39"/>
@@ -4233,33 +4233,33 @@
       <c r="U5" s="39"/>
       <c r="V5" s="39"/>
       <c r="W5" s="30">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X5" s="31">
         <v>100</v>
       </c>
       <c r="Y5" s="32">
-        <v>0.87345296248200899</v>
+        <v>0.90579348429355799</v>
       </c>
       <c r="Z5" s="32">
-        <v>-0.90295303764875445</v>
+        <v>-0.92218759117999261</v>
       </c>
       <c r="AA5" s="32">
-        <v>1.0361908552405701E-4</v>
+        <v>1.45778516195381E-3</v>
       </c>
       <c r="AB5" s="32">
-        <v>6.0443929887067199E-6</v>
+        <v>-9.9737162970292102E-12</v>
       </c>
       <c r="AC5" s="33">
-        <v>9.5290307283835996E-14</v>
+        <v>-9.9370858157888104E-13</v>
       </c>
       <c r="AD5" s="34">
         <f t="array" ref="AD5">MAX(ABS(Y5:AC5))</f>
-        <v>0.90295303764875445</v>
+        <v>0.92218759117999261</v>
       </c>
       <c r="AE5" s="34">
         <f t="array" ref="AE5">MAX(IF($Y$2:$AC$2&lt;$AE$2,ABS($Y5:$AC5),0))</f>
-        <v>1.0361908552405701E-4</v>
+        <v>1.45778516195381E-3</v>
       </c>
       <c r="AF5" s="4"/>
       <c r="AM5" s="4"/>
@@ -4273,19 +4273,19 @@
         <v>200</v>
       </c>
       <c r="D6" s="32">
-        <v>0.71860754480288702</v>
+        <v>0.71338240579383405</v>
       </c>
       <c r="E6" s="32">
-        <v>1.5223286318479501E-2</v>
+        <v>1.4385832424620401E-2</v>
       </c>
       <c r="F6" s="32">
-        <v>6.4561946511439202E-3</v>
+        <v>3.6832356369863998E-3</v>
       </c>
       <c r="G6" s="32">
-        <v>6.34525865714763E-3</v>
+        <v>3.0660216669142499E-3</v>
       </c>
       <c r="H6" s="33">
-        <v>1.4260682790889301E-3</v>
+        <v>5.1029561229742003E-4</v>
       </c>
       <c r="I6" s="39"/>
       <c r="J6" s="39"/>
@@ -4308,27 +4308,27 @@
         <v>200</v>
       </c>
       <c r="Y6" s="32">
-        <v>0.64313584480288699</v>
+        <v>0.63791070579383402</v>
       </c>
       <c r="Z6" s="32">
-        <v>-0.90930471368152055</v>
+        <v>-0.91014216757537958</v>
       </c>
       <c r="AA6" s="32">
-        <v>6.4561946511439202E-3</v>
+        <v>3.6832356369863998E-3</v>
       </c>
       <c r="AB6" s="32">
-        <v>6.34525865714763E-3</v>
+        <v>3.0660216669142499E-3</v>
       </c>
       <c r="AC6" s="33">
-        <v>1.4260682790889301E-3</v>
+        <v>5.1029561229742003E-4</v>
       </c>
       <c r="AD6" s="34">
         <f t="array" ref="AD6">MAX(ABS(Y6:AC6))</f>
-        <v>0.90930471368152055</v>
+        <v>0.91014216757537958</v>
       </c>
       <c r="AE6" s="34">
         <f t="array" ref="AE6">MAX(IF($Y$2:$AC$2&lt;$AE$2,ABS($Y6:$AC6),0))</f>
-        <v>6.4561946511439202E-3</v>
+        <v>3.6832356369863998E-3</v>
       </c>
       <c r="AF6" s="4"/>
       <c r="AM6" s="4"/>
@@ -4336,25 +4336,25 @@
     </row>
     <row r="7" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="30">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C7" s="31">
         <v>200</v>
       </c>
       <c r="D7" s="32">
-        <v>0.52624649599929796</v>
+        <v>0.47989891424473702</v>
       </c>
       <c r="E7" s="32">
-        <v>1.20196558196857E-2</v>
+        <v>4.5489806922386702E-2</v>
       </c>
       <c r="F7" s="32">
-        <v>2.0729077896498201E-2</v>
+        <v>5.5712972057010103E-3</v>
       </c>
       <c r="G7" s="32">
-        <v>5.3449439935146902E-3</v>
+        <v>4.7875526957693497E-3</v>
       </c>
       <c r="H7" s="33">
-        <v>2.0316775161416099E-4</v>
+        <v>3.8982854852134298E-4</v>
       </c>
       <c r="I7" s="39"/>
       <c r="J7" s="39"/>
@@ -4371,33 +4371,33 @@
       <c r="U7" s="39"/>
       <c r="V7" s="39"/>
       <c r="W7" s="30">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X7" s="31">
         <v>200</v>
       </c>
       <c r="Y7" s="32">
-        <v>0.45077479599929793</v>
+        <v>0.40442721424473704</v>
       </c>
       <c r="Z7" s="32">
-        <v>-0.91250834418031435</v>
+        <v>-0.87903819307761333</v>
       </c>
       <c r="AA7" s="32">
-        <v>2.0729077896498201E-2</v>
+        <v>5.5712972057010103E-3</v>
       </c>
       <c r="AB7" s="32">
-        <v>5.3449439935146902E-3</v>
+        <v>4.7875526957693497E-3</v>
       </c>
       <c r="AC7" s="33">
-        <v>2.0316775161416099E-4</v>
+        <v>3.8982854852134298E-4</v>
       </c>
       <c r="AD7" s="34">
         <f t="array" ref="AD7">MAX(ABS(Y7:AC7))</f>
-        <v>0.91250834418031435</v>
+        <v>0.87903819307761333</v>
       </c>
       <c r="AE7" s="34">
         <f t="array" ref="AE7">MAX(IF($Y$2:$AC$2&lt;$AE$2,ABS($Y7:$AC7),0))</f>
-        <v>2.0729077896498201E-2</v>
+        <v>5.5712972057010103E-3</v>
       </c>
       <c r="AF7" s="4"/>
       <c r="AM7" s="4"/>
@@ -4411,19 +4411,19 @@
         <v>400</v>
       </c>
       <c r="D8" s="32">
-        <v>0.48833777026818198</v>
+        <v>0.495866871320084</v>
       </c>
       <c r="E8" s="32">
-        <v>6.2609349398677294E-2</v>
+        <v>1.1525250237261E-2</v>
       </c>
       <c r="F8" s="32">
-        <v>1.3885662193740299E-3</v>
+        <v>7.5972864223518904E-3</v>
       </c>
       <c r="G8" s="32">
-        <v>6.7370696898504004E-4</v>
+        <v>5.6068253864957496E-3</v>
       </c>
       <c r="H8" s="33">
-        <v>5.5399055166425798E-4</v>
+        <v>4.3360368408574001E-6</v>
       </c>
       <c r="I8" s="39"/>
       <c r="J8" s="39"/>
@@ -4446,27 +4446,27 @@
         <v>400</v>
       </c>
       <c r="Y8" s="32">
-        <v>0.41286607026818201</v>
+        <v>0.42039517132008397</v>
       </c>
       <c r="Z8" s="32">
-        <v>-0.86191865060132278</v>
+        <v>-0.91300274976273899</v>
       </c>
       <c r="AA8" s="32">
-        <v>1.3885662193740299E-3</v>
+        <v>7.5972864223518904E-3</v>
       </c>
       <c r="AB8" s="32">
-        <v>6.7370696898504004E-4</v>
+        <v>5.6068253864957496E-3</v>
       </c>
       <c r="AC8" s="33">
-        <v>5.5399055166425798E-4</v>
+        <v>4.3360368408574001E-6</v>
       </c>
       <c r="AD8" s="34">
         <f t="array" ref="AD8">MAX(ABS(Y8:AC8))</f>
-        <v>0.86191865060132278</v>
+        <v>0.91300274976273899</v>
       </c>
       <c r="AE8" s="34">
         <f t="array" ref="AE8">MAX(IF($Y$2:$AC$2&lt;$AE$2,ABS($Y8:$AC8),0))</f>
-        <v>1.3885662193740299E-3</v>
+        <v>7.5972864223518904E-3</v>
       </c>
       <c r="AF8" s="4"/>
       <c r="AM8" s="4"/>
@@ -4474,25 +4474,25 @@
     </row>
     <row r="9" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="30">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C9" s="31">
         <v>400</v>
       </c>
       <c r="D9" s="32">
-        <v>0.54843741311435401</v>
+        <v>0.49627649917696998</v>
       </c>
       <c r="E9" s="32">
-        <v>1.5421153133272599E-2</v>
+        <v>1.56221399871033E-2</v>
       </c>
       <c r="F9" s="32">
-        <v>2.4353185905272002E-3</v>
+        <v>7.8380797970826008E-3</v>
       </c>
       <c r="G9" s="32">
-        <v>2.99252611794252E-3</v>
+        <v>3.2295185525016601E-3</v>
       </c>
       <c r="H9" s="33">
-        <v>3.7943300607235601E-3</v>
+        <v>3.75402934520918E-4</v>
       </c>
       <c r="I9" s="39"/>
       <c r="J9" s="39"/>
@@ -4509,33 +4509,33 @@
       <c r="U9" s="39"/>
       <c r="V9" s="39"/>
       <c r="W9" s="30">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X9" s="31">
         <v>400</v>
       </c>
       <c r="Y9" s="32">
-        <v>0.47296571311435398</v>
+        <v>0.42080479917697</v>
       </c>
       <c r="Z9" s="32">
-        <v>-0.90910684686672738</v>
+        <v>-0.90890586001289675</v>
       </c>
       <c r="AA9" s="32">
-        <v>2.4353185905272002E-3</v>
+        <v>7.8380797970826008E-3</v>
       </c>
       <c r="AB9" s="32">
-        <v>2.99252611794252E-3</v>
+        <v>3.2295185525016601E-3</v>
       </c>
       <c r="AC9" s="33">
-        <v>3.7943300607235601E-3</v>
+        <v>3.75402934520918E-4</v>
       </c>
       <c r="AD9" s="34">
         <f t="array" ref="AD9">MAX(ABS(Y9:AC9))</f>
-        <v>0.90910684686672738</v>
+        <v>0.90890586001289675</v>
       </c>
       <c r="AE9" s="34">
         <f t="array" ref="AE9">MAX(IF($Y$2:$AC$2&lt;$AE$2,ABS($Y9:$AC9),0))</f>
-        <v>3.7943300607235601E-3</v>
+        <v>7.8380797970826008E-3</v>
       </c>
       <c r="AF9" s="4"/>
       <c r="AM9" s="4"/>
@@ -4549,19 +4549,19 @@
         <v>800</v>
       </c>
       <c r="D10" s="32">
-        <v>0.49019789193498398</v>
+        <v>0.47232018510692803</v>
       </c>
       <c r="E10" s="32">
-        <v>3.2607461651311002E-2</v>
+        <v>8.6104401196985692E-3</v>
       </c>
       <c r="F10" s="32">
-        <v>5.3685752338661101E-3</v>
+        <v>7.09912778309762E-3</v>
       </c>
       <c r="G10" s="32">
-        <v>2.08101469035612E-4</v>
+        <v>1.0591554986579201E-3</v>
       </c>
       <c r="H10" s="33">
-        <v>1.6122967762125502E-5</v>
+        <v>7.8968439004945001E-4</v>
       </c>
       <c r="I10" s="39"/>
       <c r="J10" s="39"/>
@@ -4584,27 +4584,27 @@
         <v>800</v>
       </c>
       <c r="Y10" s="32">
-        <v>0.41472619193498395</v>
+        <v>0.39684848510692805</v>
       </c>
       <c r="Z10" s="32">
-        <v>-0.89192053834868901</v>
+        <v>-0.91591755988030144</v>
       </c>
       <c r="AA10" s="32">
-        <v>5.3685752338661101E-3</v>
+        <v>7.09912778309762E-3</v>
       </c>
       <c r="AB10" s="32">
-        <v>2.08101469035612E-4</v>
+        <v>1.0591554986579201E-3</v>
       </c>
       <c r="AC10" s="33">
-        <v>1.6122967762125502E-5</v>
+        <v>7.8968439004945001E-4</v>
       </c>
       <c r="AD10" s="34">
         <f t="array" ref="AD10">MAX(ABS(Y10:AC10))</f>
-        <v>0.89192053834868901</v>
+        <v>0.91591755988030144</v>
       </c>
       <c r="AE10" s="34">
         <f t="array" ref="AE10">MAX(IF($Y$2:$AC$2&lt;$AE$2,ABS($Y10:$AC10),0))</f>
-        <v>5.3685752338661101E-3</v>
+        <v>7.09912778309762E-3</v>
       </c>
       <c r="AF10" s="4"/>
       <c r="AM10" s="4"/>
@@ -4612,25 +4612,25 @@
     </row>
     <row r="11" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="30">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C11" s="31">
         <v>800</v>
       </c>
       <c r="D11" s="32">
-        <v>0.474604219050691</v>
+        <v>0.48489119962474703</v>
       </c>
       <c r="E11" s="32">
-        <v>1.4527798482424701E-2</v>
+        <v>1.00831183098638E-2</v>
       </c>
       <c r="F11" s="32">
-        <v>6.8721840659365999E-3</v>
+        <v>2.8894104247602398E-3</v>
       </c>
       <c r="G11" s="32">
-        <v>2.1383200146366898E-3</v>
+        <v>2.9738840423242699E-3</v>
       </c>
       <c r="H11" s="33">
-        <v>1.60728670192919E-3</v>
+        <v>6.7494509264816901E-4</v>
       </c>
       <c r="I11" s="39"/>
       <c r="J11" s="39"/>
@@ -4647,33 +4647,33 @@
       <c r="U11" s="39"/>
       <c r="V11" s="39"/>
       <c r="W11" s="30">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X11" s="31">
         <v>800</v>
       </c>
       <c r="Y11" s="32">
-        <v>0.39913251905069103</v>
+        <v>0.409419499624747</v>
       </c>
       <c r="Z11" s="32">
-        <v>-0.91000020151757532</v>
+        <v>-0.91444488169013627</v>
       </c>
       <c r="AA11" s="32">
-        <v>6.8721840659365999E-3</v>
+        <v>2.8894104247602398E-3</v>
       </c>
       <c r="AB11" s="32">
-        <v>2.1383200146366898E-3</v>
+        <v>2.9738840423242699E-3</v>
       </c>
       <c r="AC11" s="33">
-        <v>1.60728670192919E-3</v>
+        <v>6.7494509264816901E-4</v>
       </c>
       <c r="AD11" s="34">
         <f t="array" ref="AD11">MAX(ABS(Y11:AC11))</f>
-        <v>0.91000020151757532</v>
+        <v>0.91444488169013627</v>
       </c>
       <c r="AE11" s="34">
         <f t="array" ref="AE11">MAX(IF($Y$2:$AC$2&lt;$AE$2,ABS($Y11:$AC11),0))</f>
-        <v>6.8721840659365999E-3</v>
+        <v>2.9738840423242699E-3</v>
       </c>
       <c r="AF11" s="4"/>
       <c r="AM11" s="4"/>
@@ -4687,19 +4687,19 @@
         <v>1600</v>
       </c>
       <c r="D12" s="32">
-        <v>0.49236443793470702</v>
+        <v>0.49203671272010002</v>
       </c>
       <c r="E12" s="32">
-        <v>1.9086762590788901E-2</v>
+        <v>1.39505090736238E-2</v>
       </c>
       <c r="F12" s="32">
-        <v>3.0363958651429498E-3</v>
+        <v>7.2611103595200399E-3</v>
       </c>
       <c r="G12" s="32">
-        <v>4.30299026238109E-4</v>
+        <v>2.3515331297861101E-3</v>
       </c>
       <c r="H12" s="33">
-        <v>1.7756293673924699E-4</v>
+        <v>8.4806826863425292E-6</v>
       </c>
       <c r="I12" s="39"/>
       <c r="J12" s="39"/>
@@ -4722,27 +4722,27 @@
         <v>1600</v>
       </c>
       <c r="Y12" s="32">
-        <v>0.41689273793470705</v>
+        <v>0.41656501272010005</v>
       </c>
       <c r="Z12" s="32">
-        <v>-0.90544123740921112</v>
+        <v>-0.91057749092637619</v>
       </c>
       <c r="AA12" s="32">
-        <v>3.0363958651429498E-3</v>
+        <v>7.2611103595200399E-3</v>
       </c>
       <c r="AB12" s="32">
-        <v>4.30299026238109E-4</v>
+        <v>2.3515331297861101E-3</v>
       </c>
       <c r="AC12" s="33">
-        <v>1.7756293673924699E-4</v>
+        <v>8.4806826863425292E-6</v>
       </c>
       <c r="AD12" s="34">
         <f t="array" ref="AD12">MAX(ABS(Y12:AC12))</f>
-        <v>0.90544123740921112</v>
+        <v>0.91057749092637619</v>
       </c>
       <c r="AE12" s="34">
         <f t="array" ref="AE12">MAX(IF($Y$2:$AC$2&lt;$AE$2,ABS($Y12:$AC12),0))</f>
-        <v>3.0363958651429498E-3</v>
+        <v>7.2611103595200399E-3</v>
       </c>
       <c r="AF12" s="4"/>
       <c r="AM12" s="4"/>
@@ -4750,25 +4750,25 @@
     </row>
     <row r="13" spans="1:40" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="35">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C13" s="36">
         <v>1600</v>
       </c>
       <c r="D13" s="37">
-        <v>0.49991984929620598</v>
+        <v>0.49624147707685201</v>
       </c>
       <c r="E13" s="37">
-        <v>7.9409198538469894E-2</v>
+        <v>6.1039899711369597E-3</v>
       </c>
       <c r="F13" s="37">
-        <v>9.0648467412978795E-4</v>
+        <v>4.7590925380454098E-3</v>
       </c>
       <c r="G13" s="37">
-        <v>7.7374707748464295E-5</v>
+        <v>4.2879645214607999E-3</v>
       </c>
       <c r="H13" s="38">
-        <v>2.5293714498713E-6</v>
+        <v>8.7849565230726297E-4</v>
       </c>
       <c r="I13" s="39"/>
       <c r="J13" s="39"/>
@@ -4785,33 +4785,33 @@
       <c r="U13" s="39"/>
       <c r="V13" s="39"/>
       <c r="W13" s="35">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X13" s="36">
         <v>1600</v>
       </c>
       <c r="Y13" s="37">
-        <v>0.424448149296206</v>
+        <v>0.42076977707685204</v>
       </c>
       <c r="Z13" s="37">
-        <v>-0.84511880146153007</v>
+        <v>-0.91842401002886309</v>
       </c>
       <c r="AA13" s="37">
-        <v>9.0648467412978795E-4</v>
+        <v>4.7590925380454098E-3</v>
       </c>
       <c r="AB13" s="37">
-        <v>7.7374707748464295E-5</v>
+        <v>4.2879645214607999E-3</v>
       </c>
       <c r="AC13" s="38">
-        <v>2.5293714498713E-6</v>
+        <v>8.7849565230726297E-4</v>
       </c>
       <c r="AD13" s="40">
         <f t="array" ref="AD13">MAX(ABS(Y13:AC13))</f>
-        <v>0.84511880146153007</v>
+        <v>0.91842401002886309</v>
       </c>
       <c r="AE13" s="40">
         <f t="array" ref="AE13">MAX(IF($Y$2:$AC$2&lt;$AE$2,ABS($Y13:$AC13),0))</f>
-        <v>9.0648467412978795E-4</v>
+        <v>4.7590925380454098E-3</v>
       </c>
       <c r="AF13" s="4"/>
       <c r="AM13" s="4"/>
@@ -4973,19 +4973,19 @@
         <v>100</v>
       </c>
       <c r="D17" s="32">
-        <v>0.56470158890280797</v>
+        <v>0.496885723961631</v>
       </c>
       <c r="E17" s="32">
-        <v>0.27499870162785001</v>
+        <v>0.48965731932559398</v>
       </c>
       <c r="F17" s="32">
-        <v>5.01995211680206E-4</v>
+        <v>-8.9946045412334304E-15</v>
       </c>
       <c r="G17" s="32">
-        <v>2.70461658556971E-4</v>
+        <v>-8.9946045412334304E-15</v>
       </c>
       <c r="H17" s="33">
-        <v>2.4924612005329099E-4</v>
+        <v>-8.9946045412334304E-15</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
@@ -5010,27 +5010,27 @@
       </c>
       <c r="Y17" s="32">
         <f t="array" ref="Y17:AC26">D17:H26-Y15:AC15</f>
-        <v>0.48922988890280794</v>
+        <v>0.42141402396163097</v>
       </c>
       <c r="Z17" s="32">
-        <v>-0.64952929837215001</v>
+        <v>-0.43487068067440604</v>
       </c>
       <c r="AA17" s="32">
-        <v>5.01995211680206E-4</v>
+        <v>-8.9946045412334304E-15</v>
       </c>
       <c r="AB17" s="32">
-        <v>2.70461658556971E-4</v>
+        <v>-8.9946045412334304E-15</v>
       </c>
       <c r="AC17" s="33">
-        <v>2.4924612005329099E-4</v>
+        <v>-8.9946045412334304E-15</v>
       </c>
       <c r="AD17" s="34">
         <f t="array" ref="AD17">MAX(ABS(Y17:AC17))</f>
-        <v>0.64952929837215001</v>
+        <v>0.43487068067440604</v>
       </c>
       <c r="AE17" s="34">
         <f t="array" ref="AE17">MAX(IF(Y$15:AC$15&lt;$AE$15,ABS($Y17:$AC17),0))</f>
-        <v>5.01995211680206E-4</v>
+        <v>8.9946045412334304E-15</v>
       </c>
       <c r="AG17" s="5"/>
       <c r="AH17" s="5"/>
@@ -5041,25 +5041,25 @@
     </row>
     <row r="18" spans="2:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="30">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C18" s="31">
         <v>100</v>
       </c>
       <c r="D18" s="32">
-        <v>0.50427239079730202</v>
+        <v>0.50104188794520199</v>
       </c>
       <c r="E18" s="32">
-        <v>0.48663980807887203</v>
+        <v>0.48617502140803398</v>
       </c>
       <c r="F18" s="32">
-        <v>2.5375096031797201E-8</v>
+        <v>-8.5627214147722604E-14</v>
       </c>
       <c r="G18" s="32">
-        <v>1.49915406686836E-9</v>
+        <v>-8.5627214147722604E-14</v>
       </c>
       <c r="H18" s="33">
-        <v>6.82429853629997E-12</v>
+        <v>-8.5627214147722604E-14</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
@@ -5076,33 +5076,33 @@
       <c r="U18" s="5"/>
       <c r="V18" s="5"/>
       <c r="W18" s="30">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X18" s="31">
         <v>100</v>
       </c>
       <c r="Y18" s="32">
-        <v>0.42880069079730199</v>
+        <v>0.42557018794520196</v>
       </c>
       <c r="Z18" s="32">
-        <v>-0.43788819192112799</v>
+        <v>-0.43835297859196604</v>
       </c>
       <c r="AA18" s="32">
-        <v>2.5375096031797201E-8</v>
+        <v>-8.5627214147722604E-14</v>
       </c>
       <c r="AB18" s="32">
-        <v>1.49915406686836E-9</v>
+        <v>-8.5627214147722604E-14</v>
       </c>
       <c r="AC18" s="33">
-        <v>6.82429853629997E-12</v>
+        <v>-8.5627214147722604E-14</v>
       </c>
       <c r="AD18" s="34">
         <f t="array" ref="AD18">MAX(ABS(Y18:AC18))</f>
-        <v>0.43788819192112799</v>
+        <v>0.43835297859196604</v>
       </c>
       <c r="AE18" s="34">
         <f t="array" ref="AE18">MAX(IF(Y$15:AC$15&lt;$AE$15,ABS($Y18:$AC18),0))</f>
-        <v>2.5375096031797201E-8</v>
+        <v>8.5627214147722604E-14</v>
       </c>
       <c r="AG18" s="5"/>
       <c r="AH18" s="5"/>
@@ -5119,19 +5119,19 @@
         <v>200</v>
       </c>
       <c r="D19" s="32">
-        <v>0.50393398198211903</v>
+        <v>0.50133245584104102</v>
       </c>
       <c r="E19" s="32">
-        <v>0.49315465029949501</v>
+        <v>0.493977311057608</v>
       </c>
       <c r="F19" s="32">
-        <v>1.4307375449696299E-10</v>
+        <v>-1.8331598827464399E-13</v>
       </c>
       <c r="G19" s="32">
-        <v>-1.10117325995644E-11</v>
+        <v>-1.8331598827464399E-13</v>
       </c>
       <c r="H19" s="33">
-        <v>-1.10117325995644E-11</v>
+        <v>-1.8331598827464399E-13</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
@@ -5154,27 +5154,27 @@
         <v>200</v>
       </c>
       <c r="Y19" s="32">
-        <v>0.428462281982119</v>
+        <v>0.42586075584104099</v>
       </c>
       <c r="Z19" s="32">
-        <v>-0.431373349700505</v>
+        <v>-0.43055068894239201</v>
       </c>
       <c r="AA19" s="32">
-        <v>1.4307375449696299E-10</v>
+        <v>-1.8331598827464399E-13</v>
       </c>
       <c r="AB19" s="32">
-        <v>-1.10117325995644E-11</v>
+        <v>-1.8331598827464399E-13</v>
       </c>
       <c r="AC19" s="33">
-        <v>-1.10117325995644E-11</v>
+        <v>-1.8331598827464399E-13</v>
       </c>
       <c r="AD19" s="34">
         <f t="array" ref="AD19">MAX(ABS(Y19:AC19))</f>
-        <v>0.431373349700505</v>
+        <v>0.43055068894239201</v>
       </c>
       <c r="AE19" s="34">
         <f t="array" ref="AE19">MAX(IF(Y$15:AC$15&lt;$AE$15,ABS($Y19:$AC19),0))</f>
-        <v>1.4307375449696299E-10</v>
+        <v>1.8331598827464399E-13</v>
       </c>
       <c r="AG19" s="5"/>
       <c r="AH19" s="5"/>
@@ -5185,25 +5185,25 @@
     </row>
     <row r="20" spans="2:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="30">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C20" s="31">
         <v>200</v>
       </c>
       <c r="D20" s="32">
-        <v>0.50291719374513</v>
+        <v>0.50819168659453295</v>
       </c>
       <c r="E20" s="32">
-        <v>0.49258856006273399</v>
+        <v>0.48389919863664899</v>
       </c>
       <c r="F20" s="32">
-        <v>-6.4792096819447403E-11</v>
+        <v>7.2181596656398897E-7</v>
       </c>
       <c r="G20" s="32">
-        <v>-2.0445032981720601E-11</v>
+        <v>2.8855788628341498E-11</v>
       </c>
       <c r="H20" s="33">
-        <v>-2.0445032981720601E-11</v>
+        <v>-1.2261110661755299E-13</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
@@ -5220,33 +5220,33 @@
       <c r="U20" s="5"/>
       <c r="V20" s="5"/>
       <c r="W20" s="30">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X20" s="31">
         <v>200</v>
       </c>
       <c r="Y20" s="32">
-        <v>0.42744549374512997</v>
+        <v>0.43271998659453292</v>
       </c>
       <c r="Z20" s="32">
-        <v>-0.43193943993726602</v>
+        <v>-0.44062880136335103</v>
       </c>
       <c r="AA20" s="32">
-        <v>-6.4792096819447403E-11</v>
+        <v>7.2181596656398897E-7</v>
       </c>
       <c r="AB20" s="32">
-        <v>-2.0445032981720601E-11</v>
+        <v>2.8855788628341498E-11</v>
       </c>
       <c r="AC20" s="33">
-        <v>-2.0445032981720601E-11</v>
+        <v>-1.2261110661755299E-13</v>
       </c>
       <c r="AD20" s="34">
         <f t="array" ref="AD20">MAX(ABS(Y20:AC20))</f>
-        <v>0.43193943993726602</v>
+        <v>0.44062880136335103</v>
       </c>
       <c r="AE20" s="34">
         <f t="array" ref="AE20">MAX(IF(Y$15:AC$15&lt;$AE$15,ABS($Y20:$AC20),0))</f>
-        <v>6.4792096819447403E-11</v>
+        <v>7.2181596656398897E-7</v>
       </c>
       <c r="AG20" s="5"/>
       <c r="AH20" s="5"/>
@@ -5263,19 +5263,19 @@
         <v>400</v>
       </c>
       <c r="D21" s="32">
-        <v>0.75256883557614795</v>
+        <v>0.50046523426564704</v>
       </c>
       <c r="E21" s="32">
-        <v>0.24663231052186099</v>
+        <v>0.49721359780282298</v>
       </c>
       <c r="F21" s="32">
-        <v>5.7300599960380998E-13</v>
+        <v>6.4193255058583101E-13</v>
       </c>
       <c r="G21" s="32">
-        <v>5.7300599960380998E-13</v>
+        <v>6.4193255058583101E-13</v>
       </c>
       <c r="H21" s="33">
-        <v>5.7300599960380998E-13</v>
+        <v>6.4193255058583101E-13</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
@@ -5298,27 +5298,27 @@
         <v>400</v>
       </c>
       <c r="Y21" s="32">
-        <v>0.67709713557614792</v>
+        <v>0.42499353426564701</v>
       </c>
       <c r="Z21" s="32">
-        <v>-0.67789568947813905</v>
+        <v>-0.42731440219717703</v>
       </c>
       <c r="AA21" s="32">
-        <v>5.7300599960380998E-13</v>
+        <v>6.4193255058583101E-13</v>
       </c>
       <c r="AB21" s="32">
-        <v>5.7300599960380998E-13</v>
+        <v>6.4193255058583101E-13</v>
       </c>
       <c r="AC21" s="33">
-        <v>5.7300599960380998E-13</v>
+        <v>6.4193255058583101E-13</v>
       </c>
       <c r="AD21" s="34">
         <f t="array" ref="AD21">MAX(ABS(Y21:AC21))</f>
-        <v>0.67789568947813905</v>
+        <v>0.42731440219717703</v>
       </c>
       <c r="AE21" s="34">
         <f t="array" ref="AE21">MAX(IF(Y$15:AC$15&lt;$AE$15,ABS($Y21:$AC21),0))</f>
-        <v>5.7300599960380998E-13</v>
+        <v>6.4193255058583101E-13</v>
       </c>
       <c r="AG21" s="5"/>
       <c r="AH21" s="5"/>
@@ -5329,25 +5329,25 @@
     </row>
     <row r="22" spans="2:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="30">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C22" s="31">
         <v>400</v>
       </c>
       <c r="D22" s="32">
-        <v>0.50168439469183601</v>
+        <v>0.49978763425706102</v>
       </c>
       <c r="E22" s="32">
-        <v>0.49637169538514098</v>
+        <v>0.49750662727918599</v>
       </c>
       <c r="F22" s="32">
-        <v>-2.3358628147654303E-10</v>
+        <v>1.3567027151691301E-13</v>
       </c>
       <c r="G22" s="32">
-        <v>5.3468762479409501E-11</v>
+        <v>1.3567027151691301E-13</v>
       </c>
       <c r="H22" s="33">
-        <v>5.3468762479409501E-11</v>
+        <v>1.3567027151691301E-13</v>
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
@@ -5364,33 +5364,33 @@
       <c r="U22" s="5"/>
       <c r="V22" s="5"/>
       <c r="W22" s="30">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X22" s="31">
         <v>400</v>
       </c>
       <c r="Y22" s="32">
-        <v>0.42621269469183598</v>
+        <v>0.42431593425706104</v>
       </c>
       <c r="Z22" s="32">
-        <v>-0.42815630461485904</v>
+        <v>-0.42702137272081403</v>
       </c>
       <c r="AA22" s="32">
-        <v>-2.3358628147654303E-10</v>
+        <v>1.3567027151691301E-13</v>
       </c>
       <c r="AB22" s="32">
-        <v>5.3468762479409501E-11</v>
+        <v>1.3567027151691301E-13</v>
       </c>
       <c r="AC22" s="33">
-        <v>5.3468762479409501E-11</v>
+        <v>1.3567027151691301E-13</v>
       </c>
       <c r="AD22" s="34">
         <f t="array" ref="AD22">MAX(ABS(Y22:AC22))</f>
-        <v>0.42815630461485904</v>
+        <v>0.42702137272081403</v>
       </c>
       <c r="AE22" s="34">
         <f t="array" ref="AE22">MAX(IF(Y$15:AC$15&lt;$AE$15,ABS($Y22:$AC22),0))</f>
-        <v>2.3358628147654303E-10</v>
+        <v>1.3567027151691301E-13</v>
       </c>
       <c r="AG22" s="5"/>
       <c r="AH22" s="5"/>
@@ -5407,19 +5407,19 @@
         <v>800</v>
       </c>
       <c r="D23" s="32">
-        <v>0.500864498518381</v>
+        <v>0.75146171219236302</v>
       </c>
       <c r="E23" s="32">
-        <v>0.49851680198734499</v>
+        <v>0.24822870644525599</v>
       </c>
       <c r="F23" s="32">
-        <v>6.8565929474979504E-12</v>
+        <v>-8.4198549073998997E-13</v>
       </c>
       <c r="G23" s="32">
-        <v>6.8565929474979504E-12</v>
+        <v>-8.4198549073998997E-13</v>
       </c>
       <c r="H23" s="33">
-        <v>6.8565929474979504E-12</v>
+        <v>-8.4198549073998997E-13</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
@@ -5442,27 +5442,27 @@
         <v>800</v>
       </c>
       <c r="Y23" s="32">
-        <v>0.42539279851838097</v>
+        <v>0.67599001219236299</v>
       </c>
       <c r="Z23" s="32">
-        <v>-0.42601119801265502</v>
+        <v>-0.67629929355474405</v>
       </c>
       <c r="AA23" s="32">
-        <v>6.8565929474979504E-12</v>
+        <v>-8.4198549073998997E-13</v>
       </c>
       <c r="AB23" s="32">
-        <v>6.8565929474979504E-12</v>
+        <v>-8.4198549073998997E-13</v>
       </c>
       <c r="AC23" s="33">
-        <v>6.8565929474979504E-12</v>
+        <v>-8.4198549073998997E-13</v>
       </c>
       <c r="AD23" s="34">
         <f t="array" ref="AD23">MAX(ABS(Y23:AC23))</f>
-        <v>0.42601119801265502</v>
+        <v>0.67629929355474405</v>
       </c>
       <c r="AE23" s="34">
         <f t="array" ref="AE23">MAX(IF(Y$15:AC$15&lt;$AE$15,ABS($Y23:$AC23),0))</f>
-        <v>6.8565929474979504E-12</v>
+        <v>8.4198549073998997E-13</v>
       </c>
       <c r="AG23" s="5"/>
       <c r="AH23" s="5"/>
@@ -5473,25 +5473,25 @@
     </row>
     <row r="24" spans="2:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="30">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C24" s="31">
         <v>800</v>
       </c>
       <c r="D24" s="32">
-        <v>0.75150952849997799</v>
+        <v>0.74849734977999205</v>
       </c>
       <c r="E24" s="32">
-        <v>0.24811905456738201</v>
+        <v>0.250911151206751</v>
       </c>
       <c r="F24" s="32">
-        <v>1.3910966412834799E-10</v>
+        <v>3.6004531587654398E-5</v>
       </c>
       <c r="G24" s="32">
-        <v>1.3910966412834799E-10</v>
+        <v>5.1653095371470804E-9</v>
       </c>
       <c r="H24" s="33">
-        <v>1.3910966412834799E-10</v>
+        <v>-8.7164637667063802E-12</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
@@ -5508,33 +5508,33 @@
       <c r="U24" s="5"/>
       <c r="V24" s="5"/>
       <c r="W24" s="30">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X24" s="31">
         <v>800</v>
       </c>
       <c r="Y24" s="32">
-        <v>0.67603782849997796</v>
+        <v>0.67302564977999202</v>
       </c>
       <c r="Z24" s="32">
-        <v>-0.67640894543261798</v>
+        <v>-0.67361684879324901</v>
       </c>
       <c r="AA24" s="32">
-        <v>1.3910966412834799E-10</v>
+        <v>3.6004531587654398E-5</v>
       </c>
       <c r="AB24" s="32">
-        <v>1.3910966412834799E-10</v>
+        <v>5.1653095371470804E-9</v>
       </c>
       <c r="AC24" s="33">
-        <v>1.3910966412834799E-10</v>
+        <v>-8.7164637667063802E-12</v>
       </c>
       <c r="AD24" s="34">
         <f t="array" ref="AD24">MAX(ABS(Y24:AC24))</f>
-        <v>0.67640894543261798</v>
+        <v>0.67361684879324901</v>
       </c>
       <c r="AE24" s="34">
         <f t="array" ref="AE24">MAX(IF(Y$15:AC$15&lt;$AE$15,ABS($Y24:$AC24),0))</f>
-        <v>1.3910966412834799E-10</v>
+        <v>3.6004531587654398E-5</v>
       </c>
       <c r="AG24" s="5"/>
       <c r="AH24" s="5"/>
@@ -5551,19 +5551,19 @@
         <v>1600</v>
       </c>
       <c r="D25" s="32">
-        <v>0.999999999999999</v>
+        <v>0.75014424772664601</v>
       </c>
       <c r="E25" s="32">
-        <v>0.999999999999999</v>
+        <v>0.74970797745338602</v>
       </c>
       <c r="F25" s="32">
-        <v>0.999999999999999</v>
+        <v>0.500000000000691</v>
       </c>
       <c r="G25" s="32">
-        <v>0.999999999999999</v>
+        <v>0.500000000000691</v>
       </c>
       <c r="H25" s="33">
-        <v>0.999999999999999</v>
+        <v>0.500000000000691</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
@@ -5586,27 +5586,27 @@
         <v>1600</v>
       </c>
       <c r="Y25" s="32">
-        <v>0.92452829999999897</v>
+        <v>0.67467254772664598</v>
       </c>
       <c r="Z25" s="32">
-        <v>7.5471999999998984E-2</v>
+        <v>-0.174820022546614</v>
       </c>
       <c r="AA25" s="32">
-        <v>0.999999999999999</v>
+        <v>0.500000000000691</v>
       </c>
       <c r="AB25" s="32">
-        <v>0.999999999999999</v>
+        <v>0.500000000000691</v>
       </c>
       <c r="AC25" s="33">
-        <v>0.999999999999999</v>
+        <v>0.500000000000691</v>
       </c>
       <c r="AD25" s="34">
         <f t="array" ref="AD25">MAX(ABS(Y25:AC25))</f>
-        <v>0.999999999999999</v>
+        <v>0.67467254772664598</v>
       </c>
       <c r="AE25" s="34">
         <f t="array" ref="AE25">MAX(IF(Y$15:AC$15&lt;$AE$15,ABS($Y25:$AC25),0))</f>
-        <v>0.999999999999999</v>
+        <v>0.500000000000691</v>
       </c>
       <c r="AG25" s="5"/>
       <c r="AH25" s="5"/>
@@ -5617,25 +5617,25 @@
     </row>
     <row r="26" spans="2:40" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="35">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C26" s="36">
         <v>1600</v>
       </c>
       <c r="D26" s="37">
-        <v>0.49761183842505502</v>
+        <v>0.48711588104340098</v>
       </c>
       <c r="E26" s="37">
-        <v>0.48943374776875997</v>
+        <v>0.45257963095005199</v>
       </c>
       <c r="F26" s="37">
-        <v>1.60379468405218E-6</v>
+        <v>1.0464695367014401E-11</v>
       </c>
       <c r="G26" s="37">
-        <v>1.17583113995393E-6</v>
+        <v>1.0464695367014401E-11</v>
       </c>
       <c r="H26" s="38">
-        <v>1.17583113995393E-6</v>
+        <v>1.0464695367014401E-11</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
@@ -5652,33 +5652,33 @@
       <c r="U26" s="5"/>
       <c r="V26" s="5"/>
       <c r="W26" s="35">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X26" s="36">
         <v>1600</v>
       </c>
       <c r="Y26" s="37">
-        <v>0.42214013842505504</v>
+        <v>0.41164418104340095</v>
       </c>
       <c r="Z26" s="37">
-        <v>-0.43509425223124004</v>
+        <v>-0.47194836904994802</v>
       </c>
       <c r="AA26" s="37">
-        <v>1.60379468405218E-6</v>
+        <v>1.0464695367014401E-11</v>
       </c>
       <c r="AB26" s="37">
-        <v>1.17583113995393E-6</v>
+        <v>1.0464695367014401E-11</v>
       </c>
       <c r="AC26" s="38">
-        <v>1.17583113995393E-6</v>
+        <v>1.0464695367014401E-11</v>
       </c>
       <c r="AD26" s="40">
         <f t="array" ref="AD26">MAX(ABS(Y26:AC26))</f>
-        <v>0.43509425223124004</v>
+        <v>0.47194836904994802</v>
       </c>
       <c r="AE26" s="40">
         <f t="array" ref="AE26">MAX(IF(Y$15:AC$15&lt;$AE$15,ABS($Y26:$AC26),0))</f>
-        <v>1.60379468405218E-6</v>
+        <v>1.0464695367014401E-11</v>
       </c>
       <c r="AG26" s="5"/>
       <c r="AH26" s="5"/>
@@ -5837,16 +5837,16 @@
         <v>100</v>
       </c>
       <c r="D31" s="32">
-        <v>0.38334043264522</v>
+        <v>0.48743061767858398</v>
       </c>
       <c r="E31" s="32">
-        <v>0.69296342434317504</v>
+        <v>0.56363978516137803</v>
       </c>
       <c r="F31" s="32">
-        <v>0.85498705123541596</v>
+        <v>0.97167050235378305</v>
       </c>
       <c r="G31" s="32">
-        <v>1</v>
+        <v>0.99972883118561795</v>
       </c>
       <c r="H31" s="33">
         <v>1</v>
@@ -5874,27 +5874,27 @@
       </c>
       <c r="Y31" s="32">
         <f t="array" ref="Y31:AC40">D31:H40-Y29:AC29</f>
-        <v>0.30786873264521997</v>
+        <v>0.41195891767858395</v>
       </c>
       <c r="Z31" s="32">
-        <v>-0.30703657565682496</v>
+        <v>-0.43636021483862197</v>
       </c>
       <c r="AA31" s="32">
-        <v>-0.14501294876458404</v>
+        <v>-2.832949764621695E-2</v>
       </c>
       <c r="AB31" s="32">
-        <v>0</v>
+        <v>-2.7116881438205009E-4</v>
       </c>
       <c r="AC31" s="33">
         <v>0</v>
       </c>
       <c r="AD31" s="34">
         <f t="array" ref="AD31">MAX(ABS(Y31:AC31))</f>
-        <v>0.30786873264521997</v>
+        <v>0.43636021483862197</v>
       </c>
       <c r="AE31" s="34">
         <f t="array" ref="AE31">MAX(IF($Y$29:$AC$29&gt;1-$AE$29,ABS($Y31:$AC31),0))</f>
-        <v>0.30703657565682496</v>
+        <v>0.43636021483862197</v>
       </c>
       <c r="AG31" s="5"/>
       <c r="AH31" s="5"/>
@@ -5905,22 +5905,22 @@
     </row>
     <row r="32" spans="2:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="30">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C32" s="31">
         <v>100</v>
       </c>
       <c r="D32" s="32">
-        <v>0.94892466248200902</v>
+        <v>0.98126518429355802</v>
       </c>
       <c r="E32" s="32">
-        <v>0.99865774840841004</v>
+        <v>0.99688177503057696</v>
       </c>
       <c r="F32" s="32">
-        <v>0.999820614291968</v>
+        <v>1.0000000000062901</v>
       </c>
       <c r="G32" s="32">
-        <v>0.99999999999988598</v>
+        <v>1</v>
       </c>
       <c r="H32" s="33">
         <v>1</v>
@@ -5940,33 +5940,33 @@
       <c r="U32" s="39"/>
       <c r="V32" s="39"/>
       <c r="W32" s="30">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X32" s="31">
         <v>100</v>
       </c>
       <c r="Y32" s="32">
-        <v>0.87345296248200899</v>
+        <v>0.90579348429355799</v>
       </c>
       <c r="Z32" s="32">
-        <v>-1.3422515915899602E-3</v>
+        <v>-3.1182249694230446E-3</v>
       </c>
       <c r="AA32" s="32">
-        <v>-1.7938570803199827E-4</v>
+        <v>6.2900795683162869E-12</v>
       </c>
       <c r="AB32" s="32">
-        <v>-1.1401990462900358E-13</v>
+        <v>0</v>
       </c>
       <c r="AC32" s="33">
         <v>0</v>
       </c>
       <c r="AD32" s="34">
         <f t="array" ref="AD32">MAX(ABS(Y32:AC32))</f>
-        <v>0.87345296248200899</v>
+        <v>0.90579348429355799</v>
       </c>
       <c r="AE32" s="34">
         <f t="array" ref="AE32">MAX(IF($Y$29:$AC$29&gt;1-$AE$29,ABS($Y32:$AC32),0))</f>
-        <v>1.3422515915899602E-3</v>
+        <v>3.1182249694230446E-3</v>
       </c>
       <c r="AG32" s="5"/>
       <c r="AH32" s="5"/>
@@ -5983,16 +5983,16 @@
         <v>200</v>
       </c>
       <c r="D33" s="32">
-        <v>0.71860754480288702</v>
+        <v>0.71338240579383405</v>
       </c>
       <c r="E33" s="32">
-        <v>0.75410975608388797</v>
+        <v>0.75990174551247902</v>
       </c>
       <c r="F33" s="32">
-        <v>0.82575593016284998</v>
+        <v>0.80640939279079404</v>
       </c>
       <c r="G33" s="32">
-        <v>0.93173345783796901</v>
+        <v>0.91309227301636497</v>
       </c>
       <c r="H33" s="33">
         <v>1</v>
@@ -6018,27 +6018,27 @@
         <v>200</v>
       </c>
       <c r="Y33" s="32">
-        <v>0.64313584480288699</v>
+        <v>0.63791070579383402</v>
       </c>
       <c r="Z33" s="32">
-        <v>-0.24589024391611203</v>
+        <v>-0.24009825448752098</v>
       </c>
       <c r="AA33" s="32">
-        <v>-0.17424406983715002</v>
+        <v>-0.19359060720920596</v>
       </c>
       <c r="AB33" s="32">
-        <v>-6.8266542162030985E-2</v>
+        <v>-8.6907726983635025E-2</v>
       </c>
       <c r="AC33" s="33">
         <v>0</v>
       </c>
       <c r="AD33" s="34">
         <f t="array" ref="AD33">MAX(ABS(Y33:AC33))</f>
-        <v>0.64313584480288699</v>
+        <v>0.63791070579383402</v>
       </c>
       <c r="AE33" s="34">
         <f t="array" ref="AE33">MAX(IF($Y$29:$AC$29&gt;1-$AE$29,ABS($Y33:$AC33),0))</f>
-        <v>0.24589024391611203</v>
+        <v>0.24009825448752098</v>
       </c>
       <c r="AG33" s="5"/>
       <c r="AH33" s="5"/>
@@ -6049,22 +6049,22 @@
     </row>
     <row r="34" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="30">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C34" s="31">
         <v>200</v>
       </c>
       <c r="D34" s="32">
-        <v>0.52624649599929796</v>
+        <v>0.47989891424473702</v>
       </c>
       <c r="E34" s="32">
-        <v>0.58280016918604705</v>
+        <v>0.55574736575970096</v>
       </c>
       <c r="F34" s="32">
-        <v>0.75477430167626203</v>
+        <v>0.764197403185638</v>
       </c>
       <c r="G34" s="32">
-        <v>0.99365858536038798</v>
+        <v>0.97462280244367105</v>
       </c>
       <c r="H34" s="33">
         <v>1</v>
@@ -6084,33 +6084,33 @@
       <c r="U34" s="39"/>
       <c r="V34" s="39"/>
       <c r="W34" s="30">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X34" s="31">
         <v>200</v>
       </c>
       <c r="Y34" s="32">
-        <v>0.45077479599929793</v>
+        <v>0.40442721424473704</v>
       </c>
       <c r="Z34" s="32">
-        <v>-0.41719983081395295</v>
+        <v>-0.44425263424029904</v>
       </c>
       <c r="AA34" s="32">
-        <v>-0.24522569832373797</v>
+        <v>-0.235802596814362</v>
       </c>
       <c r="AB34" s="32">
-        <v>-6.3414146396120197E-3</v>
+        <v>-2.5377197556328945E-2</v>
       </c>
       <c r="AC34" s="33">
         <v>0</v>
       </c>
       <c r="AD34" s="34">
         <f t="array" ref="AD34">MAX(ABS(Y34:AC34))</f>
-        <v>0.45077479599929793</v>
+        <v>0.44425263424029904</v>
       </c>
       <c r="AE34" s="34">
         <f t="array" ref="AE34">MAX(IF($Y$29:$AC$29&gt;1-$AE$29,ABS($Y34:$AC34),0))</f>
-        <v>0.41719983081395295</v>
+        <v>0.44425263424029904</v>
       </c>
       <c r="AG34" s="5"/>
       <c r="AH34" s="5"/>
@@ -6127,16 +6127,16 @@
         <v>400</v>
       </c>
       <c r="D35" s="32">
-        <v>0.48833777026818198</v>
+        <v>0.495866871320084</v>
       </c>
       <c r="E35" s="32">
-        <v>0.56737781744624205</v>
+        <v>0.52196738965455403</v>
       </c>
       <c r="F35" s="32">
-        <v>0.72883685413384902</v>
+        <v>0.59524068645790695</v>
       </c>
       <c r="G35" s="32">
-        <v>0.86852034988132099</v>
+        <v>0.99302465387531202</v>
       </c>
       <c r="H35" s="33">
         <v>1</v>
@@ -6162,27 +6162,27 @@
         <v>400</v>
       </c>
       <c r="Y35" s="32">
-        <v>0.41286607026818201</v>
+        <v>0.42039517132008397</v>
       </c>
       <c r="Z35" s="32">
-        <v>-0.43262218255375795</v>
+        <v>-0.47803261034544597</v>
       </c>
       <c r="AA35" s="32">
-        <v>-0.27116314586615098</v>
+        <v>-0.40475931354209305</v>
       </c>
       <c r="AB35" s="32">
-        <v>-0.13147965011867901</v>
+        <v>-6.9753461246879755E-3</v>
       </c>
       <c r="AC35" s="33">
         <v>0</v>
       </c>
       <c r="AD35" s="34">
         <f t="array" ref="AD35">MAX(ABS(Y35:AC35))</f>
-        <v>0.43262218255375795</v>
+        <v>0.47803261034544597</v>
       </c>
       <c r="AE35" s="34">
         <f t="array" ref="AE35">MAX(IF($Y$29:$AC$29&gt;1-$AE$29,ABS($Y35:$AC35),0))</f>
-        <v>0.43262218255375795</v>
+        <v>0.47803261034544597</v>
       </c>
       <c r="AG35" s="5"/>
       <c r="AH35" s="5"/>
@@ -6193,22 +6193,22 @@
     </row>
     <row r="36" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="30">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C36" s="31">
         <v>400</v>
       </c>
       <c r="D36" s="32">
-        <v>0.54843741311435401</v>
+        <v>0.49627649917696998</v>
       </c>
       <c r="E36" s="32">
-        <v>0.58899851738111397</v>
+        <v>0.53352010252308602</v>
       </c>
       <c r="F36" s="32">
-        <v>0.65076070826191801</v>
+        <v>0.66396697619479506</v>
       </c>
       <c r="G36" s="32">
-        <v>0.82851185327070798</v>
+        <v>0.96372976582468595</v>
       </c>
       <c r="H36" s="33">
         <v>1</v>
@@ -6228,33 +6228,33 @@
       <c r="U36" s="39"/>
       <c r="V36" s="39"/>
       <c r="W36" s="30">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X36" s="31">
         <v>400</v>
       </c>
       <c r="Y36" s="32">
-        <v>0.47296571311435398</v>
+        <v>0.42080479917697</v>
       </c>
       <c r="Z36" s="32">
-        <v>-0.41100148261888603</v>
+        <v>-0.46647989747691398</v>
       </c>
       <c r="AA36" s="32">
-        <v>-0.34923929173808199</v>
+        <v>-0.33603302380520494</v>
       </c>
       <c r="AB36" s="32">
-        <v>-0.17148814672929202</v>
+        <v>-3.6270234175314053E-2</v>
       </c>
       <c r="AC36" s="33">
         <v>0</v>
       </c>
       <c r="AD36" s="34">
         <f t="array" ref="AD36">MAX(ABS(Y36:AC36))</f>
-        <v>0.47296571311435398</v>
+        <v>0.46647989747691398</v>
       </c>
       <c r="AE36" s="34">
         <f t="array" ref="AE36">MAX(IF($Y$29:$AC$29&gt;1-$AE$29,ABS($Y36:$AC36),0))</f>
-        <v>0.41100148261888603</v>
+        <v>0.46647989747691398</v>
       </c>
       <c r="AG36" s="5"/>
       <c r="AH36" s="5"/>
@@ -6271,16 +6271,16 @@
         <v>800</v>
       </c>
       <c r="D37" s="32">
-        <v>0.49019789193498398</v>
+        <v>0.47232018510692803</v>
       </c>
       <c r="E37" s="32">
-        <v>0.52894682254584202</v>
+        <v>0.49161952737350501</v>
       </c>
       <c r="F37" s="32">
-        <v>0.83319011043604996</v>
+        <v>0.57433721715956798</v>
       </c>
       <c r="G37" s="32">
-        <v>0.97409420407585701</v>
+        <v>0.759715045379876</v>
       </c>
       <c r="H37" s="33">
         <v>1</v>
@@ -6306,27 +6306,27 @@
         <v>800</v>
       </c>
       <c r="Y37" s="32">
-        <v>0.41472619193498395</v>
+        <v>0.39684848510692805</v>
       </c>
       <c r="Z37" s="32">
-        <v>-0.47105317745415798</v>
+        <v>-0.50838047262649499</v>
       </c>
       <c r="AA37" s="32">
-        <v>-0.16680988956395004</v>
+        <v>-0.42566278284043202</v>
       </c>
       <c r="AB37" s="32">
-        <v>-2.5905795924142994E-2</v>
+        <v>-0.240284954620124</v>
       </c>
       <c r="AC37" s="33">
         <v>0</v>
       </c>
       <c r="AD37" s="34">
         <f t="array" ref="AD37">MAX(ABS(Y37:AC37))</f>
-        <v>0.47105317745415798</v>
+        <v>0.50838047262649499</v>
       </c>
       <c r="AE37" s="34">
         <f t="array" ref="AE37">MAX(IF($Y$29:$AC$29&gt;1-$AE$29,ABS($Y37:$AC37),0))</f>
-        <v>0.47105317745415798</v>
+        <v>0.50838047262649499</v>
       </c>
       <c r="AG37" s="5"/>
       <c r="AH37" s="5"/>
@@ -6337,22 +6337,22 @@
     </row>
     <row r="38" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="30">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C38" s="31">
         <v>800</v>
       </c>
       <c r="D38" s="32">
-        <v>0.474604219050691</v>
+        <v>0.48489119962474703</v>
       </c>
       <c r="E38" s="32">
-        <v>0.50218687195987699</v>
+        <v>0.50858400594439301</v>
       </c>
       <c r="F38" s="32">
-        <v>0.55248649154756002</v>
+        <v>0.57235820204830701</v>
       </c>
       <c r="G38" s="32">
-        <v>0.73837458257688104</v>
+        <v>0.75811377116991596</v>
       </c>
       <c r="H38" s="33">
         <v>1</v>
@@ -6372,33 +6372,33 @@
       <c r="U38" s="39"/>
       <c r="V38" s="39"/>
       <c r="W38" s="30">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X38" s="31">
         <v>800</v>
       </c>
       <c r="Y38" s="32">
-        <v>0.39913251905069103</v>
+        <v>0.409419499624747</v>
       </c>
       <c r="Z38" s="32">
-        <v>-0.49781312804012301</v>
+        <v>-0.49141599405560699</v>
       </c>
       <c r="AA38" s="32">
-        <v>-0.44751350845243998</v>
+        <v>-0.42764179795169299</v>
       </c>
       <c r="AB38" s="32">
-        <v>-0.26162541742311896</v>
+        <v>-0.24188622883008404</v>
       </c>
       <c r="AC38" s="33">
         <v>0</v>
       </c>
       <c r="AD38" s="34">
         <f t="array" ref="AD38">MAX(ABS(Y38:AC38))</f>
-        <v>0.49781312804012301</v>
+        <v>0.49141599405560699</v>
       </c>
       <c r="AE38" s="34">
         <f t="array" ref="AE38">MAX(IF($Y$29:$AC$29&gt;1-$AE$29,ABS($Y38:$AC38),0))</f>
-        <v>0.49781312804012301</v>
+        <v>0.49141599405560699</v>
       </c>
       <c r="AG38" s="5"/>
       <c r="AH38" s="5"/>
@@ -6415,16 +6415,16 @@
         <v>1600</v>
       </c>
       <c r="D39" s="32">
-        <v>0.49236443793470702</v>
+        <v>0.49203671272010002</v>
       </c>
       <c r="E39" s="32">
-        <v>0.51936247947495895</v>
+        <v>0.51092874759572005</v>
       </c>
       <c r="F39" s="32">
-        <v>0.58751266473991604</v>
+        <v>0.58497381568113405</v>
       </c>
       <c r="G39" s="32">
-        <v>0.787399276646507</v>
+        <v>0.979202864078911</v>
       </c>
       <c r="H39" s="33">
         <v>1</v>
@@ -6450,27 +6450,27 @@
         <v>1600</v>
       </c>
       <c r="Y39" s="32">
-        <v>0.41689273793470705</v>
+        <v>0.41656501272010005</v>
       </c>
       <c r="Z39" s="32">
-        <v>-0.48063752052504105</v>
+        <v>-0.48907125240427995</v>
       </c>
       <c r="AA39" s="32">
-        <v>-0.41248733526008396</v>
+        <v>-0.41502618431886595</v>
       </c>
       <c r="AB39" s="32">
-        <v>-0.212600723353493</v>
+        <v>-2.0797135921089005E-2</v>
       </c>
       <c r="AC39" s="33">
         <v>0</v>
       </c>
       <c r="AD39" s="34">
         <f t="array" ref="AD39">MAX(ABS(Y39:AC39))</f>
-        <v>0.48063752052504105</v>
+        <v>0.48907125240427995</v>
       </c>
       <c r="AE39" s="34">
         <f t="array" ref="AE39">MAX(IF($Y$29:$AC$29&gt;1-$AE$29,ABS($Y39:$AC39),0))</f>
-        <v>0.48063752052504105</v>
+        <v>0.48907125240427995</v>
       </c>
       <c r="AG39" s="5"/>
       <c r="AH39" s="5"/>
@@ -6481,22 +6481,22 @@
     </row>
     <row r="40" spans="2:38" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="35">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C40" s="36">
         <v>1600</v>
       </c>
       <c r="D40" s="37">
-        <v>0.49991984929620598</v>
+        <v>0.49624147707685201</v>
       </c>
       <c r="E40" s="37">
-        <v>0.58183322663855996</v>
+        <v>0.50987222104708196</v>
       </c>
       <c r="F40" s="37">
-        <v>0.80914490054784705</v>
+        <v>0.54179005269087899</v>
       </c>
       <c r="G40" s="37">
-        <v>0.99535844126997797</v>
+        <v>0.66945506112616504</v>
       </c>
       <c r="H40" s="38">
         <v>1</v>
@@ -6516,33 +6516,33 @@
       <c r="U40" s="39"/>
       <c r="V40" s="39"/>
       <c r="W40" s="35">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X40" s="36">
         <v>1600</v>
       </c>
       <c r="Y40" s="37">
-        <v>0.424448149296206</v>
+        <v>0.42076977707685204</v>
       </c>
       <c r="Z40" s="37">
-        <v>-0.41816677336144004</v>
+        <v>-0.49012777895291804</v>
       </c>
       <c r="AA40" s="37">
-        <v>-0.19085509945215295</v>
+        <v>-0.45820994730912101</v>
       </c>
       <c r="AB40" s="37">
-        <v>-4.6415587300220329E-3</v>
+        <v>-0.33054493887383496</v>
       </c>
       <c r="AC40" s="38">
         <v>0</v>
       </c>
       <c r="AD40" s="40">
         <f t="array" ref="AD40">MAX(ABS(Y40:AC40))</f>
-        <v>0.424448149296206</v>
+        <v>0.49012777895291804</v>
       </c>
       <c r="AE40" s="40">
         <f t="array" ref="AE40">MAX(IF($Y$29:$AC$29&gt;1-$AE$29,ABS($Y40:$AC40),0))</f>
-        <v>0.41816677336144004</v>
+        <v>0.49012777895291804</v>
       </c>
       <c r="AG40" s="5"/>
       <c r="AH40" s="5"/>
@@ -6632,19 +6632,19 @@
       <c r="X42" s="22"/>
       <c r="Y42" s="53">
         <f t="array" ref="Y42:AC42">AVERAGE(ABS(Y44:Y53))</f>
-        <v>0.19725158657168418</v>
+        <v>0.15481114312403235</v>
       </c>
       <c r="Z42" s="53">
-        <v>0.19725158657168418</v>
+        <v>0.15481114312403235</v>
       </c>
       <c r="AA42" s="53">
-        <v>0.19725158657168418</v>
+        <v>0.15481114312403235</v>
       </c>
       <c r="AB42" s="53">
-        <v>0.19725158657168418</v>
+        <v>0.15481114312403235</v>
       </c>
       <c r="AC42" s="54">
-        <v>0.19725158657168418</v>
+        <v>0.15481114312403235</v>
       </c>
       <c r="AD42" s="25"/>
       <c r="AE42" s="26">
@@ -6722,16 +6722,16 @@
         <v>100</v>
       </c>
       <c r="D44" s="32">
-        <v>0.56470158890280797</v>
+        <v>0.496885723961631</v>
       </c>
       <c r="E44" s="32">
-        <v>0.96440256127507695</v>
+        <v>1</v>
       </c>
       <c r="F44" s="32">
-        <v>0.98571312024775504</v>
+        <v>1</v>
       </c>
       <c r="G44" s="32">
-        <v>0.99635236701739505</v>
+        <v>1</v>
       </c>
       <c r="H44" s="33">
         <v>1</v>
@@ -6759,23 +6759,23 @@
       </c>
       <c r="Y44" s="14">
         <f t="array" ref="Y44:AC53">D44:H53-D31:H40</f>
-        <v>0.18136115625758797</v>
+        <v>9.4551062830470212E-3</v>
       </c>
       <c r="Z44" s="14">
-        <v>0.27143913693190191</v>
+        <v>0.43636021483862197</v>
       </c>
       <c r="AA44" s="14">
-        <v>0.13072606901233907</v>
+        <v>2.832949764621695E-2</v>
       </c>
       <c r="AB44" s="14">
-        <v>-3.6476329826049536E-3</v>
+        <v>2.7116881438205009E-4</v>
       </c>
       <c r="AC44" s="15">
         <v>0</v>
       </c>
       <c r="AD44" s="19">
         <f t="array" ref="AD44">MAX(ABS(Y44:AC44))</f>
-        <v>0.27143913693190191</v>
+        <v>0.43636021483862197</v>
       </c>
       <c r="AE44" s="19">
         <f t="array" ref="AE44">MAX(IF($Y$42:$AC$42&gt;1-$AE$42,ABS($Y44:$AC44),0))</f>
@@ -6790,19 +6790,19 @@
     </row>
     <row r="45" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="30">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C45" s="31">
         <v>100</v>
       </c>
       <c r="D45" s="32">
-        <v>0.50427239079730202</v>
+        <v>0.50104188794520199</v>
       </c>
       <c r="E45" s="32">
-        <v>0.99999967681915303</v>
+        <v>1</v>
       </c>
       <c r="F45" s="32">
-        <v>1.00000000119101</v>
+        <v>1</v>
       </c>
       <c r="G45" s="32">
         <v>1</v>
@@ -6825,29 +6825,29 @@
       <c r="U45" s="5"/>
       <c r="V45" s="5"/>
       <c r="W45" s="9">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X45" s="10">
         <v>100</v>
       </c>
       <c r="Y45" s="14">
-        <v>-0.444652271684707</v>
+        <v>-0.48022329634835603</v>
       </c>
       <c r="Z45" s="14">
-        <v>1.3419284107429874E-3</v>
+        <v>3.1182249694230446E-3</v>
       </c>
       <c r="AA45" s="14">
-        <v>1.7938689904195559E-4</v>
+        <v>-6.2900795683162869E-12</v>
       </c>
       <c r="AB45" s="14">
-        <v>1.1401990462900358E-13</v>
+        <v>0</v>
       </c>
       <c r="AC45" s="15">
         <v>0</v>
       </c>
       <c r="AD45" s="19">
         <f t="array" ref="AD45">MAX(ABS(Y45:AC45))</f>
-        <v>0.444652271684707</v>
+        <v>0.48022329634835603</v>
       </c>
       <c r="AE45" s="19">
         <f t="array" ref="AE45">MAX(IF($Y$42:$AC$42&gt;1-$AE$42,ABS($Y45:$AC45),0))</f>
@@ -6868,13 +6868,13 @@
         <v>200</v>
       </c>
       <c r="D46" s="32">
-        <v>0.50393398198211903</v>
+        <v>0.50133245584104102</v>
       </c>
       <c r="E46" s="32">
-        <v>0.99999999886449698</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="F46" s="32">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="G46" s="32">
         <v>1</v>
@@ -6903,23 +6903,23 @@
         <v>200</v>
       </c>
       <c r="Y46" s="14">
-        <v>-0.21467356282076799</v>
+        <v>-0.21204994995279303</v>
       </c>
       <c r="Z46" s="14">
-        <v>0.245890242780609</v>
+        <v>0.24009825448751998</v>
       </c>
       <c r="AA46" s="14">
-        <v>0.17424406983715002</v>
+        <v>0.19359060720920496</v>
       </c>
       <c r="AB46" s="14">
-        <v>6.8266542162030985E-2</v>
+        <v>8.6907726983635025E-2</v>
       </c>
       <c r="AC46" s="15">
         <v>0</v>
       </c>
       <c r="AD46" s="19">
         <f t="array" ref="AD46">MAX(ABS(Y46:AC46))</f>
-        <v>0.245890242780609</v>
+        <v>0.24009825448751998</v>
       </c>
       <c r="AE46" s="19">
         <f t="array" ref="AE46">MAX(IF($Y$42:$AC$42&gt;1-$AE$42,ABS($Y46:$AC46),0))</f>
@@ -6934,22 +6934,22 @@
     </row>
     <row r="47" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="30">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C47" s="31">
         <v>200</v>
       </c>
       <c r="D47" s="32">
-        <v>0.50291719374513</v>
+        <v>0.50819168659453295</v>
       </c>
       <c r="E47" s="32">
-        <v>0.99999999916693705</v>
+        <v>0.99998147834576401</v>
       </c>
       <c r="F47" s="32">
-        <v>0.999999999999999</v>
+        <v>0.99999999445069299</v>
       </c>
       <c r="G47" s="32">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="H47" s="33">
         <v>1</v>
@@ -6969,29 +6969,29 @@
       <c r="U47" s="5"/>
       <c r="V47" s="5"/>
       <c r="W47" s="9">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X47" s="10">
         <v>200</v>
       </c>
       <c r="Y47" s="14">
-        <v>-2.3329302254167961E-2</v>
+        <v>2.8292772349795936E-2</v>
       </c>
       <c r="Z47" s="14">
-        <v>0.41719982998089</v>
+        <v>0.44423411258606305</v>
       </c>
       <c r="AA47" s="14">
-        <v>0.24522569832373697</v>
+        <v>0.23580259126505498</v>
       </c>
       <c r="AB47" s="14">
-        <v>6.3414146396110205E-3</v>
+        <v>2.5377197556328945E-2</v>
       </c>
       <c r="AC47" s="15">
         <v>0</v>
       </c>
       <c r="AD47" s="19">
         <f t="array" ref="AD47">MAX(ABS(Y47:AC47))</f>
-        <v>0.41719982998089</v>
+        <v>0.44423411258606305</v>
       </c>
       <c r="AE47" s="19">
         <f t="array" ref="AE47">MAX(IF($Y$42:$AC$42&gt;1-$AE$42,ABS($Y47:$AC47),0))</f>
@@ -7012,16 +7012,16 @@
         <v>400</v>
       </c>
       <c r="D48" s="32">
-        <v>0.75256883557614795</v>
+        <v>0.50046523426564704</v>
       </c>
       <c r="E48" s="32">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="F48" s="32">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="G48" s="32">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="H48" s="33">
         <v>1</v>
@@ -7047,23 +7047,23 @@
         <v>400</v>
       </c>
       <c r="Y48" s="14">
-        <v>0.26423106530796597</v>
+        <v>4.5983629455630393E-3</v>
       </c>
       <c r="Z48" s="14">
-        <v>0.43262218255375795</v>
+        <v>0.47803261034544497</v>
       </c>
       <c r="AA48" s="14">
-        <v>0.27116314586615098</v>
+        <v>0.40475931354209205</v>
       </c>
       <c r="AB48" s="14">
-        <v>0.13147965011867901</v>
+        <v>6.9753461246869763E-3</v>
       </c>
       <c r="AC48" s="15">
         <v>0</v>
       </c>
       <c r="AD48" s="19">
         <f t="array" ref="AD48">MAX(ABS(Y48:AC48))</f>
-        <v>0.43262218255375795</v>
+        <v>0.47803261034544497</v>
       </c>
       <c r="AE48" s="19">
         <f t="array" ref="AE48">MAX(IF($Y$42:$AC$42&gt;1-$AE$42,ABS($Y48:$AC48),0))</f>
@@ -7078,16 +7078,16 @@
     </row>
     <row r="49" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="30">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C49" s="31">
         <v>400</v>
       </c>
       <c r="D49" s="32">
-        <v>0.50168439469183601</v>
+        <v>0.49978763425706102</v>
       </c>
       <c r="E49" s="32">
-        <v>0.99999999823044206</v>
+        <v>1</v>
       </c>
       <c r="F49" s="32">
         <v>1</v>
@@ -7113,29 +7113,29 @@
       <c r="U49" s="5"/>
       <c r="V49" s="5"/>
       <c r="W49" s="9">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X49" s="10">
         <v>400</v>
       </c>
       <c r="Y49" s="14">
-        <v>-4.6753018422518E-2</v>
+        <v>3.5111350800910435E-3</v>
       </c>
       <c r="Z49" s="14">
-        <v>0.41100148084932808</v>
+        <v>0.46647989747691398</v>
       </c>
       <c r="AA49" s="14">
-        <v>0.34923929173808199</v>
+        <v>0.33603302380520494</v>
       </c>
       <c r="AB49" s="14">
-        <v>0.17148814672929202</v>
+        <v>3.6270234175314053E-2</v>
       </c>
       <c r="AC49" s="15">
         <v>0</v>
       </c>
       <c r="AD49" s="19">
         <f t="array" ref="AD49">MAX(ABS(Y49:AC49))</f>
-        <v>0.41100148084932808</v>
+        <v>0.46647989747691398</v>
       </c>
       <c r="AE49" s="19">
         <f t="array" ref="AE49">MAX(IF($Y$42:$AC$42&gt;1-$AE$42,ABS($Y49:$AC49),0))</f>
@@ -7156,7 +7156,7 @@
         <v>800</v>
       </c>
       <c r="D50" s="32">
-        <v>0.500864498518381</v>
+        <v>0.75146171219236302</v>
       </c>
       <c r="E50" s="32">
         <v>1</v>
@@ -7165,7 +7165,7 @@
         <v>1</v>
       </c>
       <c r="G50" s="32">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="H50" s="33">
         <v>1</v>
@@ -7191,23 +7191,23 @@
         <v>800</v>
       </c>
       <c r="Y50" s="14">
-        <v>1.066660658339702E-2</v>
+        <v>0.27914152708543499</v>
       </c>
       <c r="Z50" s="14">
-        <v>0.47105317745415798</v>
+        <v>0.50838047262649499</v>
       </c>
       <c r="AA50" s="14">
-        <v>0.16680988956395004</v>
+        <v>0.42566278284043202</v>
       </c>
       <c r="AB50" s="14">
-        <v>2.5905795924142994E-2</v>
+        <v>0.240284954620123</v>
       </c>
       <c r="AC50" s="15">
         <v>0</v>
       </c>
       <c r="AD50" s="19">
         <f t="array" ref="AD50">MAX(ABS(Y50:AC50))</f>
-        <v>0.47105317745415798</v>
+        <v>0.50838047262649499</v>
       </c>
       <c r="AE50" s="19">
         <f t="array" ref="AE50">MAX(IF($Y$42:$AC$42&gt;1-$AE$42,ABS($Y50:$AC50),0))</f>
@@ -7222,22 +7222,22 @@
     </row>
     <row r="51" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="30">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C51" s="31">
         <v>800</v>
       </c>
       <c r="D51" s="32">
-        <v>0.75150952849997799</v>
+        <v>0.74849734977999205</v>
       </c>
       <c r="E51" s="32">
-        <v>0.999999999999999</v>
+        <v>0.99996234393705696</v>
       </c>
       <c r="F51" s="32">
-        <v>1</v>
+        <v>0.99999998228637998</v>
       </c>
       <c r="G51" s="32">
-        <v>1</v>
+        <v>1.00000000000889</v>
       </c>
       <c r="H51" s="33">
         <v>1</v>
@@ -7257,29 +7257,29 @@
       <c r="U51" s="5"/>
       <c r="V51" s="5"/>
       <c r="W51" s="9">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X51" s="10">
         <v>800</v>
       </c>
       <c r="Y51" s="14">
-        <v>0.27690530944928698</v>
+        <v>0.26360615015524502</v>
       </c>
       <c r="Z51" s="14">
-        <v>0.49781312804012201</v>
+        <v>0.49137833799266395</v>
       </c>
       <c r="AA51" s="14">
-        <v>0.44751350845243998</v>
+        <v>0.42764178023807298</v>
       </c>
       <c r="AB51" s="14">
-        <v>0.26162541742311896</v>
+        <v>0.24188622883897404</v>
       </c>
       <c r="AC51" s="15">
         <v>0</v>
       </c>
       <c r="AD51" s="19">
         <f t="array" ref="AD51">MAX(ABS(Y51:AC51))</f>
-        <v>0.49781312804012201</v>
+        <v>0.49137833799266395</v>
       </c>
       <c r="AE51" s="19">
         <f t="array" ref="AE51">MAX(IF($Y$42:$AC$42&gt;1-$AE$42,ABS($Y51:$AC51),0))</f>
@@ -7300,7 +7300,7 @@
         <v>1600</v>
       </c>
       <c r="D52" s="32">
-        <v>0.999999999999999</v>
+        <v>0.75014424772664601</v>
       </c>
       <c r="E52" s="32">
         <v>1</v>
@@ -7335,23 +7335,23 @@
         <v>1600</v>
       </c>
       <c r="Y52" s="14">
-        <v>0.50763556206529192</v>
+        <v>0.25810753500654599</v>
       </c>
       <c r="Z52" s="14">
-        <v>0.48063752052504105</v>
+        <v>0.48907125240427995</v>
       </c>
       <c r="AA52" s="14">
-        <v>0.41248733526008396</v>
+        <v>0.41502618431886595</v>
       </c>
       <c r="AB52" s="14">
-        <v>0.212600723353493</v>
+        <v>2.0797135921089005E-2</v>
       </c>
       <c r="AC52" s="15">
         <v>0</v>
       </c>
       <c r="AD52" s="19">
         <f t="array" ref="AD52">MAX(ABS(Y52:AC52))</f>
-        <v>0.50763556206529192</v>
+        <v>0.48907125240427995</v>
       </c>
       <c r="AE52" s="19">
         <f t="array" ref="AE52">MAX(IF($Y$42:$AC$42&gt;1-$AE$42,ABS($Y52:$AC52),0))</f>
@@ -7366,19 +7366,19 @@
     </row>
     <row r="53" spans="2:38" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="35">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C53" s="36">
         <v>1600</v>
       </c>
       <c r="D53" s="37">
-        <v>0.49761183842505502</v>
+        <v>0.48711588104340098</v>
       </c>
       <c r="E53" s="37">
-        <v>0.99996320111905701</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="F53" s="37">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="G53" s="37">
         <v>1</v>
@@ -7401,29 +7401,29 @@
       <c r="U53" s="5"/>
       <c r="V53" s="5"/>
       <c r="W53" s="11">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X53" s="13">
         <v>1600</v>
       </c>
       <c r="Y53" s="16">
-        <v>-2.3080108711509562E-3</v>
+        <v>-9.1255960334510333E-3</v>
       </c>
       <c r="Z53" s="16">
-        <v>0.41812997448049705</v>
+        <v>0.49012777895291704</v>
       </c>
       <c r="AA53" s="16">
-        <v>0.19085509945215295</v>
+        <v>0.45820994730912001</v>
       </c>
       <c r="AB53" s="16">
-        <v>4.6415587300220329E-3</v>
+        <v>0.33054493887383496</v>
       </c>
       <c r="AC53" s="17">
         <v>0</v>
       </c>
       <c r="AD53" s="20">
         <f t="array" ref="AD53">MAX(ABS(Y53:AC53))</f>
-        <v>0.41812997448049705</v>
+        <v>0.49012777895291704</v>
       </c>
       <c r="AE53" s="20">
         <f t="array" ref="AE53">MAX(IF($Y$42:$AC$42&gt;1-$AE$42,ABS($Y53:$AC53),0))</f>
@@ -7446,7 +7446,7 @@
   <dimension ref="A1:AN53"/>
   <sheetViews>
     <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="Y42" sqref="Y42:AC42"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7653,7 +7653,7 @@
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B5" s="9">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C5" s="10">
         <v>100</v>
@@ -7688,7 +7688,7 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="9">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X5" s="10">
         <v>100</v>
@@ -7785,7 +7785,7 @@
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B7" s="9">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C7" s="10">
         <v>200</v>
@@ -7820,7 +7820,7 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="9">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X7" s="10">
         <v>200</v>
@@ -7917,7 +7917,7 @@
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B9" s="9">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C9" s="10">
         <v>400</v>
@@ -7952,7 +7952,7 @@
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9" s="9">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X9" s="10">
         <v>400</v>
@@ -8049,7 +8049,7 @@
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B11" s="9">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C11" s="10">
         <v>800</v>
@@ -8084,7 +8084,7 @@
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="9">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X11" s="10">
         <v>800</v>
@@ -8181,7 +8181,7 @@
     </row>
     <row r="13" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="11">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C13" s="13">
         <v>1600</v>
@@ -8216,7 +8216,7 @@
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
       <c r="W13" s="11">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X13" s="13">
         <v>1600</v>
@@ -8434,7 +8434,7 @@
     </row>
     <row r="18" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B18" s="9">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C18" s="10">
         <v>100</v>
@@ -8455,7 +8455,7 @@
         <v>2.6063140706735301E-11</v>
       </c>
       <c r="W18" s="9">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X18" s="10">
         <v>100</v>
@@ -8538,7 +8538,7 @@
     </row>
     <row r="20" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B20" s="9">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C20" s="10">
         <v>200</v>
@@ -8559,7 +8559,7 @@
         <v>-2.0899869216398099E-9</v>
       </c>
       <c r="W20" s="9">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X20" s="10">
         <v>200</v>
@@ -8642,7 +8642,7 @@
     </row>
     <row r="22" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B22" s="9">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C22" s="10">
         <v>400</v>
@@ -8663,7 +8663,7 @@
         <v>2.2968779870772699E-10</v>
       </c>
       <c r="W22" s="9">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X22" s="10">
         <v>400</v>
@@ -8746,7 +8746,7 @@
     </row>
     <row r="24" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B24" s="9">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C24" s="10">
         <v>800</v>
@@ -8767,7 +8767,7 @@
         <v>-2.5592738398030201E-4</v>
       </c>
       <c r="W24" s="9">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X24" s="10">
         <v>800</v>
@@ -8850,7 +8850,7 @@
     </row>
     <row r="26" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="11">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C26" s="13">
         <v>1600</v>
@@ -8871,7 +8871,7 @@
         <v>1.2053188150389299E-3</v>
       </c>
       <c r="W26" s="11">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X26" s="13">
         <v>1600</v>
@@ -9070,7 +9070,7 @@
     </row>
     <row r="32" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B32" s="9">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C32" s="10">
         <v>100</v>
@@ -9105,7 +9105,7 @@
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
       <c r="W32" s="9">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X32" s="10">
         <v>100</v>
@@ -9202,7 +9202,7 @@
     </row>
     <row r="34" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B34" s="9">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C34" s="10">
         <v>200</v>
@@ -9237,7 +9237,7 @@
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
       <c r="W34" s="9">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X34" s="10">
         <v>200</v>
@@ -9334,7 +9334,7 @@
     </row>
     <row r="36" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B36" s="9">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C36" s="10">
         <v>400</v>
@@ -9369,7 +9369,7 @@
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
       <c r="W36" s="9">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X36" s="10">
         <v>400</v>
@@ -9466,7 +9466,7 @@
     </row>
     <row r="38" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B38" s="9">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C38" s="10">
         <v>800</v>
@@ -9501,7 +9501,7 @@
       <c r="U38" s="1"/>
       <c r="V38" s="1"/>
       <c r="W38" s="9">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X38" s="10">
         <v>800</v>
@@ -9598,7 +9598,7 @@
     </row>
     <row r="40" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="11">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C40" s="13">
         <v>1600</v>
@@ -9633,7 +9633,7 @@
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
       <c r="W40" s="11">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X40" s="13">
         <v>1600</v>
@@ -9851,7 +9851,7 @@
     </row>
     <row r="45" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B45" s="9">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C45" s="10">
         <v>100</v>
@@ -9872,7 +9872,7 @@
         <v>1</v>
       </c>
       <c r="W45" s="9">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X45" s="10">
         <v>100</v>
@@ -9955,7 +9955,7 @@
     </row>
     <row r="47" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B47" s="9">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C47" s="10">
         <v>200</v>
@@ -9976,7 +9976,7 @@
         <v>1</v>
       </c>
       <c r="W47" s="9">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X47" s="10">
         <v>200</v>
@@ -10059,7 +10059,7 @@
     </row>
     <row r="49" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B49" s="9">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C49" s="10">
         <v>400</v>
@@ -10080,7 +10080,7 @@
         <v>1</v>
       </c>
       <c r="W49" s="9">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X49" s="10">
         <v>400</v>
@@ -10163,7 +10163,7 @@
     </row>
     <row r="51" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B51" s="9">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C51" s="10">
         <v>800</v>
@@ -10184,7 +10184,7 @@
         <v>1</v>
       </c>
       <c r="W51" s="9">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X51" s="10">
         <v>800</v>
@@ -10267,7 +10267,7 @@
     </row>
     <row r="53" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="11">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C53" s="13">
         <v>1600</v>
@@ -10288,7 +10288,7 @@
         <v>1</v>
       </c>
       <c r="W53" s="11">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X53" s="13">
         <v>1600</v>
@@ -10327,7 +10327,7 @@
   <dimension ref="A1:AN53"/>
   <sheetViews>
     <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="Y42" sqref="Y42:AC42"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10535,7 +10535,7 @@
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B5" s="9">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C5" s="10">
         <v>100</v>
@@ -10570,7 +10570,7 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="9">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X5" s="10">
         <v>100</v>
@@ -10667,7 +10667,7 @@
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B7" s="9">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C7" s="10">
         <v>200</v>
@@ -10702,7 +10702,7 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="9">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X7" s="10">
         <v>200</v>
@@ -10799,7 +10799,7 @@
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B9" s="9">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C9" s="10">
         <v>400</v>
@@ -10834,7 +10834,7 @@
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9" s="9">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X9" s="10">
         <v>400</v>
@@ -10931,7 +10931,7 @@
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B11" s="9">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C11" s="10">
         <v>800</v>
@@ -10966,7 +10966,7 @@
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="9">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X11" s="10">
         <v>800</v>
@@ -11063,7 +11063,7 @@
     </row>
     <row r="13" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="11">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C13" s="13">
         <v>1600</v>
@@ -11098,7 +11098,7 @@
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
       <c r="W13" s="11">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X13" s="13">
         <v>1600</v>
@@ -11316,7 +11316,7 @@
     </row>
     <row r="18" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B18" s="9">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C18" s="10">
         <v>100</v>
@@ -11337,7 +11337,7 @@
         <v>4.7252811787206099E-3</v>
       </c>
       <c r="W18" s="9">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X18" s="10">
         <v>100</v>
@@ -11420,7 +11420,7 @@
     </row>
     <row r="20" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B20" s="9">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C20" s="10">
         <v>200</v>
@@ -11441,7 +11441,7 @@
         <v>1.33736264058793E-2</v>
       </c>
       <c r="W20" s="9">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X20" s="10">
         <v>200</v>
@@ -11524,7 +11524,7 @@
     </row>
     <row r="22" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B22" s="9">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C22" s="10">
         <v>400</v>
@@ -11545,7 +11545,7 @@
         <v>2.29863587475569E-2</v>
       </c>
       <c r="W22" s="9">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X22" s="10">
         <v>400</v>
@@ -11628,7 +11628,7 @@
     </row>
     <row r="24" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B24" s="9">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C24" s="10">
         <v>800</v>
@@ -11649,7 +11649,7 @@
         <v>4.1511555565491201E-2</v>
       </c>
       <c r="W24" s="9">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X24" s="10">
         <v>800</v>
@@ -11732,7 +11732,7 @@
     </row>
     <row r="26" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="11">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C26" s="13">
         <v>1600</v>
@@ -11753,7 +11753,7 @@
         <v>3.6812331699254602E-2</v>
       </c>
       <c r="W26" s="11">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X26" s="13">
         <v>1600</v>
@@ -11957,7 +11957,7 @@
     </row>
     <row r="32" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B32" s="9">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C32" s="10">
         <v>100</v>
@@ -11992,7 +11992,7 @@
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
       <c r="W32" s="9">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X32" s="10">
         <v>100</v>
@@ -12089,7 +12089,7 @@
     </row>
     <row r="34" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B34" s="9">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C34" s="10">
         <v>200</v>
@@ -12124,7 +12124,7 @@
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
       <c r="W34" s="9">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X34" s="10">
         <v>200</v>
@@ -12221,7 +12221,7 @@
     </row>
     <row r="36" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B36" s="9">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C36" s="10">
         <v>400</v>
@@ -12256,7 +12256,7 @@
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
       <c r="W36" s="9">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X36" s="10">
         <v>400</v>
@@ -12353,7 +12353,7 @@
     </row>
     <row r="38" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B38" s="9">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C38" s="10">
         <v>800</v>
@@ -12388,7 +12388,7 @@
       <c r="U38" s="1"/>
       <c r="V38" s="1"/>
       <c r="W38" s="9">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X38" s="10">
         <v>800</v>
@@ -12485,7 +12485,7 @@
     </row>
     <row r="40" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="11">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C40" s="13">
         <v>1600</v>
@@ -12520,7 +12520,7 @@
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
       <c r="W40" s="11">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X40" s="13">
         <v>1600</v>
@@ -12738,7 +12738,7 @@
     </row>
     <row r="45" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B45" s="9">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C45" s="10">
         <v>100</v>
@@ -12759,7 +12759,7 @@
         <v>1</v>
       </c>
       <c r="W45" s="9">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X45" s="10">
         <v>100</v>
@@ -12842,7 +12842,7 @@
     </row>
     <row r="47" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B47" s="9">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C47" s="10">
         <v>200</v>
@@ -12863,7 +12863,7 @@
         <v>1</v>
       </c>
       <c r="W47" s="9">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X47" s="10">
         <v>200</v>
@@ -12946,7 +12946,7 @@
     </row>
     <row r="49" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B49" s="9">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C49" s="10">
         <v>400</v>
@@ -12967,7 +12967,7 @@
         <v>1</v>
       </c>
       <c r="W49" s="9">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X49" s="10">
         <v>400</v>
@@ -13050,7 +13050,7 @@
     </row>
     <row r="51" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B51" s="9">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C51" s="10">
         <v>800</v>
@@ -13071,7 +13071,7 @@
         <v>1</v>
       </c>
       <c r="W51" s="9">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X51" s="10">
         <v>800</v>
@@ -13154,7 +13154,7 @@
     </row>
     <row r="53" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="11">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C53" s="13">
         <v>1600</v>
@@ -13175,7 +13175,7 @@
         <v>1</v>
       </c>
       <c r="W53" s="11">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X53" s="13">
         <v>1600</v>
